--- a/data-result/flights-flat.xlsx
+++ b/data-result/flights-flat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Documents/Chaper2/github-code/segmentation-3D/data-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E98AA-68E1-664E-8C4E-D919AB7D7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E54546-7752-AA4E-9074-3671A2B35C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="-21100" windowWidth="31720" windowHeight="21100" activeTab="2" xr2:uid="{BE131FAD-70C2-C04D-94BD-68B1DC699088}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="15500" activeTab="2" xr2:uid="{BE131FAD-70C2-C04D-94BD-68B1DC699088}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="136">
   <si>
     <t>4_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -397,10 +397,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>移动严重，去噪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>屋顶，建筑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -568,6 +564,60 @@
     <t>2	2	0	1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>有运动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这头牛数据有点奇怪需要注意，应该是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="TimesNewRomanPSMT"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是回归时候就是不对。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍弯曲  垂直</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动严重，去噪 可作为说明图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -716,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,6 +830,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,32 +857,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,23 +1198,23 @@
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="31" t="str">
+      <c r="F1" s="24" t="str">
         <f>_xlfn.CONCAT(A1,"-",B1)</f>
         <v>8-1</v>
       </c>
-      <c r="G1" s="31" t="str">
+      <c r="G1" s="24" t="str">
         <f>_xlfn.CONCAT("9-",C1)</f>
         <v>9-62</v>
       </c>
-      <c r="H1" s="31" t="str">
+      <c r="H1" s="24" t="str">
         <f>_xlfn.CONCAT(F1,"_",G1)</f>
         <v>8-1_9-62</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="32" t="s">
-        <v>95</v>
+      <c r="J1" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1198,10 +1242,10 @@
         <v>8-1_9-58</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1232,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1263,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1294,7 +1338,7 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1309,20 +1353,20 @@
         <v>32</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="31" t="str">
+      <c r="F6" s="24" t="str">
         <f t="shared" si="1"/>
         <v>8-7</v>
       </c>
-      <c r="G6" s="31" t="str">
+      <c r="G6" s="24" t="str">
         <f>_xlfn.CONCAT("8-",D6)</f>
         <v>8-32</v>
       </c>
-      <c r="H6" s="31" t="str">
+      <c r="H6" s="24" t="str">
         <f t="shared" si="0"/>
         <v>8-7_8-32</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6">
@@ -1352,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1367,20 +1411,20 @@
         <v>30</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="31" t="str">
+      <c r="F8" s="24" t="str">
         <f t="shared" si="1"/>
         <v>8-9</v>
       </c>
-      <c r="G8" s="31" t="str">
+      <c r="G8" s="24" t="str">
         <f t="shared" si="2"/>
         <v>8-30</v>
       </c>
-      <c r="H8" s="31" t="str">
+      <c r="H8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>8-9_8-30</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="6">
@@ -1410,7 +1454,7 @@
         <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1441,7 +1485,7 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1472,7 +1516,7 @@
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1503,7 +1547,7 @@
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1534,7 +1578,7 @@
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1562,10 +1606,10 @@
         <v>10-7_8-37</v>
       </c>
       <c r="I14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" t="s">
         <v>106</v>
-      </c>
-      <c r="J14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1596,7 +1640,7 @@
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1611,23 +1655,23 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="31" t="str">
+      <c r="F16" s="24" t="str">
         <f t="shared" si="1"/>
         <v>15-1</v>
       </c>
-      <c r="G16" s="31" t="str">
+      <c r="G16" s="24" t="str">
         <f>_xlfn.CONCAT("9-",C16)</f>
         <v>9-53</v>
       </c>
-      <c r="H16" s="31" t="str">
+      <c r="H16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>15-1_9-53</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1658,7 +1702,7 @@
         <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1689,7 +1733,7 @@
         <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1717,10 +1761,10 @@
         <v>15-3_9-49</v>
       </c>
       <c r="I19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" t="s">
         <v>113</v>
-      </c>
-      <c r="J19" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1748,10 +1792,10 @@
         <v>15-5_9-50</v>
       </c>
       <c r="I20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" t="s">
         <v>115</v>
-      </c>
-      <c r="J20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1782,7 +1826,7 @@
         <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1813,7 +1857,7 @@
         <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1841,10 +1885,10 @@
         <v>30-1_9-73</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1875,7 +1919,7 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1906,7 +1950,7 @@
         <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1937,7 +1981,7 @@
         <v>30</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1968,7 +2012,7 @@
         <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1996,10 +2040,10 @@
         <v>30-9_9-66</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2030,7 +2074,7 @@
         <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2061,7 +2105,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2092,7 +2136,7 @@
         <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2123,7 +2167,7 @@
         <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2154,7 +2198,7 @@
         <v>35</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2185,7 +2229,7 @@
         <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2254,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21">
+      <c r="A1" s="27">
         <v>62</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2231,7 +2275,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2247,7 +2291,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -2263,7 +2307,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -2281,7 +2325,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2299,7 +2343,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
@@ -2317,7 +2361,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="23"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2379,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21">
+      <c r="A8" s="27">
         <v>58</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2351,7 +2395,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
@@ -2367,7 +2411,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
@@ -2380,7 +2424,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
@@ -2393,7 +2437,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
@@ -2406,7 +2450,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
@@ -2419,7 +2463,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
@@ -2437,7 +2481,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
@@ -2455,7 +2499,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -2473,7 +2517,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="21">
+      <c r="A17" s="27">
         <v>59</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -2491,7 +2535,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="10" t="s">
         <v>1</v>
       </c>
@@ -2507,7 +2551,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="22"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
@@ -2523,7 +2567,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
@@ -2539,7 +2583,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="10" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2599,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
@@ -2571,7 +2615,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="23"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
@@ -2589,7 +2633,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="21">
+      <c r="A24" s="27">
         <v>60</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -2607,7 +2651,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="22"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="10" t="s">
         <v>1</v>
       </c>
@@ -2623,7 +2667,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="22"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="10" t="s">
         <v>1</v>
       </c>
@@ -2639,7 +2683,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="22"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2699,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="22"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
@@ -2673,7 +2717,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="23"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="9" t="s">
         <v>2</v>
       </c>
@@ -2691,7 +2735,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="21">
+      <c r="A30" s="27">
         <v>61</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2709,7 +2753,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="22"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="10" t="s">
         <v>1</v>
       </c>
@@ -2725,7 +2769,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="22"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="10" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2785,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="22"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="10" t="s">
         <v>1</v>
       </c>
@@ -2757,7 +2801,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="22"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="10" t="s">
         <v>1</v>
       </c>
@@ -2773,7 +2817,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="22"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="10" t="s">
         <v>1</v>
       </c>
@@ -2789,7 +2833,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="22"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
@@ -2805,7 +2849,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="23"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="10" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +2865,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="21">
+      <c r="A38" s="27">
         <v>33</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -2839,7 +2883,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="22"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="10" t="s">
         <v>1</v>
       </c>
@@ -2855,7 +2899,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="22"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="10" t="s">
         <v>1</v>
       </c>
@@ -2871,7 +2915,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="22"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="10" t="s">
         <v>1</v>
       </c>
@@ -2887,7 +2931,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="22"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="10" t="s">
         <v>1</v>
       </c>
@@ -2903,7 +2947,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="22"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="10" t="s">
         <v>1</v>
       </c>
@@ -2919,7 +2963,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="22"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="10" t="s">
         <v>1</v>
       </c>
@@ -2935,7 +2979,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="22"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="10" t="s">
         <v>1</v>
       </c>
@@ -2951,7 +2995,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="22"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="10" t="s">
         <v>1</v>
       </c>
@@ -2967,7 +3011,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="22"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="10" t="s">
         <v>1</v>
       </c>
@@ -2983,7 +3027,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="22"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="10" t="s">
         <v>1</v>
       </c>
@@ -2999,7 +3043,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="22"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="10" t="s">
         <v>1</v>
       </c>
@@ -3015,7 +3059,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="22"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="10" t="s">
         <v>1</v>
       </c>
@@ -3031,7 +3075,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="22"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="10" t="s">
         <v>1</v>
       </c>
@@ -3047,7 +3091,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="22"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="10" t="s">
         <v>1</v>
       </c>
@@ -3063,7 +3107,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="22"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="9" t="s">
         <v>2</v>
       </c>
@@ -3075,7 +3119,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="22"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="9" t="s">
         <v>2</v>
       </c>
@@ -3093,7 +3137,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="23"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="9" t="s">
         <v>2</v>
       </c>
@@ -3107,7 +3151,7 @@
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="21">
+      <c r="A56" s="27">
         <v>31</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -3125,7 +3169,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="22"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="10" t="s">
         <v>1</v>
       </c>
@@ -3141,7 +3185,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="22"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="10" t="s">
         <v>1</v>
       </c>
@@ -3157,7 +3201,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="22"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="10" t="s">
         <v>1</v>
       </c>
@@ -3173,7 +3217,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="22"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="10" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3233,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="22"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="10" t="s">
         <v>1</v>
       </c>
@@ -3205,7 +3249,7 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="22"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="10" t="s">
         <v>1</v>
       </c>
@@ -3221,7 +3265,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="22"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="10" t="s">
         <v>1</v>
       </c>
@@ -3237,7 +3281,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="22"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="10" t="s">
         <v>1</v>
       </c>
@@ -3253,7 +3297,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="22"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="10" t="s">
         <v>1</v>
       </c>
@@ -3266,7 +3310,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="22"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="10" t="s">
         <v>1</v>
       </c>
@@ -3282,7 +3326,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="22"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="10" t="s">
         <v>1</v>
       </c>
@@ -3298,7 +3342,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="22"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="10" t="s">
         <v>1</v>
       </c>
@@ -3314,7 +3358,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="22"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="10" t="s">
         <v>1</v>
       </c>
@@ -3330,7 +3374,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="23"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="10" t="s">
         <v>1</v>
       </c>
@@ -3346,7 +3390,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="21">
+      <c r="A71" s="27">
         <v>54</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -3364,7 +3408,7 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="22"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="10" t="s">
         <v>1</v>
       </c>
@@ -3380,7 +3424,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="22"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="10" t="s">
         <v>1</v>
       </c>
@@ -3396,7 +3440,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="22"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="10" t="s">
         <v>1</v>
       </c>
@@ -3412,7 +3456,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="22"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="10" t="s">
         <v>1</v>
       </c>
@@ -3428,7 +3472,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="22"/>
+      <c r="A76" s="28"/>
       <c r="B76" s="10" t="s">
         <v>1</v>
       </c>
@@ -3444,7 +3488,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="22"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="10" t="s">
         <v>1</v>
       </c>
@@ -3460,7 +3504,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="22"/>
+      <c r="A78" s="28"/>
       <c r="B78" s="10" t="s">
         <v>1</v>
       </c>
@@ -3476,7 +3520,7 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="22"/>
+      <c r="A79" s="28"/>
       <c r="B79" s="9" t="s">
         <v>2</v>
       </c>
@@ -3494,7 +3538,7 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="23"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="9" t="s">
         <v>2</v>
       </c>
@@ -3512,7 +3556,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="21">
+      <c r="A81" s="27">
         <v>55</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -3530,7 +3574,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="22"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="10" t="s">
         <v>1</v>
       </c>
@@ -3546,7 +3590,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="22"/>
+      <c r="A83" s="28"/>
       <c r="B83" s="10" t="s">
         <v>1</v>
       </c>
@@ -3562,7 +3606,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="22"/>
+      <c r="A84" s="28"/>
       <c r="B84" s="10" t="s">
         <v>1</v>
       </c>
@@ -3578,7 +3622,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="22"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="10" t="s">
         <v>1</v>
       </c>
@@ -3594,7 +3638,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="22"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="10" t="s">
         <v>1</v>
       </c>
@@ -3610,7 +3654,7 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="22"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="9" t="s">
         <v>2</v>
       </c>
@@ -3628,7 +3672,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="23"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="9" t="s">
         <v>2</v>
       </c>
@@ -3646,7 +3690,7 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="21">
+      <c r="A89" s="27">
         <v>56</v>
       </c>
       <c r="B89" s="10" t="s">
@@ -3664,7 +3708,7 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="22"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="10" t="s">
         <v>1</v>
       </c>
@@ -3680,7 +3724,7 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="22"/>
+      <c r="A91" s="28"/>
       <c r="B91" s="10" t="s">
         <v>1</v>
       </c>
@@ -3696,7 +3740,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="22"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="10" t="s">
         <v>1</v>
       </c>
@@ -3712,7 +3756,7 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="22"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="10" t="s">
         <v>1</v>
       </c>
@@ -3728,7 +3772,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="22"/>
+      <c r="A94" s="28"/>
       <c r="B94" s="10" t="s">
         <v>1</v>
       </c>
@@ -3744,7 +3788,7 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="22"/>
+      <c r="A95" s="28"/>
       <c r="B95" s="10" t="s">
         <v>1</v>
       </c>
@@ -3760,7 +3804,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="22"/>
+      <c r="A96" s="28"/>
       <c r="B96" s="9" t="s">
         <v>2</v>
       </c>
@@ -3778,7 +3822,7 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="22"/>
+      <c r="A97" s="28"/>
       <c r="B97" s="9" t="s">
         <v>2</v>
       </c>
@@ -3796,7 +3840,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="22"/>
+      <c r="A98" s="28"/>
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -3814,7 +3858,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="22"/>
+      <c r="A99" s="28"/>
       <c r="B99" s="9" t="s">
         <v>2</v>
       </c>
@@ -3832,7 +3876,7 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="23"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="9" t="s">
         <v>2</v>
       </c>
@@ -3850,7 +3894,7 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="21">
+      <c r="A101" s="27">
         <v>57</v>
       </c>
       <c r="B101" s="10" t="s">
@@ -3868,7 +3912,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="22"/>
+      <c r="A102" s="28"/>
       <c r="B102" s="10" t="s">
         <v>1</v>
       </c>
@@ -3884,7 +3928,7 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="22"/>
+      <c r="A103" s="28"/>
       <c r="B103" s="10" t="s">
         <v>1</v>
       </c>
@@ -3900,7 +3944,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="22"/>
+      <c r="A104" s="28"/>
       <c r="B104" s="10" t="s">
         <v>1</v>
       </c>
@@ -3916,7 +3960,7 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="22"/>
+      <c r="A105" s="28"/>
       <c r="B105" s="10" t="s">
         <v>1</v>
       </c>
@@ -3932,7 +3976,7 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="22"/>
+      <c r="A106" s="28"/>
       <c r="B106" s="10" t="s">
         <v>1</v>
       </c>
@@ -3948,7 +3992,7 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="22"/>
+      <c r="A107" s="28"/>
       <c r="B107" s="10" t="s">
         <v>1</v>
       </c>
@@ -3964,7 +4008,7 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="22"/>
+      <c r="A108" s="28"/>
       <c r="B108" s="10" t="s">
         <v>1</v>
       </c>
@@ -3980,7 +4024,7 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="22"/>
+      <c r="A109" s="28"/>
       <c r="B109" s="10" t="s">
         <v>1</v>
       </c>
@@ -3996,7 +4040,7 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="22"/>
+      <c r="A110" s="28"/>
       <c r="B110" s="10" t="s">
         <v>1</v>
       </c>
@@ -4012,7 +4056,7 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="22"/>
+      <c r="A111" s="28"/>
       <c r="B111" s="10" t="s">
         <v>1</v>
       </c>
@@ -4028,7 +4072,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="23"/>
+      <c r="A112" s="29"/>
       <c r="B112" s="11" t="s">
         <v>2</v>
       </c>
@@ -4046,7 +4090,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="21">
+      <c r="A113" s="27">
         <v>37</v>
       </c>
       <c r="B113" s="10" t="s">
@@ -4064,7 +4108,7 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="22"/>
+      <c r="A114" s="28"/>
       <c r="B114" s="10" t="s">
         <v>1</v>
       </c>
@@ -4080,7 +4124,7 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="22"/>
+      <c r="A115" s="28"/>
       <c r="B115" s="10" t="s">
         <v>1</v>
       </c>
@@ -4096,7 +4140,7 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="22"/>
+      <c r="A116" s="28"/>
       <c r="B116" s="10" t="s">
         <v>1</v>
       </c>
@@ -4112,7 +4156,7 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="22"/>
+      <c r="A117" s="28"/>
       <c r="B117" s="10" t="s">
         <v>1</v>
       </c>
@@ -4128,7 +4172,7 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="22"/>
+      <c r="A118" s="28"/>
       <c r="B118" s="10" t="s">
         <v>1</v>
       </c>
@@ -4144,7 +4188,7 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="22"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="10" t="s">
         <v>1</v>
       </c>
@@ -4160,7 +4204,7 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="22"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="10" t="s">
         <v>1</v>
       </c>
@@ -4176,7 +4220,7 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="22"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="10" t="s">
         <v>1</v>
       </c>
@@ -4192,7 +4236,7 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="22"/>
+      <c r="A122" s="28"/>
       <c r="B122" s="10" t="s">
         <v>1</v>
       </c>
@@ -4208,7 +4252,7 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="22"/>
+      <c r="A123" s="28"/>
       <c r="B123" s="10" t="s">
         <v>1</v>
       </c>
@@ -4224,7 +4268,7 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="22"/>
+      <c r="A124" s="28"/>
       <c r="B124" s="10" t="s">
         <v>1</v>
       </c>
@@ -4240,7 +4284,7 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="22"/>
+      <c r="A125" s="28"/>
       <c r="B125" s="9" t="s">
         <v>2</v>
       </c>
@@ -4258,7 +4302,7 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="23"/>
+      <c r="A126" s="29"/>
       <c r="B126" s="9" t="s">
         <v>2</v>
       </c>
@@ -4276,7 +4320,7 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="21">
+      <c r="A127" s="27">
         <v>38</v>
       </c>
       <c r="B127" s="10" t="s">
@@ -4294,7 +4338,7 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="22"/>
+      <c r="A128" s="28"/>
       <c r="B128" s="10" t="s">
         <v>1</v>
       </c>
@@ -4310,7 +4354,7 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="22"/>
+      <c r="A129" s="28"/>
       <c r="B129" s="10" t="s">
         <v>1</v>
       </c>
@@ -4326,7 +4370,7 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="22"/>
+      <c r="A130" s="28"/>
       <c r="B130" s="10" t="s">
         <v>1</v>
       </c>
@@ -4342,7 +4386,7 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="22"/>
+      <c r="A131" s="28"/>
       <c r="B131" s="10" t="s">
         <v>1</v>
       </c>
@@ -4358,7 +4402,7 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="22"/>
+      <c r="A132" s="28"/>
       <c r="B132" s="10" t="s">
         <v>1</v>
       </c>
@@ -4374,7 +4418,7 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="22"/>
+      <c r="A133" s="28"/>
       <c r="B133" s="10" t="s">
         <v>1</v>
       </c>
@@ -4390,7 +4434,7 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="22"/>
+      <c r="A134" s="28"/>
       <c r="B134" s="10" t="s">
         <v>1</v>
       </c>
@@ -4406,7 +4450,7 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="22"/>
+      <c r="A135" s="28"/>
       <c r="B135" s="10" t="s">
         <v>1</v>
       </c>
@@ -4422,7 +4466,7 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="22"/>
+      <c r="A136" s="28"/>
       <c r="B136" s="9" t="s">
         <v>2</v>
       </c>
@@ -4440,7 +4484,7 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="23"/>
+      <c r="A137" s="29"/>
       <c r="B137" s="9" t="s">
         <v>2</v>
       </c>
@@ -4458,7 +4502,7 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="21">
+      <c r="A138" s="27">
         <v>53</v>
       </c>
       <c r="B138" s="10" t="s">
@@ -4476,7 +4520,7 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="22"/>
+      <c r="A139" s="28"/>
       <c r="B139" s="10" t="s">
         <v>1</v>
       </c>
@@ -4492,7 +4536,7 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="22"/>
+      <c r="A140" s="28"/>
       <c r="B140" s="10" t="s">
         <v>1</v>
       </c>
@@ -4508,7 +4552,7 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="22"/>
+      <c r="A141" s="28"/>
       <c r="B141" s="10" t="s">
         <v>1</v>
       </c>
@@ -4524,7 +4568,7 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="22"/>
+      <c r="A142" s="28"/>
       <c r="B142" s="10" t="s">
         <v>1</v>
       </c>
@@ -4540,7 +4584,7 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="22"/>
+      <c r="A143" s="28"/>
       <c r="B143" s="10" t="s">
         <v>1</v>
       </c>
@@ -4556,7 +4600,7 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="22"/>
+      <c r="A144" s="28"/>
       <c r="B144" s="10" t="s">
         <v>1</v>
       </c>
@@ -4572,7 +4616,7 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="22"/>
+      <c r="A145" s="28"/>
       <c r="B145" s="9" t="s">
         <v>2</v>
       </c>
@@ -4588,7 +4632,7 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="22"/>
+      <c r="A146" s="28"/>
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -4604,7 +4648,7 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="22"/>
+      <c r="A147" s="28"/>
       <c r="B147" s="9" t="s">
         <v>2</v>
       </c>
@@ -4622,7 +4666,7 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="22"/>
+      <c r="A148" s="28"/>
       <c r="B148" s="9" t="s">
         <v>2</v>
       </c>
@@ -4640,7 +4684,7 @@
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="22"/>
+      <c r="A149" s="28"/>
       <c r="B149" s="9" t="s">
         <v>2</v>
       </c>
@@ -4658,7 +4702,7 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="22"/>
+      <c r="A150" s="28"/>
       <c r="B150" s="9" t="s">
         <v>2</v>
       </c>
@@ -4676,7 +4720,7 @@
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="22"/>
+      <c r="A151" s="28"/>
       <c r="B151" s="9" t="s">
         <v>2</v>
       </c>
@@ -4694,7 +4738,7 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="22"/>
+      <c r="A152" s="28"/>
       <c r="B152" s="9" t="s">
         <v>2</v>
       </c>
@@ -4712,7 +4756,7 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="22"/>
+      <c r="A153" s="28"/>
       <c r="B153" s="9" t="s">
         <v>2</v>
       </c>
@@ -4730,7 +4774,7 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="22"/>
+      <c r="A154" s="28"/>
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -4742,7 +4786,7 @@
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="22"/>
+      <c r="A155" s="28"/>
       <c r="B155" s="9" t="s">
         <v>2</v>
       </c>
@@ -4754,7 +4798,7 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="22"/>
+      <c r="A156" s="28"/>
       <c r="B156" s="9" t="s">
         <v>2</v>
       </c>
@@ -4772,7 +4816,7 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="23"/>
+      <c r="A157" s="29"/>
       <c r="B157" s="9" t="s">
         <v>2</v>
       </c>
@@ -4790,7 +4834,7 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="21">
+      <c r="A158" s="27">
         <v>52</v>
       </c>
       <c r="B158" s="10" t="s">
@@ -4808,7 +4852,7 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="22"/>
+      <c r="A159" s="28"/>
       <c r="B159" s="10" t="s">
         <v>1</v>
       </c>
@@ -4824,7 +4868,7 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="22"/>
+      <c r="A160" s="28"/>
       <c r="B160" s="10" t="s">
         <v>1</v>
       </c>
@@ -4840,7 +4884,7 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="22"/>
+      <c r="A161" s="28"/>
       <c r="B161" s="10" t="s">
         <v>1</v>
       </c>
@@ -4856,7 +4900,7 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="22"/>
+      <c r="A162" s="28"/>
       <c r="B162" s="10" t="s">
         <v>1</v>
       </c>
@@ -4872,7 +4916,7 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="22"/>
+      <c r="A163" s="28"/>
       <c r="B163" s="10" t="s">
         <v>1</v>
       </c>
@@ -4888,7 +4932,7 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="22"/>
+      <c r="A164" s="28"/>
       <c r="B164" s="10" t="s">
         <v>1</v>
       </c>
@@ -4904,7 +4948,7 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="22"/>
+      <c r="A165" s="28"/>
       <c r="B165" s="9" t="s">
         <v>2</v>
       </c>
@@ -4922,7 +4966,7 @@
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="22"/>
+      <c r="A166" s="28"/>
       <c r="B166" s="9" t="s">
         <v>2</v>
       </c>
@@ -4940,7 +4984,7 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="22"/>
+      <c r="A167" s="28"/>
       <c r="B167" s="9" t="s">
         <v>2</v>
       </c>
@@ -4958,7 +5002,7 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="22"/>
+      <c r="A168" s="28"/>
       <c r="B168" s="9" t="s">
         <v>2</v>
       </c>
@@ -4976,7 +5020,7 @@
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="22"/>
+      <c r="A169" s="28"/>
       <c r="B169" s="9" t="s">
         <v>2</v>
       </c>
@@ -4994,7 +5038,7 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="22"/>
+      <c r="A170" s="28"/>
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
@@ -5012,7 +5056,7 @@
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="23"/>
+      <c r="A171" s="29"/>
       <c r="B171" s="9" t="s">
         <v>2</v>
       </c>
@@ -5030,7 +5074,7 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="21">
+      <c r="A172" s="27">
         <v>51</v>
       </c>
       <c r="B172" s="10" t="s">
@@ -5048,7 +5092,7 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="22"/>
+      <c r="A173" s="28"/>
       <c r="B173" s="10" t="s">
         <v>1</v>
       </c>
@@ -5064,7 +5108,7 @@
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="22"/>
+      <c r="A174" s="28"/>
       <c r="B174" s="10" t="s">
         <v>1</v>
       </c>
@@ -5080,7 +5124,7 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="22"/>
+      <c r="A175" s="28"/>
       <c r="B175" s="10" t="s">
         <v>1</v>
       </c>
@@ -5096,7 +5140,7 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="22"/>
+      <c r="A176" s="28"/>
       <c r="B176" s="10" t="s">
         <v>1</v>
       </c>
@@ -5112,7 +5156,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="22"/>
+      <c r="A177" s="28"/>
       <c r="B177" s="10" t="s">
         <v>1</v>
       </c>
@@ -5128,7 +5172,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="22"/>
+      <c r="A178" s="28"/>
       <c r="B178" s="10" t="s">
         <v>1</v>
       </c>
@@ -5144,7 +5188,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="22"/>
+      <c r="A179" s="28"/>
       <c r="B179" s="10" t="s">
         <v>1</v>
       </c>
@@ -5160,7 +5204,7 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="22"/>
+      <c r="A180" s="28"/>
       <c r="B180" s="9" t="s">
         <v>2</v>
       </c>
@@ -5176,7 +5220,7 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="22"/>
+      <c r="A181" s="28"/>
       <c r="B181" s="9" t="s">
         <v>2</v>
       </c>
@@ -5192,7 +5236,7 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="22"/>
+      <c r="A182" s="28"/>
       <c r="B182" s="9" t="s">
         <v>2</v>
       </c>
@@ -5210,7 +5254,7 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="22"/>
+      <c r="A183" s="28"/>
       <c r="B183" s="9" t="s">
         <v>2</v>
       </c>
@@ -5228,7 +5272,7 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="22"/>
+      <c r="A184" s="28"/>
       <c r="B184" s="9" t="s">
         <v>2</v>
       </c>
@@ -5246,7 +5290,7 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="22"/>
+      <c r="A185" s="28"/>
       <c r="B185" s="9" t="s">
         <v>2</v>
       </c>
@@ -5264,7 +5308,7 @@
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="22"/>
+      <c r="A186" s="28"/>
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -5282,7 +5326,7 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="23"/>
+      <c r="A187" s="29"/>
       <c r="B187" s="9" t="s">
         <v>2</v>
       </c>
@@ -5300,7 +5344,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="21">
+      <c r="A188" s="27">
         <v>49</v>
       </c>
       <c r="B188" s="10" t="s">
@@ -5318,7 +5362,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="22"/>
+      <c r="A189" s="28"/>
       <c r="B189" s="10" t="s">
         <v>1</v>
       </c>
@@ -5334,7 +5378,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="22"/>
+      <c r="A190" s="28"/>
       <c r="B190" s="10" t="s">
         <v>1</v>
       </c>
@@ -5350,7 +5394,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="22"/>
+      <c r="A191" s="28"/>
       <c r="B191" s="10" t="s">
         <v>1</v>
       </c>
@@ -5366,7 +5410,7 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="22"/>
+      <c r="A192" s="28"/>
       <c r="B192" s="10" t="s">
         <v>1</v>
       </c>
@@ -5382,7 +5426,7 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="22"/>
+      <c r="A193" s="28"/>
       <c r="B193" s="10" t="s">
         <v>1</v>
       </c>
@@ -5398,7 +5442,7 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="22"/>
+      <c r="A194" s="28"/>
       <c r="B194" s="10" t="s">
         <v>1</v>
       </c>
@@ -5414,7 +5458,7 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="22"/>
+      <c r="A195" s="28"/>
       <c r="B195" s="10" t="s">
         <v>1</v>
       </c>
@@ -5430,7 +5474,7 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="22"/>
+      <c r="A196" s="28"/>
       <c r="B196" s="10" t="s">
         <v>1</v>
       </c>
@@ -5446,7 +5490,7 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="22"/>
+      <c r="A197" s="28"/>
       <c r="B197" s="10" t="s">
         <v>1</v>
       </c>
@@ -5462,7 +5506,7 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="22"/>
+      <c r="A198" s="28"/>
       <c r="B198" s="10" t="s">
         <v>1</v>
       </c>
@@ -5478,7 +5522,7 @@
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="22"/>
+      <c r="A199" s="28"/>
       <c r="B199" s="10" t="s">
         <v>1</v>
       </c>
@@ -5494,7 +5538,7 @@
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="22"/>
+      <c r="A200" s="28"/>
       <c r="B200" s="10" t="s">
         <v>1</v>
       </c>
@@ -5510,7 +5554,7 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="22"/>
+      <c r="A201" s="28"/>
       <c r="B201" s="9" t="s">
         <v>2</v>
       </c>
@@ -5522,7 +5566,7 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="22"/>
+      <c r="A202" s="28"/>
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -5534,7 +5578,7 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="22"/>
+      <c r="A203" s="28"/>
       <c r="B203" s="9" t="s">
         <v>2</v>
       </c>
@@ -5546,7 +5590,7 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="22"/>
+      <c r="A204" s="28"/>
       <c r="B204" s="9" t="s">
         <v>2</v>
       </c>
@@ -5558,7 +5602,7 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="22"/>
+      <c r="A205" s="28"/>
       <c r="B205" s="9" t="s">
         <v>2</v>
       </c>
@@ -5570,7 +5614,7 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="23"/>
+      <c r="A206" s="29"/>
       <c r="B206" s="9" t="s">
         <v>2</v>
       </c>
@@ -5588,7 +5632,7 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="21">
+      <c r="A207" s="27">
         <v>50</v>
       </c>
       <c r="B207" s="10" t="s">
@@ -5606,7 +5650,7 @@
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="22"/>
+      <c r="A208" s="28"/>
       <c r="B208" s="10" t="s">
         <v>1</v>
       </c>
@@ -5622,7 +5666,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="22"/>
+      <c r="A209" s="28"/>
       <c r="B209" s="10" t="s">
         <v>1</v>
       </c>
@@ -5638,7 +5682,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="22"/>
+      <c r="A210" s="28"/>
       <c r="B210" s="10" t="s">
         <v>1</v>
       </c>
@@ -5654,7 +5698,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="22"/>
+      <c r="A211" s="28"/>
       <c r="B211" s="10" t="s">
         <v>1</v>
       </c>
@@ -5670,7 +5714,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="22"/>
+      <c r="A212" s="28"/>
       <c r="B212" s="10" t="s">
         <v>1</v>
       </c>
@@ -5686,7 +5730,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="22"/>
+      <c r="A213" s="28"/>
       <c r="B213" s="10" t="s">
         <v>1</v>
       </c>
@@ -5702,7 +5746,7 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="22"/>
+      <c r="A214" s="28"/>
       <c r="B214" s="10" t="s">
         <v>1</v>
       </c>
@@ -5718,7 +5762,7 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="22"/>
+      <c r="A215" s="28"/>
       <c r="B215" s="10" t="s">
         <v>1</v>
       </c>
@@ -5734,7 +5778,7 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="22"/>
+      <c r="A216" s="28"/>
       <c r="B216" s="10" t="s">
         <v>1</v>
       </c>
@@ -5750,7 +5794,7 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="22"/>
+      <c r="A217" s="28"/>
       <c r="B217" s="10" t="s">
         <v>1</v>
       </c>
@@ -5766,7 +5810,7 @@
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="22"/>
+      <c r="A218" s="28"/>
       <c r="B218" s="10" t="s">
         <v>1</v>
       </c>
@@ -5782,7 +5826,7 @@
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="22"/>
+      <c r="A219" s="28"/>
       <c r="B219" s="10" t="s">
         <v>1</v>
       </c>
@@ -5798,7 +5842,7 @@
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="22"/>
+      <c r="A220" s="28"/>
       <c r="B220" s="10" t="s">
         <v>1</v>
       </c>
@@ -5814,7 +5858,7 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="22"/>
+      <c r="A221" s="28"/>
       <c r="B221" s="10" t="s">
         <v>1</v>
       </c>
@@ -5830,7 +5874,7 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="22"/>
+      <c r="A222" s="28"/>
       <c r="B222" s="10" t="s">
         <v>1</v>
       </c>
@@ -5846,7 +5890,7 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="22"/>
+      <c r="A223" s="28"/>
       <c r="B223" s="10" t="s">
         <v>1</v>
       </c>
@@ -5862,7 +5906,7 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="22"/>
+      <c r="A224" s="28"/>
       <c r="B224" s="10" t="s">
         <v>1</v>
       </c>
@@ -5878,7 +5922,7 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="22"/>
+      <c r="A225" s="28"/>
       <c r="B225" s="9" t="s">
         <v>2</v>
       </c>
@@ -5894,7 +5938,7 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="22"/>
+      <c r="A226" s="28"/>
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
@@ -5910,7 +5954,7 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="22"/>
+      <c r="A227" s="28"/>
       <c r="B227" s="9" t="s">
         <v>2</v>
       </c>
@@ -5928,7 +5972,7 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="23"/>
+      <c r="A228" s="29"/>
       <c r="B228" s="9" t="s">
         <v>2</v>
       </c>
@@ -5946,7 +5990,7 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="21">
+      <c r="A229" s="27">
         <v>39</v>
       </c>
       <c r="B229" s="10" t="s">
@@ -5964,7 +6008,7 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="22"/>
+      <c r="A230" s="28"/>
       <c r="B230" s="10" t="s">
         <v>1</v>
       </c>
@@ -5980,7 +6024,7 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="22"/>
+      <c r="A231" s="28"/>
       <c r="B231" s="10" t="s">
         <v>1</v>
       </c>
@@ -5996,7 +6040,7 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="22"/>
+      <c r="A232" s="28"/>
       <c r="B232" s="10" t="s">
         <v>1</v>
       </c>
@@ -6012,7 +6056,7 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="22"/>
+      <c r="A233" s="28"/>
       <c r="B233" s="10" t="s">
         <v>1</v>
       </c>
@@ -6028,7 +6072,7 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="22"/>
+      <c r="A234" s="28"/>
       <c r="B234" s="10" t="s">
         <v>1</v>
       </c>
@@ -6044,7 +6088,7 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="22"/>
+      <c r="A235" s="28"/>
       <c r="B235" s="9" t="s">
         <v>2</v>
       </c>
@@ -6062,7 +6106,7 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="22"/>
+      <c r="A236" s="28"/>
       <c r="B236" s="9" t="s">
         <v>2</v>
       </c>
@@ -6080,7 +6124,7 @@
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="23"/>
+      <c r="A237" s="29"/>
       <c r="B237" s="9" t="s">
         <v>2</v>
       </c>
@@ -6098,7 +6142,7 @@
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="21">
+      <c r="A238" s="27">
         <v>40</v>
       </c>
       <c r="B238" s="10" t="s">
@@ -6116,7 +6160,7 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="22"/>
+      <c r="A239" s="28"/>
       <c r="B239" s="10" t="s">
         <v>1</v>
       </c>
@@ -6132,7 +6176,7 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="22"/>
+      <c r="A240" s="28"/>
       <c r="B240" s="10" t="s">
         <v>1</v>
       </c>
@@ -6148,7 +6192,7 @@
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="22"/>
+      <c r="A241" s="28"/>
       <c r="B241" s="10" t="s">
         <v>1</v>
       </c>
@@ -6164,7 +6208,7 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="22"/>
+      <c r="A242" s="28"/>
       <c r="B242" s="10" t="s">
         <v>1</v>
       </c>
@@ -6180,7 +6224,7 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="22"/>
+      <c r="A243" s="28"/>
       <c r="B243" s="10" t="s">
         <v>1</v>
       </c>
@@ -6196,7 +6240,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="22"/>
+      <c r="A244" s="28"/>
       <c r="B244" s="10" t="s">
         <v>1</v>
       </c>
@@ -6212,7 +6256,7 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="22"/>
+      <c r="A245" s="28"/>
       <c r="B245" s="9" t="s">
         <v>2</v>
       </c>
@@ -6230,7 +6274,7 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="22"/>
+      <c r="A246" s="28"/>
       <c r="B246" s="9" t="s">
         <v>2</v>
       </c>
@@ -6248,7 +6292,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="22"/>
+      <c r="A247" s="28"/>
       <c r="B247" s="9" t="s">
         <v>2</v>
       </c>
@@ -6266,7 +6310,7 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="22"/>
+      <c r="A248" s="28"/>
       <c r="B248" s="9" t="s">
         <v>2</v>
       </c>
@@ -6284,7 +6328,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="22"/>
+      <c r="A249" s="28"/>
       <c r="B249" s="9" t="s">
         <v>2</v>
       </c>
@@ -6302,7 +6346,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="23"/>
+      <c r="A250" s="29"/>
       <c r="B250" s="9" t="s">
         <v>2</v>
       </c>
@@ -6320,7 +6364,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="21">
+      <c r="A251" s="27">
         <v>73</v>
       </c>
       <c r="B251" s="10" t="s">
@@ -6338,7 +6382,7 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="22"/>
+      <c r="A252" s="28"/>
       <c r="B252" s="10" t="s">
         <v>1</v>
       </c>
@@ -6354,7 +6398,7 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="22"/>
+      <c r="A253" s="28"/>
       <c r="B253" s="10" t="s">
         <v>1</v>
       </c>
@@ -6370,7 +6414,7 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="22"/>
+      <c r="A254" s="28"/>
       <c r="B254" s="10" t="s">
         <v>1</v>
       </c>
@@ -6386,7 +6430,7 @@
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="22"/>
+      <c r="A255" s="28"/>
       <c r="B255" s="10" t="s">
         <v>1</v>
       </c>
@@ -6402,7 +6446,7 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="22"/>
+      <c r="A256" s="28"/>
       <c r="B256" s="10" t="s">
         <v>1</v>
       </c>
@@ -6418,7 +6462,7 @@
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="22"/>
+      <c r="A257" s="28"/>
       <c r="B257" s="9" t="s">
         <v>2</v>
       </c>
@@ -6436,7 +6480,7 @@
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="22"/>
+      <c r="A258" s="28"/>
       <c r="B258" s="9" t="s">
         <v>2</v>
       </c>
@@ -6454,7 +6498,7 @@
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="22"/>
+      <c r="A259" s="28"/>
       <c r="B259" s="9" t="s">
         <v>2</v>
       </c>
@@ -6472,7 +6516,7 @@
       </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="22"/>
+      <c r="A260" s="28"/>
       <c r="B260" s="9" t="s">
         <v>2</v>
       </c>
@@ -6490,7 +6534,7 @@
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="22"/>
+      <c r="A261" s="28"/>
       <c r="B261" s="9" t="s">
         <v>2</v>
       </c>
@@ -6508,7 +6552,7 @@
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="23"/>
+      <c r="A262" s="29"/>
       <c r="B262" s="9" t="s">
         <v>2</v>
       </c>
@@ -6526,7 +6570,7 @@
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="21">
+      <c r="A263" s="27">
         <v>74</v>
       </c>
       <c r="B263" s="10" t="s">
@@ -6544,7 +6588,7 @@
       </c>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="22"/>
+      <c r="A264" s="28"/>
       <c r="B264" s="10" t="s">
         <v>1</v>
       </c>
@@ -6560,7 +6604,7 @@
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="22"/>
+      <c r="A265" s="28"/>
       <c r="B265" s="9" t="s">
         <v>2</v>
       </c>
@@ -6578,7 +6622,7 @@
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="22"/>
+      <c r="A266" s="28"/>
       <c r="B266" s="9" t="s">
         <v>2</v>
       </c>
@@ -6596,7 +6640,7 @@
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="22"/>
+      <c r="A267" s="28"/>
       <c r="B267" s="9" t="s">
         <v>2</v>
       </c>
@@ -6614,7 +6658,7 @@
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="22"/>
+      <c r="A268" s="28"/>
       <c r="B268" s="9" t="s">
         <v>2</v>
       </c>
@@ -6632,7 +6676,7 @@
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="22"/>
+      <c r="A269" s="28"/>
       <c r="B269" s="9" t="s">
         <v>2</v>
       </c>
@@ -6650,7 +6694,7 @@
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="22"/>
+      <c r="A270" s="28"/>
       <c r="B270" s="9" t="s">
         <v>2</v>
       </c>
@@ -6668,7 +6712,7 @@
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="23"/>
+      <c r="A271" s="29"/>
       <c r="B271" s="9" t="s">
         <v>2</v>
       </c>
@@ -6686,7 +6730,7 @@
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="21">
+      <c r="A272" s="27">
         <v>63</v>
       </c>
       <c r="B272" s="10" t="s">
@@ -6704,7 +6748,7 @@
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="22"/>
+      <c r="A273" s="28"/>
       <c r="B273" s="10" t="s">
         <v>1</v>
       </c>
@@ -6720,7 +6764,7 @@
       </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="22"/>
+      <c r="A274" s="28"/>
       <c r="B274" s="10" t="s">
         <v>1</v>
       </c>
@@ -6736,7 +6780,7 @@
       </c>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275" s="22"/>
+      <c r="A275" s="28"/>
       <c r="B275" s="10" t="s">
         <v>1</v>
       </c>
@@ -6752,7 +6796,7 @@
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="22"/>
+      <c r="A276" s="28"/>
       <c r="B276" s="10" t="s">
         <v>1</v>
       </c>
@@ -6768,7 +6812,7 @@
       </c>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="22"/>
+      <c r="A277" s="28"/>
       <c r="B277" s="9" t="s">
         <v>2</v>
       </c>
@@ -6786,7 +6830,7 @@
       </c>
     </row>
     <row r="278" spans="1:6">
-      <c r="A278" s="22"/>
+      <c r="A278" s="28"/>
       <c r="B278" s="9" t="s">
         <v>2</v>
       </c>
@@ -6804,7 +6848,7 @@
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="22"/>
+      <c r="A279" s="28"/>
       <c r="B279" s="9" t="s">
         <v>2</v>
       </c>
@@ -6822,7 +6866,7 @@
       </c>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="23"/>
+      <c r="A280" s="29"/>
       <c r="B280" s="9" t="s">
         <v>2</v>
       </c>
@@ -6840,7 +6884,7 @@
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="21">
+      <c r="A281" s="27">
         <v>64</v>
       </c>
       <c r="B281" s="10" t="s">
@@ -6858,7 +6902,7 @@
       </c>
     </row>
     <row r="282" spans="1:6">
-      <c r="A282" s="22"/>
+      <c r="A282" s="28"/>
       <c r="B282" s="10" t="s">
         <v>1</v>
       </c>
@@ -6874,7 +6918,7 @@
       </c>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="22"/>
+      <c r="A283" s="28"/>
       <c r="B283" s="10" t="s">
         <v>1</v>
       </c>
@@ -6890,7 +6934,7 @@
       </c>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="22"/>
+      <c r="A284" s="28"/>
       <c r="B284" s="10" t="s">
         <v>1</v>
       </c>
@@ -6906,7 +6950,7 @@
       </c>
     </row>
     <row r="285" spans="1:6">
-      <c r="A285" s="22"/>
+      <c r="A285" s="28"/>
       <c r="B285" s="10" t="s">
         <v>1</v>
       </c>
@@ -6922,7 +6966,7 @@
       </c>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="22"/>
+      <c r="A286" s="28"/>
       <c r="B286" s="10" t="s">
         <v>1</v>
       </c>
@@ -6938,7 +6982,7 @@
       </c>
     </row>
     <row r="287" spans="1:6">
-      <c r="A287" s="22"/>
+      <c r="A287" s="28"/>
       <c r="B287" s="10" t="s">
         <v>1</v>
       </c>
@@ -6954,7 +6998,7 @@
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="22"/>
+      <c r="A288" s="28"/>
       <c r="B288" s="10" t="s">
         <v>1</v>
       </c>
@@ -6970,7 +7014,7 @@
       </c>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="22"/>
+      <c r="A289" s="28"/>
       <c r="B289" s="9" t="s">
         <v>2</v>
       </c>
@@ -6988,7 +7032,7 @@
       </c>
     </row>
     <row r="290" spans="1:6">
-      <c r="A290" s="22"/>
+      <c r="A290" s="28"/>
       <c r="B290" s="9" t="s">
         <v>2</v>
       </c>
@@ -7006,7 +7050,7 @@
       </c>
     </row>
     <row r="291" spans="1:6">
-      <c r="A291" s="23"/>
+      <c r="A291" s="29"/>
       <c r="B291" s="9" t="s">
         <v>2</v>
       </c>
@@ -7024,7 +7068,7 @@
       </c>
     </row>
     <row r="292" spans="1:6">
-      <c r="A292" s="21">
+      <c r="A292" s="27">
         <v>65</v>
       </c>
       <c r="B292" s="10" t="s">
@@ -7042,7 +7086,7 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="22"/>
+      <c r="A293" s="28"/>
       <c r="B293" s="10" t="s">
         <v>1</v>
       </c>
@@ -7058,7 +7102,7 @@
       </c>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="22"/>
+      <c r="A294" s="28"/>
       <c r="B294" s="10" t="s">
         <v>1</v>
       </c>
@@ -7074,7 +7118,7 @@
       </c>
     </row>
     <row r="295" spans="1:6">
-      <c r="A295" s="22"/>
+      <c r="A295" s="28"/>
       <c r="B295" s="10" t="s">
         <v>1</v>
       </c>
@@ -7090,7 +7134,7 @@
       </c>
     </row>
     <row r="296" spans="1:6">
-      <c r="A296" s="22"/>
+      <c r="A296" s="28"/>
       <c r="B296" s="10" t="s">
         <v>1</v>
       </c>
@@ -7106,7 +7150,7 @@
       </c>
     </row>
     <row r="297" spans="1:6">
-      <c r="A297" s="22"/>
+      <c r="A297" s="28"/>
       <c r="B297" s="10" t="s">
         <v>1</v>
       </c>
@@ -7122,7 +7166,7 @@
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="22"/>
+      <c r="A298" s="28"/>
       <c r="B298" s="10" t="s">
         <v>1</v>
       </c>
@@ -7138,7 +7182,7 @@
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="A299" s="22"/>
+      <c r="A299" s="28"/>
       <c r="B299" s="10" t="s">
         <v>1</v>
       </c>
@@ -7154,7 +7198,7 @@
       </c>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="22"/>
+      <c r="A300" s="28"/>
       <c r="B300" s="10" t="s">
         <v>1</v>
       </c>
@@ -7170,7 +7214,7 @@
       </c>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="22"/>
+      <c r="A301" s="28"/>
       <c r="B301" s="10" t="s">
         <v>1</v>
       </c>
@@ -7186,7 +7230,7 @@
       </c>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="22"/>
+      <c r="A302" s="28"/>
       <c r="B302" s="10" t="s">
         <v>1</v>
       </c>
@@ -7202,7 +7246,7 @@
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="22"/>
+      <c r="A303" s="28"/>
       <c r="B303" s="10" t="s">
         <v>1</v>
       </c>
@@ -7218,7 +7262,7 @@
       </c>
     </row>
     <row r="304" spans="1:6">
-      <c r="A304" s="22"/>
+      <c r="A304" s="28"/>
       <c r="B304" s="10" t="s">
         <v>1</v>
       </c>
@@ -7234,7 +7278,7 @@
       </c>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="23"/>
+      <c r="A305" s="29"/>
       <c r="B305" s="11" t="s">
         <v>2</v>
       </c>
@@ -7252,7 +7296,7 @@
       </c>
     </row>
     <row r="306" spans="1:6">
-      <c r="A306" s="21">
+      <c r="A306" s="27">
         <v>66</v>
       </c>
       <c r="B306" s="10" t="s">
@@ -7270,7 +7314,7 @@
       </c>
     </row>
     <row r="307" spans="1:6">
-      <c r="A307" s="22"/>
+      <c r="A307" s="28"/>
       <c r="B307" s="10" t="s">
         <v>1</v>
       </c>
@@ -7286,7 +7330,7 @@
       </c>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="22"/>
+      <c r="A308" s="28"/>
       <c r="B308" s="10" t="s">
         <v>1</v>
       </c>
@@ -7302,7 +7346,7 @@
       </c>
     </row>
     <row r="309" spans="1:6">
-      <c r="A309" s="22"/>
+      <c r="A309" s="28"/>
       <c r="B309" s="10" t="s">
         <v>1</v>
       </c>
@@ -7318,7 +7362,7 @@
       </c>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="22"/>
+      <c r="A310" s="28"/>
       <c r="B310" s="10" t="s">
         <v>1</v>
       </c>
@@ -7334,7 +7378,7 @@
       </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="22"/>
+      <c r="A311" s="28"/>
       <c r="B311" s="10" t="s">
         <v>1</v>
       </c>
@@ -7350,7 +7394,7 @@
       </c>
     </row>
     <row r="312" spans="1:6">
-      <c r="A312" s="22"/>
+      <c r="A312" s="28"/>
       <c r="B312" s="9" t="s">
         <v>2</v>
       </c>
@@ -7368,7 +7412,7 @@
       </c>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="22"/>
+      <c r="A313" s="28"/>
       <c r="B313" s="9" t="s">
         <v>2</v>
       </c>
@@ -7386,7 +7430,7 @@
       </c>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" s="22"/>
+      <c r="A314" s="28"/>
       <c r="B314" s="9" t="s">
         <v>2</v>
       </c>
@@ -7404,7 +7448,7 @@
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" s="23"/>
+      <c r="A315" s="29"/>
       <c r="B315" s="9" t="s">
         <v>2</v>
       </c>
@@ -7422,7 +7466,7 @@
       </c>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" s="21">
+      <c r="A316" s="27">
         <v>75</v>
       </c>
       <c r="B316" s="10" t="s">
@@ -7440,7 +7484,7 @@
       </c>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" s="22"/>
+      <c r="A317" s="28"/>
       <c r="B317" s="10" t="s">
         <v>1</v>
       </c>
@@ -7456,7 +7500,7 @@
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="22"/>
+      <c r="A318" s="28"/>
       <c r="B318" s="10" t="s">
         <v>1</v>
       </c>
@@ -7472,7 +7516,7 @@
       </c>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="22"/>
+      <c r="A319" s="28"/>
       <c r="B319" s="10" t="s">
         <v>1</v>
       </c>
@@ -7488,7 +7532,7 @@
       </c>
     </row>
     <row r="320" spans="1:6">
-      <c r="A320" s="22"/>
+      <c r="A320" s="28"/>
       <c r="B320" s="10" t="s">
         <v>1</v>
       </c>
@@ -7504,7 +7548,7 @@
       </c>
     </row>
     <row r="321" spans="1:6">
-      <c r="A321" s="22"/>
+      <c r="A321" s="28"/>
       <c r="B321" s="10" t="s">
         <v>1</v>
       </c>
@@ -7520,7 +7564,7 @@
       </c>
     </row>
     <row r="322" spans="1:6">
-      <c r="A322" s="22"/>
+      <c r="A322" s="28"/>
       <c r="B322" s="10" t="s">
         <v>1</v>
       </c>
@@ -7536,7 +7580,7 @@
       </c>
     </row>
     <row r="323" spans="1:6">
-      <c r="A323" s="22"/>
+      <c r="A323" s="28"/>
       <c r="B323" s="9" t="s">
         <v>2</v>
       </c>
@@ -7554,7 +7598,7 @@
       </c>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="22"/>
+      <c r="A324" s="28"/>
       <c r="B324" s="9" t="s">
         <v>2</v>
       </c>
@@ -7572,7 +7616,7 @@
       </c>
     </row>
     <row r="325" spans="1:6">
-      <c r="A325" s="22"/>
+      <c r="A325" s="28"/>
       <c r="B325" s="9" t="s">
         <v>2</v>
       </c>
@@ -7590,7 +7634,7 @@
       </c>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="22"/>
+      <c r="A326" s="28"/>
       <c r="B326" s="9" t="s">
         <v>2</v>
       </c>
@@ -7608,7 +7652,7 @@
       </c>
     </row>
     <row r="327" spans="1:6">
-      <c r="A327" s="22"/>
+      <c r="A327" s="28"/>
       <c r="B327" s="9" t="s">
         <v>2</v>
       </c>
@@ -7626,7 +7670,7 @@
       </c>
     </row>
     <row r="328" spans="1:6">
-      <c r="A328" s="23"/>
+      <c r="A328" s="29"/>
       <c r="B328" s="9" t="s">
         <v>2</v>
       </c>
@@ -7644,7 +7688,7 @@
       </c>
     </row>
     <row r="329" spans="1:6">
-      <c r="A329" s="21">
+      <c r="A329" s="27">
         <v>76</v>
       </c>
       <c r="B329" s="10" t="s">
@@ -7662,7 +7706,7 @@
       </c>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" s="22"/>
+      <c r="A330" s="28"/>
       <c r="B330" s="10" t="s">
         <v>1</v>
       </c>
@@ -7678,7 +7722,7 @@
       </c>
     </row>
     <row r="331" spans="1:6">
-      <c r="A331" s="22"/>
+      <c r="A331" s="28"/>
       <c r="B331" s="10" t="s">
         <v>1</v>
       </c>
@@ -7694,7 +7738,7 @@
       </c>
     </row>
     <row r="332" spans="1:6">
-      <c r="A332" s="22"/>
+      <c r="A332" s="28"/>
       <c r="B332" s="10" t="s">
         <v>1</v>
       </c>
@@ -7710,7 +7754,7 @@
       </c>
     </row>
     <row r="333" spans="1:6">
-      <c r="A333" s="22"/>
+      <c r="A333" s="28"/>
       <c r="B333" s="10" t="s">
         <v>1</v>
       </c>
@@ -7726,7 +7770,7 @@
       </c>
     </row>
     <row r="334" spans="1:6">
-      <c r="A334" s="22"/>
+      <c r="A334" s="28"/>
       <c r="B334" s="10" t="s">
         <v>1</v>
       </c>
@@ -7742,7 +7786,7 @@
       </c>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="22"/>
+      <c r="A335" s="28"/>
       <c r="B335" s="9" t="s">
         <v>2</v>
       </c>
@@ -7760,7 +7804,7 @@
       </c>
     </row>
     <row r="336" spans="1:6">
-      <c r="A336" s="22"/>
+      <c r="A336" s="28"/>
       <c r="B336" s="9" t="s">
         <v>2</v>
       </c>
@@ -7778,7 +7822,7 @@
       </c>
     </row>
     <row r="337" spans="1:6">
-      <c r="A337" s="22"/>
+      <c r="A337" s="28"/>
       <c r="B337" s="9" t="s">
         <v>2</v>
       </c>
@@ -7792,7 +7836,7 @@
       <c r="F337" s="15"/>
     </row>
     <row r="338" spans="1:6">
-      <c r="A338" s="22"/>
+      <c r="A338" s="28"/>
       <c r="B338" s="9" t="s">
         <v>2</v>
       </c>
@@ -7810,7 +7854,7 @@
       </c>
     </row>
     <row r="339" spans="1:6">
-      <c r="A339" s="22"/>
+      <c r="A339" s="28"/>
       <c r="B339" s="9" t="s">
         <v>2</v>
       </c>
@@ -7828,7 +7872,7 @@
       </c>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" s="22"/>
+      <c r="A340" s="28"/>
       <c r="B340" s="9" t="s">
         <v>2</v>
       </c>
@@ -7846,7 +7890,7 @@
       </c>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="22"/>
+      <c r="A341" s="28"/>
       <c r="B341" s="9" t="s">
         <v>2</v>
       </c>
@@ -7864,7 +7908,7 @@
       </c>
     </row>
     <row r="342" spans="1:6">
-      <c r="A342" s="22"/>
+      <c r="A342" s="28"/>
       <c r="B342" s="9" t="s">
         <v>2</v>
       </c>
@@ -7882,7 +7926,7 @@
       </c>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" s="22"/>
+      <c r="A343" s="28"/>
       <c r="B343" s="9" t="s">
         <v>2</v>
       </c>
@@ -7900,7 +7944,7 @@
       </c>
     </row>
     <row r="344" spans="1:6">
-      <c r="A344" s="23"/>
+      <c r="A344" s="29"/>
       <c r="B344" s="9" t="s">
         <v>2</v>
       </c>
@@ -7918,7 +7962,7 @@
       </c>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" s="21">
+      <c r="A345" s="27">
         <v>67</v>
       </c>
       <c r="B345" s="10" t="s">
@@ -7936,7 +7980,7 @@
       </c>
     </row>
     <row r="346" spans="1:6">
-      <c r="A346" s="22"/>
+      <c r="A346" s="28"/>
       <c r="B346" s="10" t="s">
         <v>1</v>
       </c>
@@ -7952,7 +7996,7 @@
       </c>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="22"/>
+      <c r="A347" s="28"/>
       <c r="B347" s="9" t="s">
         <v>2</v>
       </c>
@@ -7970,7 +8014,7 @@
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="22"/>
+      <c r="A348" s="28"/>
       <c r="B348" s="9" t="s">
         <v>2</v>
       </c>
@@ -7988,7 +8032,7 @@
       </c>
     </row>
     <row r="349" spans="1:6">
-      <c r="A349" s="23"/>
+      <c r="A349" s="29"/>
       <c r="B349" s="9" t="s">
         <v>2</v>
       </c>
@@ -8006,7 +8050,7 @@
       </c>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" s="21">
+      <c r="A350" s="27">
         <v>68</v>
       </c>
       <c r="B350" s="10" t="s">
@@ -8024,7 +8068,7 @@
       </c>
     </row>
     <row r="351" spans="1:6">
-      <c r="A351" s="22"/>
+      <c r="A351" s="28"/>
       <c r="B351" s="10" t="s">
         <v>1</v>
       </c>
@@ -8040,7 +8084,7 @@
       </c>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" s="23"/>
+      <c r="A352" s="29"/>
       <c r="B352" s="11" t="s">
         <v>2</v>
       </c>
@@ -8058,7 +8102,7 @@
       </c>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="21">
+      <c r="A353" s="27">
         <v>69</v>
       </c>
       <c r="B353" s="10" t="s">
@@ -8076,7 +8120,7 @@
       </c>
     </row>
     <row r="354" spans="1:6">
-      <c r="A354" s="22"/>
+      <c r="A354" s="28"/>
       <c r="B354" s="10" t="s">
         <v>1</v>
       </c>
@@ -8092,7 +8136,7 @@
       </c>
     </row>
     <row r="355" spans="1:6">
-      <c r="A355" s="22"/>
+      <c r="A355" s="28"/>
       <c r="B355" s="10" t="s">
         <v>1</v>
       </c>
@@ -8108,7 +8152,7 @@
       </c>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="22"/>
+      <c r="A356" s="28"/>
       <c r="B356" s="9" t="s">
         <v>2</v>
       </c>
@@ -8126,7 +8170,7 @@
       </c>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="22"/>
+      <c r="A357" s="28"/>
       <c r="B357" s="9" t="s">
         <v>2</v>
       </c>
@@ -8144,7 +8188,7 @@
       </c>
     </row>
     <row r="358" spans="1:6">
-      <c r="A358" s="23"/>
+      <c r="A358" s="29"/>
       <c r="B358" s="9" t="s">
         <v>2</v>
       </c>
@@ -8162,7 +8206,7 @@
       </c>
     </row>
     <row r="359" spans="1:6">
-      <c r="A359" s="21">
+      <c r="A359" s="27">
         <v>70</v>
       </c>
       <c r="B359" s="10" t="s">
@@ -8180,7 +8224,7 @@
       </c>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" s="22"/>
+      <c r="A360" s="28"/>
       <c r="B360" s="9" t="s">
         <v>2</v>
       </c>
@@ -8198,7 +8242,7 @@
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" s="22"/>
+      <c r="A361" s="28"/>
       <c r="B361" s="9" t="s">
         <v>2</v>
       </c>
@@ -8216,7 +8260,7 @@
       </c>
     </row>
     <row r="362" spans="1:6">
-      <c r="A362" s="23"/>
+      <c r="A362" s="29"/>
       <c r="B362" s="9" t="s">
         <v>2</v>
       </c>
@@ -8235,27 +8279,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A38:A55"/>
-    <mergeCell ref="A329:A344"/>
-    <mergeCell ref="A345:A349"/>
-    <mergeCell ref="A350:A352"/>
-    <mergeCell ref="A353:A358"/>
-    <mergeCell ref="A306:A315"/>
-    <mergeCell ref="A316:A328"/>
-    <mergeCell ref="A229:A237"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A207:A228"/>
-    <mergeCell ref="A56:A70"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="A89:A100"/>
-    <mergeCell ref="A101:A112"/>
-    <mergeCell ref="A113:A126"/>
-    <mergeCell ref="A127:A137"/>
     <mergeCell ref="A138:A157"/>
     <mergeCell ref="A158:A171"/>
     <mergeCell ref="A172:A187"/>
@@ -8267,6 +8290,27 @@
     <mergeCell ref="A272:A280"/>
     <mergeCell ref="A281:A291"/>
     <mergeCell ref="A292:A305"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A55"/>
+    <mergeCell ref="A329:A344"/>
+    <mergeCell ref="A345:A349"/>
+    <mergeCell ref="A350:A352"/>
+    <mergeCell ref="A353:A358"/>
+    <mergeCell ref="A306:A315"/>
+    <mergeCell ref="A316:A328"/>
+    <mergeCell ref="A229:A237"/>
+    <mergeCell ref="A207:A228"/>
+    <mergeCell ref="A56:A70"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="A89:A100"/>
+    <mergeCell ref="A101:A112"/>
+    <mergeCell ref="A113:A126"/>
+    <mergeCell ref="A127:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8277,8 +8321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB90D66-A0E0-7F40-AAC6-2C246ED3355E}">
   <dimension ref="A1:N253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="O184" sqref="O184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8288,10 +8332,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="22">
+      <c r="A1" s="28">
         <v>62</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="28">
         <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -8328,8 +8372,8 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
@@ -8364,8 +8408,8 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
@@ -8390,8 +8434,8 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
@@ -8417,10 +8461,10 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="22">
+      <c r="A5" s="28">
         <v>58</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="28">
         <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -8445,8 +8489,8 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
@@ -8469,8 +8513,8 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
@@ -8493,8 +8537,8 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
@@ -8517,8 +8561,8 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
@@ -8546,8 +8590,8 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
@@ -8572,8 +8616,8 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
@@ -8597,7 +8641,7 @@
         <v>8.0</v>
       </c>
       <c r="J11" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>43</v>
@@ -8607,10 +8651,10 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="21">
+      <c r="A12" s="27">
         <v>59</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="27">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -8636,8 +8680,8 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="10" t="s">
         <v>1</v>
       </c>
@@ -8660,8 +8704,8 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="10" t="s">
         <v>1</v>
       </c>
@@ -8684,8 +8728,8 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="10" t="s">
         <v>1</v>
       </c>
@@ -8708,8 +8752,8 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="10" t="s">
         <v>1</v>
       </c>
@@ -8735,8 +8779,8 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="11" t="s">
         <v>2</v>
       </c>
@@ -8767,10 +8811,10 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="21">
+      <c r="A18" s="27">
         <v>60</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="27">
         <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -8799,8 +8843,8 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="10" t="s">
         <v>1</v>
       </c>
@@ -8823,8 +8867,8 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="10" t="s">
         <v>1</v>
       </c>
@@ -8847,8 +8891,8 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="9" t="s">
         <v>2</v>
       </c>
@@ -8879,8 +8923,8 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
@@ -8909,10 +8953,10 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="22">
+      <c r="A23" s="28">
         <v>61</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="28">
         <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -8941,8 +8985,8 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="10" t="s">
         <v>1</v>
       </c>
@@ -8965,8 +9009,8 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="10" t="s">
         <v>1</v>
       </c>
@@ -8989,8 +9033,8 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
@@ -9016,8 +9060,8 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="10" t="s">
         <v>1</v>
       </c>
@@ -9043,10 +9087,10 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="22">
+      <c r="A28" s="28">
         <v>33</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="28">
         <v>11</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -9072,8 +9116,8 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="10" t="s">
         <v>1</v>
       </c>
@@ -9094,13 +9138,13 @@
       <c r="J29" s="9">
         <v>0</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="10" t="s">
         <v>1</v>
       </c>
@@ -9123,8 +9167,8 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="10" t="s">
         <v>1</v>
       </c>
@@ -9150,8 +9194,8 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="10" t="s">
         <v>1</v>
       </c>
@@ -9174,8 +9218,8 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="10" t="s">
         <v>1</v>
       </c>
@@ -9198,8 +9242,8 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="10" t="s">
         <v>1</v>
       </c>
@@ -9225,8 +9269,8 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="10" t="s">
         <v>1</v>
       </c>
@@ -9249,8 +9293,8 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="10" t="s">
         <v>1</v>
       </c>
@@ -9273,8 +9317,8 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="10" t="s">
         <v>1</v>
       </c>
@@ -9300,8 +9344,8 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="9" t="s">
         <v>2</v>
       </c>
@@ -9327,10 +9371,10 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="21">
+      <c r="A39" s="27">
         <v>31</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="27">
         <v>12</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -9359,8 +9403,8 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="10" t="s">
         <v>1</v>
       </c>
@@ -9386,8 +9430,8 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="10" t="s">
         <v>1</v>
       </c>
@@ -9413,8 +9457,8 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="10" t="s">
         <v>1</v>
       </c>
@@ -9437,8 +9481,8 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="10" t="s">
         <v>1</v>
       </c>
@@ -9461,8 +9505,8 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="10" t="s">
         <v>1</v>
       </c>
@@ -9485,8 +9529,8 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="10" t="s">
         <v>1</v>
       </c>
@@ -9507,13 +9551,13 @@
       <c r="J45" s="9">
         <v>2</v>
       </c>
-      <c r="L45" s="24" t="s">
+      <c r="L45" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="10" t="s">
         <v>1</v>
       </c>
@@ -9536,8 +9580,8 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="10" t="s">
         <v>1</v>
       </c>
@@ -9563,8 +9607,8 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="10" t="s">
         <v>1</v>
       </c>
@@ -9587,32 +9631,36 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="23">
         <v>13</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="9" t="str">
+      <c r="E49" s="23"/>
+      <c r="F49" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23" t="str">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="J49" s="9">
-        <v>0</v>
+      <c r="J49" s="23">
+        <v>5</v>
+      </c>
+      <c r="L49" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="10" t="s">
         <v>1</v>
       </c>
@@ -9636,10 +9684,10 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="21">
+      <c r="A51" s="27">
         <v>54</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="27">
         <v>7</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -9664,8 +9712,8 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="10" t="s">
         <v>1</v>
       </c>
@@ -9691,8 +9739,8 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="10" t="s">
         <v>1</v>
       </c>
@@ -9715,8 +9763,8 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="10" t="s">
         <v>1</v>
       </c>
@@ -9739,8 +9787,8 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="10" t="s">
         <v>1</v>
       </c>
@@ -9766,8 +9814,8 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="9" t="s">
         <v>2</v>
       </c>
@@ -9792,8 +9840,8 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="9" t="s">
         <v>2</v>
       </c>
@@ -9822,10 +9870,10 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="21">
+      <c r="A58" s="27">
         <v>55</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="27">
         <v>8</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -9853,8 +9901,8 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="10" t="s">
         <v>1</v>
       </c>
@@ -9877,8 +9925,8 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="10" t="s">
         <v>1</v>
       </c>
@@ -9904,8 +9952,8 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="10" t="s">
         <v>1</v>
       </c>
@@ -9931,8 +9979,8 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="10" t="s">
         <v>1</v>
       </c>
@@ -9951,15 +9999,15 @@
         <v>7</v>
       </c>
       <c r="J62" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L62" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="10" t="s">
         <v>1</v>
       </c>
@@ -9985,8 +10033,8 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="9" t="s">
         <v>2</v>
       </c>
@@ -10011,8 +10059,8 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="9" t="s">
         <v>2</v>
       </c>
@@ -10041,10 +10089,10 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="21">
+      <c r="A66" s="27">
         <v>56</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="27">
         <v>8</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -10072,8 +10120,8 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="10" t="s">
         <v>1</v>
       </c>
@@ -10099,8 +10147,8 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="10" t="s">
         <v>1</v>
       </c>
@@ -10123,8 +10171,8 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="10" t="s">
         <v>1</v>
       </c>
@@ -10150,8 +10198,8 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="9" t="s">
         <v>2</v>
       </c>
@@ -10179,8 +10227,8 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="9" t="s">
         <v>2</v>
       </c>
@@ -10205,8 +10253,8 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="9" t="s">
         <v>2</v>
       </c>
@@ -10234,8 +10282,8 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
       <c r="C73" s="11" t="s">
         <v>2</v>
       </c>
@@ -10261,10 +10309,10 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="22">
+      <c r="A74" s="28">
         <v>57</v>
       </c>
-      <c r="B74" s="22">
+      <c r="B74" s="28">
         <v>11</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -10289,8 +10337,8 @@
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="10" t="s">
         <v>1</v>
       </c>
@@ -10313,8 +10361,8 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="10" t="s">
         <v>1</v>
       </c>
@@ -10340,8 +10388,8 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="10" t="s">
         <v>1</v>
       </c>
@@ -10367,8 +10415,8 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="10" t="s">
         <v>1</v>
       </c>
@@ -10389,13 +10437,13 @@
       <c r="J78" s="9">
         <v>1</v>
       </c>
-      <c r="L78" s="25" t="s">
+      <c r="L78" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="10" t="s">
         <v>1</v>
       </c>
@@ -10421,8 +10469,8 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="10" t="s">
         <v>1</v>
       </c>
@@ -10445,8 +10493,8 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="10" t="s">
         <v>1</v>
       </c>
@@ -10469,8 +10517,8 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="10" t="s">
         <v>1</v>
       </c>
@@ -10493,8 +10541,8 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="10" t="s">
         <v>1</v>
       </c>
@@ -10520,8 +10568,8 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="11" t="s">
         <v>2</v>
       </c>
@@ -10549,10 +10597,10 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="22">
+      <c r="A85" s="28">
         <v>37</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B85" s="28">
         <v>10</v>
       </c>
       <c r="C85" s="10" t="s">
@@ -10573,15 +10621,15 @@
         <v>1</v>
       </c>
       <c r="J85" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L85" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="10" t="s">
         <v>1</v>
       </c>
@@ -10604,8 +10652,8 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
       <c r="C87" s="10" t="s">
         <v>1</v>
       </c>
@@ -10628,8 +10676,8 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
       <c r="C88" s="10" t="s">
         <v>1</v>
       </c>
@@ -10655,8 +10703,8 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="10" t="s">
         <v>1</v>
       </c>
@@ -10682,8 +10730,8 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="10" t="s">
         <v>1</v>
       </c>
@@ -10706,8 +10754,8 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="10" t="s">
         <v>1</v>
       </c>
@@ -10730,8 +10778,8 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="10" t="s">
         <v>1</v>
       </c>
@@ -10752,13 +10800,13 @@
       <c r="J92" s="9">
         <v>1</v>
       </c>
-      <c r="L92" s="25" t="s">
+      <c r="L92" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="9" t="s">
         <v>2</v>
       </c>
@@ -10783,8 +10831,8 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="23"/>
-      <c r="B94" s="23"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="9" t="s">
         <v>2</v>
       </c>
@@ -10815,10 +10863,10 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="21">
+      <c r="A95" s="27">
         <v>38</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B95" s="27">
         <v>11</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -10843,8 +10891,8 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="10" t="s">
         <v>1</v>
       </c>
@@ -10870,8 +10918,8 @@
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="10" t="s">
         <v>1</v>
       </c>
@@ -10894,8 +10942,8 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="10" t="s">
         <v>1</v>
       </c>
@@ -10918,8 +10966,8 @@
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="10" t="s">
         <v>1</v>
       </c>
@@ -10942,8 +10990,8 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="10" t="s">
         <v>1</v>
       </c>
@@ -10969,8 +11017,8 @@
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="10" t="s">
         <v>1</v>
       </c>
@@ -10996,8 +11044,8 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="22"/>
-      <c r="B102" s="22"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="10" t="s">
         <v>1</v>
       </c>
@@ -11023,8 +11071,8 @@
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="10" t="s">
         <v>1</v>
       </c>
@@ -11050,8 +11098,8 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="9" t="s">
         <v>2</v>
       </c>
@@ -11072,15 +11120,15 @@
         <v>4.0</v>
       </c>
       <c r="J104" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L104" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="23"/>
-      <c r="B105" s="23"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
       <c r="C105" s="9" t="s">
         <v>2</v>
       </c>
@@ -11106,10 +11154,10 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="22">
+      <c r="A106" s="28">
         <v>53</v>
       </c>
-      <c r="B106" s="22">
+      <c r="B106" s="28">
         <v>9</v>
       </c>
       <c r="C106" s="10" t="s">
@@ -11137,8 +11185,8 @@
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
       <c r="C107" s="10" t="s">
         <v>1</v>
       </c>
@@ -11161,8 +11209,8 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
       <c r="C108" s="10" t="s">
         <v>1</v>
       </c>
@@ -11188,8 +11236,8 @@
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
       <c r="C109" s="10" t="s">
         <v>1</v>
       </c>
@@ -11212,8 +11260,8 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="10" t="s">
         <v>1</v>
       </c>
@@ -11236,8 +11284,8 @@
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="22"/>
-      <c r="B111" s="22"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
       <c r="C111" s="9" t="s">
         <v>2</v>
       </c>
@@ -11265,8 +11313,8 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
       <c r="C112" s="9" t="s">
         <v>2</v>
       </c>
@@ -11294,8 +11342,8 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="22"/>
-      <c r="B113" s="22"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="28"/>
       <c r="C113" s="9" t="s">
         <v>2</v>
       </c>
@@ -11323,8 +11371,8 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="22"/>
-      <c r="B114" s="22"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="28"/>
       <c r="C114" s="9" t="s">
         <v>2</v>
       </c>
@@ -11352,10 +11400,10 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="21">
+      <c r="A115" s="27">
         <v>52</v>
       </c>
-      <c r="B115" s="21">
+      <c r="B115" s="27">
         <v>8</v>
       </c>
       <c r="C115" s="10" t="s">
@@ -11383,8 +11431,8 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
       <c r="C116" s="10" t="s">
         <v>1</v>
       </c>
@@ -11407,8 +11455,8 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="22"/>
-      <c r="B117" s="22"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="10" t="s">
         <v>1</v>
       </c>
@@ -11434,8 +11482,8 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
       <c r="C118" s="10" t="s">
         <v>1</v>
       </c>
@@ -11461,8 +11509,8 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
       <c r="C119" s="10" t="s">
         <v>1</v>
       </c>
@@ -11488,8 +11536,8 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
       <c r="C120" s="9" t="s">
         <v>2</v>
       </c>
@@ -11517,8 +11565,8 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
       <c r="C121" s="9" t="s">
         <v>2</v>
       </c>
@@ -11546,8 +11594,8 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="23"/>
-      <c r="B122" s="23"/>
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
       <c r="C122" s="11" t="s">
         <v>2</v>
       </c>
@@ -11576,10 +11624,10 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="22">
+      <c r="A123" s="28">
         <v>51</v>
       </c>
-      <c r="B123" s="22">
+      <c r="B123" s="28">
         <v>11</v>
       </c>
       <c r="C123" s="9" t="s">
@@ -11607,8 +11655,8 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="22"/>
-      <c r="B124" s="22"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
       <c r="C124" s="10" t="s">
         <v>1</v>
       </c>
@@ -11631,8 +11679,8 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="22"/>
-      <c r="B125" s="22"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
       <c r="C125" s="10" t="s">
         <v>1</v>
       </c>
@@ -11655,8 +11703,8 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="22"/>
-      <c r="B126" s="22"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
       <c r="C126" s="10" t="s">
         <v>1</v>
       </c>
@@ -11678,15 +11726,15 @@
         <v>13</v>
       </c>
       <c r="J126" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L126" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="22"/>
-      <c r="B127" s="22"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
       <c r="C127" s="9" t="s">
         <v>2</v>
       </c>
@@ -11714,8 +11762,8 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="22"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="9" t="s">
         <v>2</v>
       </c>
@@ -11743,8 +11791,8 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="22"/>
-      <c r="B129" s="22"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
       <c r="C129" s="9" t="s">
         <v>2</v>
       </c>
@@ -11769,8 +11817,8 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
       <c r="C130" s="9" t="s">
         <v>2</v>
       </c>
@@ -11795,8 +11843,8 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
       <c r="C131" s="9" t="s">
         <v>2</v>
       </c>
@@ -11824,8 +11872,8 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="22"/>
-      <c r="B132" s="22"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
       <c r="C132" s="9" t="s">
         <v>2</v>
       </c>
@@ -11856,8 +11904,8 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="23"/>
-      <c r="B133" s="23"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="9" t="s">
         <v>2</v>
       </c>
@@ -11886,10 +11934,10 @@
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="21">
+      <c r="A134" s="27">
         <v>49</v>
       </c>
-      <c r="B134" s="21">
+      <c r="B134" s="27">
         <v>12</v>
       </c>
       <c r="C134" s="10" t="s">
@@ -11914,8 +11962,8 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="22"/>
-      <c r="B135" s="22"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="10" t="s">
         <v>1</v>
       </c>
@@ -11941,8 +11989,8 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="22"/>
-      <c r="B136" s="22"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="28"/>
       <c r="C136" s="10" t="s">
         <v>1</v>
       </c>
@@ -11968,8 +12016,8 @@
       </c>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="22"/>
-      <c r="B137" s="22"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="28"/>
       <c r="C137" s="10" t="s">
         <v>1</v>
       </c>
@@ -11992,8 +12040,8 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="22"/>
-      <c r="B138" s="22"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="28"/>
       <c r="C138" s="10" t="s">
         <v>1</v>
       </c>
@@ -12016,8 +12064,8 @@
       </c>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="22"/>
-      <c r="B139" s="22"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="28"/>
       <c r="C139" s="10" t="s">
         <v>1</v>
       </c>
@@ -12040,8 +12088,8 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="22"/>
-      <c r="B140" s="22"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
       <c r="C140" s="10" t="s">
         <v>1</v>
       </c>
@@ -12064,8 +12112,8 @@
       </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="22"/>
-      <c r="B141" s="22"/>
+      <c r="A141" s="28"/>
+      <c r="B141" s="28"/>
       <c r="C141" s="10" t="s">
         <v>1</v>
       </c>
@@ -12084,15 +12132,15 @@
         <v>15</v>
       </c>
       <c r="J141" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L141" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="22"/>
-      <c r="B142" s="22"/>
+      <c r="A142" s="28"/>
+      <c r="B142" s="28"/>
       <c r="C142" s="10" t="s">
         <v>1</v>
       </c>
@@ -12114,15 +12162,15 @@
         <v>16</v>
       </c>
       <c r="J142" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L142" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="22"/>
-      <c r="B143" s="22"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="28"/>
       <c r="C143" s="10" t="s">
         <v>1</v>
       </c>
@@ -12140,16 +12188,16 @@
         <f t="shared" si="23"/>
         <v>18</v>
       </c>
-      <c r="J143" s="9">
-        <v>0</v>
-      </c>
-      <c r="L143" t="s">
-        <v>63</v>
+      <c r="J143" s="30">
+        <v>5</v>
+      </c>
+      <c r="L143" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="22"/>
-      <c r="B144" s="22"/>
+      <c r="A144" s="28"/>
+      <c r="B144" s="28"/>
       <c r="C144" s="10" t="s">
         <v>1</v>
       </c>
@@ -12175,8 +12223,8 @@
       </c>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="23"/>
-      <c r="B145" s="23"/>
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
       <c r="C145" s="9" t="s">
         <v>2</v>
       </c>
@@ -12202,10 +12250,10 @@
       </c>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="21">
+      <c r="A146" s="27">
         <v>50</v>
       </c>
-      <c r="B146" s="21">
+      <c r="B146" s="27">
         <v>15</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -12230,8 +12278,8 @@
       </c>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="22"/>
-      <c r="B147" s="22"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="28"/>
       <c r="C147" s="10" t="s">
         <v>1</v>
       </c>
@@ -12257,8 +12305,8 @@
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="22"/>
-      <c r="B148" s="22"/>
+      <c r="A148" s="28"/>
+      <c r="B148" s="28"/>
       <c r="C148" s="10" t="s">
         <v>1</v>
       </c>
@@ -12284,8 +12332,8 @@
       </c>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="22"/>
-      <c r="B149" s="22"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="28"/>
       <c r="C149" s="10" t="s">
         <v>1</v>
       </c>
@@ -12308,8 +12356,8 @@
       </c>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="22"/>
-      <c r="B150" s="22"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="28"/>
       <c r="C150" s="10" t="s">
         <v>1</v>
       </c>
@@ -12332,8 +12380,8 @@
       </c>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="22"/>
-      <c r="B151" s="22"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="28"/>
       <c r="C151" s="10" t="s">
         <v>1</v>
       </c>
@@ -12359,8 +12407,8 @@
       </c>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="22"/>
-      <c r="B152" s="22"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="28"/>
       <c r="C152" s="10" t="s">
         <v>1</v>
       </c>
@@ -12386,8 +12434,8 @@
       </c>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="22"/>
-      <c r="B153" s="22"/>
+      <c r="A153" s="28"/>
+      <c r="B153" s="28"/>
       <c r="C153" s="10" t="s">
         <v>1</v>
       </c>
@@ -12410,8 +12458,8 @@
       </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="22"/>
-      <c r="B154" s="22"/>
+      <c r="A154" s="28"/>
+      <c r="B154" s="28"/>
       <c r="C154" s="10" t="s">
         <v>1</v>
       </c>
@@ -12434,8 +12482,8 @@
       </c>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="22"/>
-      <c r="B155" s="22"/>
+      <c r="A155" s="28"/>
+      <c r="B155" s="28"/>
       <c r="C155" s="10" t="s">
         <v>1</v>
       </c>
@@ -12458,8 +12506,8 @@
       </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="22"/>
-      <c r="B156" s="22"/>
+      <c r="A156" s="28"/>
+      <c r="B156" s="28"/>
       <c r="C156" s="10" t="s">
         <v>1</v>
       </c>
@@ -12482,8 +12530,8 @@
       </c>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="22"/>
-      <c r="B157" s="22"/>
+      <c r="A157" s="28"/>
+      <c r="B157" s="28"/>
       <c r="C157" s="10" t="s">
         <v>1</v>
       </c>
@@ -12509,8 +12557,8 @@
       </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="22"/>
-      <c r="B158" s="22"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="28"/>
       <c r="C158" s="9" t="s">
         <v>2</v>
       </c>
@@ -12535,8 +12583,8 @@
       </c>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="22"/>
-      <c r="B159" s="22"/>
+      <c r="A159" s="28"/>
+      <c r="B159" s="28"/>
       <c r="C159" s="9" t="s">
         <v>2</v>
       </c>
@@ -12564,8 +12612,8 @@
       </c>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="22"/>
-      <c r="B160" s="22"/>
+      <c r="A160" s="28"/>
+      <c r="B160" s="28"/>
       <c r="C160" s="9" t="s">
         <v>2</v>
       </c>
@@ -12593,10 +12641,10 @@
       </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="21">
+      <c r="A161" s="27">
         <v>39</v>
       </c>
-      <c r="B161" s="21">
+      <c r="B161" s="27">
         <v>7</v>
       </c>
       <c r="C161" s="10" t="s">
@@ -12624,8 +12672,8 @@
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="22"/>
-      <c r="B162" s="22"/>
+      <c r="A162" s="28"/>
+      <c r="B162" s="28"/>
       <c r="C162" s="10" t="s">
         <v>1</v>
       </c>
@@ -12648,8 +12696,8 @@
       </c>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="22"/>
-      <c r="B163" s="22"/>
+      <c r="A163" s="28"/>
+      <c r="B163" s="28"/>
       <c r="C163" s="10" t="s">
         <v>1</v>
       </c>
@@ -12672,8 +12720,8 @@
       </c>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="22"/>
-      <c r="B164" s="22"/>
+      <c r="A164" s="28"/>
+      <c r="B164" s="28"/>
       <c r="C164" s="10" t="s">
         <v>1</v>
       </c>
@@ -12696,8 +12744,8 @@
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="22"/>
-      <c r="B165" s="22"/>
+      <c r="A165" s="28"/>
+      <c r="B165" s="28"/>
       <c r="C165" s="9" t="s">
         <v>2</v>
       </c>
@@ -12725,8 +12773,8 @@
       </c>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="22"/>
-      <c r="B166" s="22"/>
+      <c r="A166" s="28"/>
+      <c r="B166" s="28"/>
       <c r="C166" s="9" t="s">
         <v>2</v>
       </c>
@@ -12750,12 +12798,15 @@
         <v>9.1</v>
       </c>
       <c r="J166" s="9">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="L166" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="23"/>
-      <c r="B167" s="23"/>
+      <c r="A167" s="29"/>
+      <c r="B167" s="29"/>
       <c r="C167" s="9" t="s">
         <v>2</v>
       </c>
@@ -12783,10 +12834,10 @@
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="21">
+      <c r="A168" s="27">
         <v>40</v>
       </c>
-      <c r="B168" s="21">
+      <c r="B168" s="27">
         <v>9</v>
       </c>
       <c r="C168" s="10" t="s">
@@ -12811,8 +12862,8 @@
       </c>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="22"/>
-      <c r="B169" s="22"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="28"/>
       <c r="C169" s="10" t="s">
         <v>1</v>
       </c>
@@ -12835,8 +12886,8 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="22"/>
-      <c r="B170" s="22"/>
+      <c r="A170" s="28"/>
+      <c r="B170" s="28"/>
       <c r="C170" s="10" t="s">
         <v>1</v>
       </c>
@@ -12859,8 +12910,8 @@
       </c>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="22"/>
-      <c r="B171" s="22"/>
+      <c r="A171" s="28"/>
+      <c r="B171" s="28"/>
       <c r="C171" s="10" t="s">
         <v>1</v>
       </c>
@@ -12883,8 +12934,8 @@
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="22"/>
-      <c r="B172" s="22"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="28"/>
       <c r="C172" s="10" t="s">
         <v>1</v>
       </c>
@@ -12907,8 +12958,8 @@
       </c>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="22"/>
-      <c r="B173" s="22"/>
+      <c r="A173" s="28"/>
+      <c r="B173" s="28"/>
       <c r="C173" s="9" t="s">
         <v>2</v>
       </c>
@@ -12933,8 +12984,8 @@
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="22"/>
-      <c r="B174" s="22"/>
+      <c r="A174" s="28"/>
+      <c r="B174" s="28"/>
       <c r="C174" s="9" t="s">
         <v>2</v>
       </c>
@@ -12962,8 +13013,8 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="22"/>
-      <c r="B175" s="22"/>
+      <c r="A175" s="28"/>
+      <c r="B175" s="28"/>
       <c r="C175" s="9" t="s">
         <v>2</v>
       </c>
@@ -12988,8 +13039,8 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="23"/>
-      <c r="B176" s="23"/>
+      <c r="A176" s="29"/>
+      <c r="B176" s="29"/>
       <c r="C176" s="11" t="s">
         <v>2</v>
       </c>
@@ -13018,10 +13069,10 @@
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="22">
+      <c r="A177" s="28">
         <v>73</v>
       </c>
-      <c r="B177" s="22">
+      <c r="B177" s="28">
         <v>9</v>
       </c>
       <c r="C177" s="9" t="s">
@@ -13042,15 +13093,15 @@
         <v>4</v>
       </c>
       <c r="J177" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L177" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="22"/>
-      <c r="B178" s="22"/>
+      <c r="A178" s="28"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="10" t="s">
         <v>1</v>
       </c>
@@ -13076,8 +13127,8 @@
       </c>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="22"/>
-      <c r="B179" s="22"/>
+      <c r="A179" s="28"/>
+      <c r="B179" s="28"/>
       <c r="C179" s="10" t="s">
         <v>1</v>
       </c>
@@ -13103,8 +13154,8 @@
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="22"/>
-      <c r="B180" s="22"/>
+      <c r="A180" s="28"/>
+      <c r="B180" s="28"/>
       <c r="C180" s="10" t="s">
         <v>1</v>
       </c>
@@ -13130,8 +13181,8 @@
       </c>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="22"/>
-      <c r="B181" s="22"/>
+      <c r="A181" s="28"/>
+      <c r="B181" s="28"/>
       <c r="C181" s="9" t="s">
         <v>2</v>
       </c>
@@ -13159,8 +13210,8 @@
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="22"/>
-      <c r="B182" s="22"/>
+      <c r="A182" s="28"/>
+      <c r="B182" s="28"/>
       <c r="C182" s="9" t="s">
         <v>2</v>
       </c>
@@ -13191,8 +13242,8 @@
       </c>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="22"/>
-      <c r="B183" s="22"/>
+      <c r="A183" s="28"/>
+      <c r="B183" s="28"/>
       <c r="C183" s="9" t="s">
         <v>2</v>
       </c>
@@ -13220,8 +13271,8 @@
       </c>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="22"/>
-      <c r="B184" s="22"/>
+      <c r="A184" s="28"/>
+      <c r="B184" s="28"/>
       <c r="C184" s="9" t="s">
         <v>2</v>
       </c>
@@ -13252,8 +13303,8 @@
       </c>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="23"/>
-      <c r="B185" s="23"/>
+      <c r="A185" s="29"/>
+      <c r="B185" s="29"/>
       <c r="C185" s="9" t="s">
         <v>2</v>
       </c>
@@ -13284,10 +13335,10 @@
       </c>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="21">
+      <c r="A186" s="27">
         <v>74</v>
       </c>
-      <c r="B186" s="21">
+      <c r="B186" s="27">
         <v>7</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -13315,8 +13366,8 @@
       </c>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="22"/>
-      <c r="B187" s="22"/>
+      <c r="A187" s="28"/>
+      <c r="B187" s="28"/>
       <c r="C187" s="10" t="s">
         <v>1</v>
       </c>
@@ -13339,8 +13390,8 @@
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="22"/>
-      <c r="B188" s="22"/>
+      <c r="A188" s="28"/>
+      <c r="B188" s="28"/>
       <c r="C188" s="9" t="s">
         <v>2</v>
       </c>
@@ -13361,15 +13412,15 @@
         <v>0.0</v>
       </c>
       <c r="J188" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L188" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="22"/>
-      <c r="B189" s="22"/>
+      <c r="A189" s="28"/>
+      <c r="B189" s="28"/>
       <c r="C189" s="9" t="s">
         <v>2</v>
       </c>
@@ -13397,8 +13448,8 @@
       </c>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="22"/>
-      <c r="B190" s="22"/>
+      <c r="A190" s="28"/>
+      <c r="B190" s="28"/>
       <c r="C190" s="9" t="s">
         <v>2</v>
       </c>
@@ -13423,8 +13474,8 @@
       </c>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="22"/>
-      <c r="B191" s="22"/>
+      <c r="A191" s="28"/>
+      <c r="B191" s="28"/>
       <c r="C191" s="9" t="s">
         <v>2</v>
       </c>
@@ -13449,8 +13500,8 @@
       </c>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="22"/>
-      <c r="B192" s="22"/>
+      <c r="A192" s="28"/>
+      <c r="B192" s="28"/>
       <c r="C192" s="9" t="s">
         <v>2</v>
       </c>
@@ -13478,10 +13529,10 @@
       </c>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="21">
+      <c r="A193" s="27">
         <v>63</v>
       </c>
-      <c r="B193" s="21">
+      <c r="B193" s="27">
         <v>7</v>
       </c>
       <c r="C193" s="10" t="s">
@@ -13502,15 +13553,15 @@
         <v>1</v>
       </c>
       <c r="J193" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L193" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="22"/>
-      <c r="B194" s="22"/>
+      <c r="A194" s="28"/>
+      <c r="B194" s="28"/>
       <c r="C194" s="10" t="s">
         <v>1</v>
       </c>
@@ -13536,8 +13587,8 @@
       </c>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="22"/>
-      <c r="B195" s="22"/>
+      <c r="A195" s="28"/>
+      <c r="B195" s="28"/>
       <c r="C195" s="10" t="s">
         <v>1</v>
       </c>
@@ -13560,8 +13611,8 @@
       </c>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="22"/>
-      <c r="B196" s="22"/>
+      <c r="A196" s="28"/>
+      <c r="B196" s="28"/>
       <c r="C196" s="10" t="s">
         <v>1</v>
       </c>
@@ -13584,8 +13635,8 @@
       </c>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="22"/>
-      <c r="B197" s="22"/>
+      <c r="A197" s="28"/>
+      <c r="B197" s="28"/>
       <c r="C197" s="10" t="s">
         <v>1</v>
       </c>
@@ -13596,7 +13647,7 @@
       <c r="F197" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G197" s="26" t="s">
+      <c r="G197" s="23" t="s">
         <v>8</v>
       </c>
       <c r="I197" s="9" t="str">
@@ -13606,13 +13657,13 @@
       <c r="J197" s="9">
         <v>2</v>
       </c>
-      <c r="L197" t="s">
-        <v>90</v>
+      <c r="L197" s="24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="198" spans="1:12">
-      <c r="A198" s="22"/>
-      <c r="B198" s="22"/>
+      <c r="A198" s="28"/>
+      <c r="B198" s="28"/>
       <c r="C198" s="9" t="s">
         <v>2</v>
       </c>
@@ -13640,8 +13691,8 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="23"/>
-      <c r="B199" s="23"/>
+      <c r="A199" s="29"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="9" t="s">
         <v>2</v>
       </c>
@@ -13672,10 +13723,10 @@
       </c>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="22">
+      <c r="A200" s="28">
         <v>64</v>
       </c>
-      <c r="B200" s="22">
+      <c r="B200" s="28">
         <v>7</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -13703,8 +13754,8 @@
       </c>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="22"/>
-      <c r="B201" s="22"/>
+      <c r="A201" s="28"/>
+      <c r="B201" s="28"/>
       <c r="C201" s="10" t="s">
         <v>1</v>
       </c>
@@ -13727,8 +13778,8 @@
       </c>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="22"/>
-      <c r="B202" s="22"/>
+      <c r="A202" s="28"/>
+      <c r="B202" s="28"/>
       <c r="C202" s="10" t="s">
         <v>1</v>
       </c>
@@ -13754,8 +13805,8 @@
       </c>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="22"/>
-      <c r="B203" s="22"/>
+      <c r="A203" s="28"/>
+      <c r="B203" s="28"/>
       <c r="C203" s="10" t="s">
         <v>1</v>
       </c>
@@ -13778,8 +13829,8 @@
       </c>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="22"/>
-      <c r="B204" s="22"/>
+      <c r="A204" s="28"/>
+      <c r="B204" s="28"/>
       <c r="C204" s="10" t="s">
         <v>1</v>
       </c>
@@ -13802,8 +13853,8 @@
       </c>
     </row>
     <row r="205" spans="1:12">
-      <c r="A205" s="22"/>
-      <c r="B205" s="22"/>
+      <c r="A205" s="28"/>
+      <c r="B205" s="28"/>
       <c r="C205" s="9" t="s">
         <v>2</v>
       </c>
@@ -13828,8 +13879,8 @@
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="22"/>
-      <c r="B206" s="22"/>
+      <c r="A206" s="28"/>
+      <c r="B206" s="28"/>
       <c r="C206" s="9" t="s">
         <v>2</v>
       </c>
@@ -13854,14 +13905,14 @@
         <v>0</v>
       </c>
       <c r="L206" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="21">
+      <c r="A207" s="27">
         <v>65</v>
       </c>
-      <c r="B207" s="21">
+      <c r="B207" s="27">
         <v>9</v>
       </c>
       <c r="C207" s="10" t="s">
@@ -13886,8 +13937,8 @@
       </c>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="22"/>
-      <c r="B208" s="22"/>
+      <c r="A208" s="28"/>
+      <c r="B208" s="28"/>
       <c r="C208" s="10" t="s">
         <v>1</v>
       </c>
@@ -13909,12 +13960,12 @@
         <v>3</v>
       </c>
       <c r="L208" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="22"/>
-      <c r="B209" s="22"/>
+      <c r="A209" s="28"/>
+      <c r="B209" s="28"/>
       <c r="C209" s="10" t="s">
         <v>1</v>
       </c>
@@ -13937,8 +13988,8 @@
       </c>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="22"/>
-      <c r="B210" s="22"/>
+      <c r="A210" s="28"/>
+      <c r="B210" s="28"/>
       <c r="C210" s="10" t="s">
         <v>1</v>
       </c>
@@ -13957,12 +14008,12 @@
         <v>4</v>
       </c>
       <c r="J210" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:12">
-      <c r="A211" s="22"/>
-      <c r="B211" s="22"/>
+      <c r="A211" s="28"/>
+      <c r="B211" s="28"/>
       <c r="C211" s="10" t="s">
         <v>1</v>
       </c>
@@ -13991,8 +14042,8 @@
       </c>
     </row>
     <row r="212" spans="1:12">
-      <c r="A212" s="22"/>
-      <c r="B212" s="22"/>
+      <c r="A212" s="28"/>
+      <c r="B212" s="28"/>
       <c r="C212" s="10" t="s">
         <v>1</v>
       </c>
@@ -14018,8 +14069,8 @@
       </c>
     </row>
     <row r="213" spans="1:12">
-      <c r="A213" s="22"/>
-      <c r="B213" s="22"/>
+      <c r="A213" s="28"/>
+      <c r="B213" s="28"/>
       <c r="C213" s="10" t="s">
         <v>1</v>
       </c>
@@ -14042,8 +14093,8 @@
       </c>
     </row>
     <row r="214" spans="1:12">
-      <c r="A214" s="22"/>
-      <c r="B214" s="22"/>
+      <c r="A214" s="28"/>
+      <c r="B214" s="28"/>
       <c r="C214" s="10" t="s">
         <v>1</v>
       </c>
@@ -14066,8 +14117,8 @@
       </c>
     </row>
     <row r="215" spans="1:12">
-      <c r="A215" s="22"/>
-      <c r="B215" s="22"/>
+      <c r="A215" s="28"/>
+      <c r="B215" s="28"/>
       <c r="C215" s="10" t="s">
         <v>1</v>
       </c>
@@ -14091,13 +14142,12 @@
       <c r="J215" s="11">
         <v>0</v>
       </c>
-      <c r="L215" s="30"/>
     </row>
     <row r="216" spans="1:12">
-      <c r="A216" s="21">
+      <c r="A216" s="27">
         <v>66</v>
       </c>
-      <c r="B216" s="21">
+      <c r="B216" s="27">
         <v>8</v>
       </c>
       <c r="C216" s="10" t="s">
@@ -14128,22 +14178,21 @@
       <c r="C217" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D217" s="27">
-        <v>1</v>
-      </c>
-      <c r="E217" s="27"/>
-      <c r="F217" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G217" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H217" s="27"/>
-      <c r="I217" s="27" t="str">
+      <c r="D217" s="9">
+        <v>1</v>
+      </c>
+      <c r="E217" s="9"/>
+      <c r="F217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="9" t="str">
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="J217" s="27">
+      <c r="J217" s="9">
         <v>2</v>
       </c>
     </row>
@@ -14153,22 +14202,21 @@
       <c r="C218" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D218" s="27">
-        <v>2</v>
-      </c>
-      <c r="E218" s="27"/>
-      <c r="F218" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G218" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H218" s="27"/>
-      <c r="I218" s="27" t="str">
+      <c r="D218" s="9">
+        <v>2</v>
+      </c>
+      <c r="E218" s="9"/>
+      <c r="F218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="9" t="str">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="J218" s="27">
+      <c r="J218" s="9">
         <v>3</v>
       </c>
       <c r="L218" t="s">
@@ -14181,22 +14229,21 @@
       <c r="C219" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D219" s="27">
-        <v>4</v>
-      </c>
-      <c r="E219" s="27"/>
-      <c r="F219" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G219" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H219" s="27"/>
-      <c r="I219" s="27" t="str">
+      <c r="D219" s="9">
+        <v>4</v>
+      </c>
+      <c r="E219" s="9"/>
+      <c r="F219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G219" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" s="9" t="str">
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="J219" s="27">
+      <c r="J219" s="9">
         <v>1</v>
       </c>
     </row>
@@ -14206,22 +14253,21 @@
       <c r="C220" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D220" s="27">
+      <c r="D220" s="9">
         <v>5</v>
       </c>
-      <c r="E220" s="27"/>
-      <c r="F220" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G220" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H220" s="27"/>
-      <c r="I220" s="27" t="str">
+      <c r="E220" s="9"/>
+      <c r="F220" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G220" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" s="9" t="str">
         <f t="shared" si="39"/>
         <v>5</v>
       </c>
-      <c r="J220" s="27">
+      <c r="J220" s="9">
         <v>2</v>
       </c>
     </row>
@@ -14231,49 +14277,47 @@
       <c r="C221" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D221" s="27">
+      <c r="D221" s="9">
         <v>7</v>
       </c>
-      <c r="E221" s="27"/>
-      <c r="F221" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G221" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H221" s="27"/>
-      <c r="I221" s="27" t="str">
+      <c r="E221" s="9"/>
+      <c r="F221" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I221" s="9" t="str">
         <f t="shared" si="39"/>
         <v>7</v>
       </c>
-      <c r="J221" s="27">
+      <c r="J221" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="28"/>
       <c r="B222" s="28"/>
-      <c r="C222" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" s="27">
-        <v>3</v>
-      </c>
-      <c r="E222" s="27">
-        <v>0</v>
-      </c>
-      <c r="F222" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G222" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H222" s="27"/>
-      <c r="I222" s="27" t="str">
+      <c r="C222" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="9">
+        <v>3</v>
+      </c>
+      <c r="E222" s="9">
+        <v>0</v>
+      </c>
+      <c r="F222" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I222" s="9" t="str">
         <f t="shared" ref="I222:I223" si="40">_xlfn.CONCAT(D222,".",E222)</f>
         <v>3.0</v>
       </c>
-      <c r="J222" s="27">
+      <c r="J222" s="9">
         <v>0</v>
       </c>
       <c r="L222" t="s">
@@ -14281,8 +14325,8 @@
       </c>
     </row>
     <row r="223" spans="1:12">
-      <c r="A223" s="23"/>
-      <c r="B223" s="23"/>
+      <c r="A223" s="29"/>
+      <c r="B223" s="29"/>
       <c r="C223" s="11" t="s">
         <v>2</v>
       </c>
@@ -14308,16 +14352,15 @@
       <c r="J223" s="11">
         <v>1</v>
       </c>
-      <c r="L223" s="30"/>
     </row>
     <row r="224" spans="1:12">
-      <c r="A224" s="22">
+      <c r="A224" s="28">
         <v>75</v>
       </c>
-      <c r="B224" s="22">
+      <c r="B224" s="28">
         <v>7</v>
       </c>
-      <c r="C224" s="27" t="s">
+      <c r="C224" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="9">
@@ -14339,8 +14382,8 @@
       </c>
     </row>
     <row r="225" spans="1:12">
-      <c r="A225" s="22"/>
-      <c r="B225" s="22"/>
+      <c r="A225" s="28"/>
+      <c r="B225" s="28"/>
       <c r="C225" s="10" t="s">
         <v>1</v>
       </c>
@@ -14362,12 +14405,12 @@
         <v>3</v>
       </c>
       <c r="L225" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="226" spans="1:12">
-      <c r="A226" s="22"/>
-      <c r="B226" s="22"/>
+      <c r="A226" s="28"/>
+      <c r="B226" s="28"/>
       <c r="C226" s="10" t="s">
         <v>1</v>
       </c>
@@ -14390,8 +14433,8 @@
       </c>
     </row>
     <row r="227" spans="1:12">
-      <c r="A227" s="22"/>
-      <c r="B227" s="22"/>
+      <c r="A227" s="28"/>
+      <c r="B227" s="28"/>
       <c r="C227" s="9" t="s">
         <v>2</v>
       </c>
@@ -14422,8 +14465,8 @@
       </c>
     </row>
     <row r="228" spans="1:12">
-      <c r="A228" s="22"/>
-      <c r="B228" s="22"/>
+      <c r="A228" s="28"/>
+      <c r="B228" s="28"/>
       <c r="C228" s="9" t="s">
         <v>2</v>
       </c>
@@ -14451,8 +14494,8 @@
       </c>
     </row>
     <row r="229" spans="1:12">
-      <c r="A229" s="22"/>
-      <c r="B229" s="22"/>
+      <c r="A229" s="28"/>
+      <c r="B229" s="28"/>
       <c r="C229" s="9" t="s">
         <v>2</v>
       </c>
@@ -14476,15 +14519,15 @@
         <v>9.0</v>
       </c>
       <c r="J229" s="9">
-        <v>2</v>
-      </c>
-      <c r="L229" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L229" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="22"/>
-      <c r="B230" s="22"/>
+      <c r="A230" s="28"/>
+      <c r="B230" s="28"/>
       <c r="C230" s="9" t="s">
         <v>2</v>
       </c>
@@ -14510,13 +14553,12 @@
       <c r="J230" s="11">
         <v>1</v>
       </c>
-      <c r="L230" s="30"/>
     </row>
     <row r="231" spans="1:12">
-      <c r="A231" s="21">
+      <c r="A231" s="27">
         <v>76</v>
       </c>
-      <c r="B231" s="21">
+      <c r="B231" s="27">
         <v>7</v>
       </c>
       <c r="C231" s="10" t="s">
@@ -14541,8 +14583,8 @@
       </c>
     </row>
     <row r="232" spans="1:12">
-      <c r="A232" s="22"/>
-      <c r="B232" s="22"/>
+      <c r="A232" s="28"/>
+      <c r="B232" s="28"/>
       <c r="C232" s="10" t="s">
         <v>1</v>
       </c>
@@ -14565,8 +14607,8 @@
       </c>
     </row>
     <row r="233" spans="1:12">
-      <c r="A233" s="22"/>
-      <c r="B233" s="22"/>
+      <c r="A233" s="28"/>
+      <c r="B233" s="28"/>
       <c r="C233" s="10" t="s">
         <v>1</v>
       </c>
@@ -14592,8 +14634,8 @@
       </c>
     </row>
     <row r="234" spans="1:12">
-      <c r="A234" s="22"/>
-      <c r="B234" s="22"/>
+      <c r="A234" s="28"/>
+      <c r="B234" s="28"/>
       <c r="C234" s="10" t="s">
         <v>1</v>
       </c>
@@ -14617,13 +14659,13 @@
       <c r="J234" s="9">
         <v>3</v>
       </c>
-      <c r="L234" s="30" t="s">
+      <c r="L234" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="235" spans="1:12">
-      <c r="A235" s="22"/>
-      <c r="B235" s="22"/>
+      <c r="A235" s="28"/>
+      <c r="B235" s="28"/>
       <c r="C235" s="9" t="s">
         <v>2</v>
       </c>
@@ -14651,8 +14693,8 @@
       </c>
     </row>
     <row r="236" spans="1:12">
-      <c r="A236" s="22"/>
-      <c r="B236" s="22"/>
+      <c r="A236" s="28"/>
+      <c r="B236" s="28"/>
       <c r="C236" s="9" t="s">
         <v>2</v>
       </c>
@@ -14677,8 +14719,8 @@
       </c>
     </row>
     <row r="237" spans="1:12">
-      <c r="A237" s="22"/>
-      <c r="B237" s="22"/>
+      <c r="A237" s="28"/>
+      <c r="B237" s="28"/>
       <c r="C237" s="9" t="s">
         <v>2</v>
       </c>
@@ -14704,10 +14746,10 @@
       </c>
     </row>
     <row r="238" spans="1:12">
-      <c r="A238" s="21">
+      <c r="A238" s="27">
         <v>67</v>
       </c>
-      <c r="B238" s="21">
+      <c r="B238" s="27">
         <v>4</v>
       </c>
       <c r="C238" s="10" t="s">
@@ -14735,8 +14777,8 @@
       </c>
     </row>
     <row r="239" spans="1:12">
-      <c r="A239" s="22"/>
-      <c r="B239" s="22"/>
+      <c r="A239" s="28"/>
+      <c r="B239" s="28"/>
       <c r="C239" s="10" t="s">
         <v>1</v>
       </c>
@@ -14759,8 +14801,8 @@
       </c>
     </row>
     <row r="240" spans="1:12">
-      <c r="A240" s="22"/>
-      <c r="B240" s="22"/>
+      <c r="A240" s="28"/>
+      <c r="B240" s="28"/>
       <c r="C240" s="9" t="s">
         <v>2</v>
       </c>
@@ -14791,8 +14833,8 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="A241" s="22"/>
-      <c r="B241" s="22"/>
+      <c r="A241" s="28"/>
+      <c r="B241" s="28"/>
       <c r="C241" s="9" t="s">
         <v>2</v>
       </c>
@@ -14818,10 +14860,10 @@
       </c>
     </row>
     <row r="242" spans="1:12">
-      <c r="A242" s="21">
+      <c r="A242" s="27">
         <v>68</v>
       </c>
-      <c r="B242" s="21">
+      <c r="B242" s="27">
         <v>3</v>
       </c>
       <c r="C242" s="10" t="s">
@@ -14842,15 +14884,15 @@
         <v>2</v>
       </c>
       <c r="J242" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L242" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="243" spans="1:12">
-      <c r="A243" s="22"/>
-      <c r="B243" s="22"/>
+      <c r="A243" s="28"/>
+      <c r="B243" s="28"/>
       <c r="C243" s="10" t="s">
         <v>1</v>
       </c>
@@ -14873,8 +14915,8 @@
       </c>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="23"/>
-      <c r="B244" s="23"/>
+      <c r="A244" s="29"/>
+      <c r="B244" s="29"/>
       <c r="C244" s="11" t="s">
         <v>2</v>
       </c>
@@ -14903,10 +14945,10 @@
       </c>
     </row>
     <row r="245" spans="1:12">
-      <c r="A245" s="21">
+      <c r="A245" s="27">
         <v>69</v>
       </c>
-      <c r="B245" s="21">
+      <c r="B245" s="27">
         <v>5</v>
       </c>
       <c r="C245" s="10" t="s">
@@ -14931,8 +14973,8 @@
       </c>
     </row>
     <row r="246" spans="1:12">
-      <c r="A246" s="22"/>
-      <c r="B246" s="22"/>
+      <c r="A246" s="28"/>
+      <c r="B246" s="28"/>
       <c r="C246" s="10" t="s">
         <v>1</v>
       </c>
@@ -14951,15 +14993,15 @@
         <v>2</v>
       </c>
       <c r="J246" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L246" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="247" spans="1:12">
-      <c r="A247" s="22"/>
-      <c r="B247" s="22"/>
+      <c r="A247" s="28"/>
+      <c r="B247" s="28"/>
       <c r="C247" s="10" t="s">
         <v>1</v>
       </c>
@@ -14982,8 +15024,8 @@
       </c>
     </row>
     <row r="248" spans="1:12">
-      <c r="A248" s="22"/>
-      <c r="B248" s="22"/>
+      <c r="A248" s="28"/>
+      <c r="B248" s="28"/>
       <c r="C248" s="9" t="s">
         <v>2</v>
       </c>
@@ -15006,13 +15048,13 @@
       <c r="J248" s="9">
         <v>0</v>
       </c>
-      <c r="L248" s="30" t="s">
+      <c r="L248" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="249" spans="1:12">
-      <c r="A249" s="23"/>
-      <c r="B249" s="23"/>
+      <c r="A249" s="29"/>
+      <c r="B249" s="29"/>
       <c r="C249" s="9" t="s">
         <v>2</v>
       </c>
@@ -15043,10 +15085,10 @@
       </c>
     </row>
     <row r="250" spans="1:12">
-      <c r="A250" s="21">
+      <c r="A250" s="27">
         <v>70</v>
       </c>
-      <c r="B250" s="21">
+      <c r="B250" s="27">
         <v>4</v>
       </c>
       <c r="C250" s="10" t="s">
@@ -15071,8 +15113,8 @@
       </c>
     </row>
     <row r="251" spans="1:12">
-      <c r="A251" s="22"/>
-      <c r="B251" s="22"/>
+      <c r="A251" s="28"/>
+      <c r="B251" s="28"/>
       <c r="C251" s="9" t="s">
         <v>2</v>
       </c>
@@ -15100,8 +15142,8 @@
       </c>
     </row>
     <row r="252" spans="1:12">
-      <c r="A252" s="22"/>
-      <c r="B252" s="22"/>
+      <c r="A252" s="28"/>
+      <c r="B252" s="28"/>
       <c r="C252" s="9" t="s">
         <v>2</v>
       </c>
@@ -15132,8 +15174,8 @@
       </c>
     </row>
     <row r="253" spans="1:12">
-      <c r="A253" s="23"/>
-      <c r="B253" s="23"/>
+      <c r="A253" s="29"/>
+      <c r="B253" s="29"/>
       <c r="C253" s="9" t="s">
         <v>2</v>
       </c>
@@ -15163,30 +15205,30 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A85:A94"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="A74:A84"/>
-    <mergeCell ref="A200:A206"/>
-    <mergeCell ref="A95:A105"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="A134:A145"/>
-    <mergeCell ref="A146:A160"/>
-    <mergeCell ref="A161:A167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="A177:A185"/>
-    <mergeCell ref="A186:A192"/>
-    <mergeCell ref="A193:A199"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="B177:B185"/>
+    <mergeCell ref="B186:B192"/>
+    <mergeCell ref="B193:B199"/>
+    <mergeCell ref="B200:B206"/>
+    <mergeCell ref="B207:B215"/>
+    <mergeCell ref="B216:B223"/>
+    <mergeCell ref="B224:B230"/>
+    <mergeCell ref="B231:B237"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="B245:B249"/>
+    <mergeCell ref="B168:B176"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="B74:B84"/>
+    <mergeCell ref="B85:B94"/>
+    <mergeCell ref="B95:B105"/>
+    <mergeCell ref="B106:B114"/>
+    <mergeCell ref="B115:B122"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="B134:B145"/>
+    <mergeCell ref="B146:B160"/>
+    <mergeCell ref="B161:B167"/>
     <mergeCell ref="A245:A249"/>
     <mergeCell ref="A250:A253"/>
     <mergeCell ref="B1:B4"/>
@@ -15203,30 +15245,30 @@
     <mergeCell ref="A231:A237"/>
     <mergeCell ref="A238:A241"/>
     <mergeCell ref="A242:A244"/>
-    <mergeCell ref="B168:B176"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="B74:B84"/>
-    <mergeCell ref="B85:B94"/>
-    <mergeCell ref="B95:B105"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="B134:B145"/>
-    <mergeCell ref="B146:B160"/>
-    <mergeCell ref="B161:B167"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="B177:B185"/>
-    <mergeCell ref="B186:B192"/>
-    <mergeCell ref="B193:B199"/>
-    <mergeCell ref="B200:B206"/>
-    <mergeCell ref="B207:B215"/>
-    <mergeCell ref="B216:B223"/>
-    <mergeCell ref="B224:B230"/>
-    <mergeCell ref="B231:B237"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="B245:B249"/>
+    <mergeCell ref="A200:A206"/>
+    <mergeCell ref="A95:A105"/>
+    <mergeCell ref="A106:A114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="A146:A160"/>
+    <mergeCell ref="A161:A167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="A177:A185"/>
+    <mergeCell ref="A186:A192"/>
+    <mergeCell ref="A193:A199"/>
+    <mergeCell ref="A85:A94"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A74:A84"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16047,22 +16089,22 @@
       <c r="C45" s="10">
         <v>3</v>
       </c>
-      <c r="D45" s="27">
-        <v>2</v>
-      </c>
-      <c r="E45" s="27">
-        <v>3</v>
-      </c>
-      <c r="F45" s="27">
-        <v>1</v>
-      </c>
-      <c r="G45" s="27">
-        <v>2</v>
-      </c>
-      <c r="H45" s="27">
-        <v>1</v>
-      </c>
-      <c r="I45" s="27">
+      <c r="D45" s="9">
+        <v>2</v>
+      </c>
+      <c r="E45" s="9">
+        <v>3</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="9">
+        <v>2</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1</v>
+      </c>
+      <c r="I45" s="9">
         <v>0</v>
       </c>
       <c r="J45" s="11">

--- a/data-result/flights-flat.xlsx
+++ b/data-result/flights-flat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyw/Documents/Chaper2/github-code/segmentation-3D/data-result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9247002F-44D8-A147-840A-A19ECE7FF11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E8E121-E594-8943-B98A-92CD863F80E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="15500" xr2:uid="{BE131FAD-70C2-C04D-94BD-68B1DC699088}"/>
   </bookViews>
@@ -1144,15 +1144,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,6 +1162,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1179,15 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853BEC4E-D11A-5F47-92CE-666CC732899C}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1528,7 +1528,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="8"/>
       <c r="F1" s="24" t="str">
-        <f>_xlfn.CONCAT(A1,"-",B1)</f>
+        <f t="shared" ref="F1:F40" si="0">_xlfn.CONCAT(A1,"-",B1)</f>
         <v>8-1</v>
       </c>
       <c r="G1" s="24" t="str">
@@ -1536,7 +1536,7 @@
         <v>9-62</v>
       </c>
       <c r="H1" s="24" t="str">
-        <f>_xlfn.CONCAT(F1,"_",G1)</f>
+        <f t="shared" ref="H1:H35" si="1">_xlfn.CONCAT(F1,"_",G1)</f>
         <v>8-1_9-62</v>
       </c>
       <c r="I1" s="24" t="s">
@@ -1559,7 +1559,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="8"/>
       <c r="F2" t="str">
-        <f>_xlfn.CONCAT(A2,"-",B2)</f>
+        <f t="shared" si="0"/>
         <v>8-1</v>
       </c>
       <c r="G2" t="str">
@@ -1567,7 +1567,7 @@
         <v>9-58</v>
       </c>
       <c r="H2" t="str">
-        <f>_xlfn.CONCAT(F2,"_",G2)</f>
+        <f t="shared" si="1"/>
         <v>8-1_9-58</v>
       </c>
       <c r="I2" t="s">
@@ -1590,7 +1590,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="8"/>
       <c r="F3" t="str">
-        <f>_xlfn.CONCAT(A3,"-",B3)</f>
+        <f t="shared" si="0"/>
         <v>8-2</v>
       </c>
       <c r="G3" t="str">
@@ -1598,7 +1598,7 @@
         <v>9-59</v>
       </c>
       <c r="H3" t="str">
-        <f>_xlfn.CONCAT(F3,"_",G3)</f>
+        <f t="shared" si="1"/>
         <v>8-2_9-59</v>
       </c>
       <c r="I3" t="s">
@@ -1621,7 +1621,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="9"/>
       <c r="F4" t="str">
-        <f>_xlfn.CONCAT(A4,"-",B4)</f>
+        <f t="shared" si="0"/>
         <v>8-3</v>
       </c>
       <c r="G4" t="str">
@@ -1629,7 +1629,7 @@
         <v>9-60</v>
       </c>
       <c r="H4" t="str">
-        <f>_xlfn.CONCAT(F4,"_",G4)</f>
+        <f t="shared" si="1"/>
         <v>8-3_9-60</v>
       </c>
       <c r="I4" t="s">
@@ -1652,7 +1652,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="8"/>
       <c r="F5" t="str">
-        <f>_xlfn.CONCAT(A5,"-",B5)</f>
+        <f t="shared" si="0"/>
         <v>8-5</v>
       </c>
       <c r="G5" t="str">
@@ -1660,7 +1660,7 @@
         <v>9-61</v>
       </c>
       <c r="H5" t="str">
-        <f>_xlfn.CONCAT(F5,"_",G5)</f>
+        <f t="shared" si="1"/>
         <v>8-5_9-61</v>
       </c>
       <c r="I5" t="s">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="24" t="str">
-        <f>_xlfn.CONCAT(A6,"-",B6)</f>
+        <f t="shared" si="0"/>
         <v>8-7</v>
       </c>
       <c r="G6" s="24" t="str">
@@ -1691,7 +1691,7 @@
         <v>8-32</v>
       </c>
       <c r="H6" s="24" t="str">
-        <f>_xlfn.CONCAT(F6,"_",G6)</f>
+        <f t="shared" si="1"/>
         <v>8-7_8-32</v>
       </c>
       <c r="I6" s="24"/>
@@ -1710,15 +1710,15 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" t="str">
-        <f>_xlfn.CONCAT(A7,"-",B7)</f>
+        <f t="shared" si="0"/>
         <v>8-7</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" ref="G7:G9" si="0">_xlfn.CONCAT("8-",D7)</f>
+        <f t="shared" ref="G7:G9" si="2">_xlfn.CONCAT("8-",D7)</f>
         <v>8-33</v>
       </c>
       <c r="H7" t="str">
-        <f>_xlfn.CONCAT(F7,"_",G7)</f>
+        <f t="shared" si="1"/>
         <v>8-7_8-33</v>
       </c>
       <c r="I7" t="s">
@@ -1741,15 +1741,15 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="24" t="str">
-        <f>_xlfn.CONCAT(A8,"-",B8)</f>
+        <f t="shared" si="0"/>
         <v>8-9</v>
       </c>
       <c r="G8" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8-30</v>
       </c>
       <c r="H8" s="24" t="str">
-        <f>_xlfn.CONCAT(F8,"_",G8)</f>
+        <f t="shared" si="1"/>
         <v>8-9_8-30</v>
       </c>
       <c r="I8" s="24"/>
@@ -1768,15 +1768,15 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" t="str">
-        <f>_xlfn.CONCAT(A9,"-",B9)</f>
+        <f t="shared" si="0"/>
         <v>8-9</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8-31</v>
       </c>
       <c r="H9" t="str">
-        <f>_xlfn.CONCAT(F9,"_",G9)</f>
+        <f t="shared" si="1"/>
         <v>8-9_8-31</v>
       </c>
       <c r="I9" t="s">
@@ -1799,7 +1799,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="8"/>
       <c r="F10" t="str">
-        <f>_xlfn.CONCAT(A10,"-",B10)</f>
+        <f t="shared" si="0"/>
         <v>10-1</v>
       </c>
       <c r="G10" t="str">
@@ -1807,7 +1807,7 @@
         <v>9-54</v>
       </c>
       <c r="H10" t="str">
-        <f>_xlfn.CONCAT(F10,"_",G10)</f>
+        <f t="shared" si="1"/>
         <v>10-1_9-54</v>
       </c>
       <c r="I10" t="s">
@@ -1830,7 +1830,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="8"/>
       <c r="F11" t="str">
-        <f>_xlfn.CONCAT(A11,"-",B11)</f>
+        <f t="shared" si="0"/>
         <v>10-2</v>
       </c>
       <c r="G11" t="str">
@@ -1838,7 +1838,7 @@
         <v>9-55</v>
       </c>
       <c r="H11" t="str">
-        <f>_xlfn.CONCAT(F11,"_",G11)</f>
+        <f t="shared" si="1"/>
         <v>10-2_9-55</v>
       </c>
       <c r="I11" t="s">
@@ -1861,7 +1861,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="8"/>
       <c r="F12" t="str">
-        <f>_xlfn.CONCAT(A12,"-",B12)</f>
+        <f t="shared" si="0"/>
         <v>10-3</v>
       </c>
       <c r="G12" t="str">
@@ -1869,7 +1869,7 @@
         <v>9-56</v>
       </c>
       <c r="H12" t="str">
-        <f>_xlfn.CONCAT(F12,"_",G12)</f>
+        <f t="shared" si="1"/>
         <v>10-3_9-56</v>
       </c>
       <c r="I12" t="s">
@@ -1892,7 +1892,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="8"/>
       <c r="F13" t="str">
-        <f>_xlfn.CONCAT(A13,"-",B13)</f>
+        <f t="shared" si="0"/>
         <v>10-5</v>
       </c>
       <c r="G13" t="str">
@@ -1900,7 +1900,7 @@
         <v>9-57</v>
       </c>
       <c r="H13" t="str">
-        <f>_xlfn.CONCAT(F13,"_",G13)</f>
+        <f t="shared" si="1"/>
         <v>10-5_9-57</v>
       </c>
       <c r="I13" t="s">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" t="str">
-        <f>_xlfn.CONCAT(A14,"-",B14)</f>
+        <f t="shared" si="0"/>
         <v>10-7</v>
       </c>
       <c r="G14" t="str">
@@ -1931,7 +1931,7 @@
         <v>8-37</v>
       </c>
       <c r="H14" t="str">
-        <f>_xlfn.CONCAT(F14,"_",G14)</f>
+        <f t="shared" si="1"/>
         <v>10-7_8-37</v>
       </c>
       <c r="I14" t="s">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" t="str">
-        <f>_xlfn.CONCAT(A15,"-",B15)</f>
+        <f t="shared" si="0"/>
         <v>10-9</v>
       </c>
       <c r="G15" t="str">
@@ -1962,7 +1962,7 @@
         <v>8-38</v>
       </c>
       <c r="H15" t="str">
-        <f>_xlfn.CONCAT(F15,"_",G15)</f>
+        <f t="shared" si="1"/>
         <v>10-9_8-38</v>
       </c>
       <c r="I15" t="s">
@@ -1985,7 +1985,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="8"/>
       <c r="F16" s="24" t="str">
-        <f>_xlfn.CONCAT(A16,"-",B16)</f>
+        <f t="shared" si="0"/>
         <v>15-1</v>
       </c>
       <c r="G16" s="24" t="str">
@@ -1993,7 +1993,7 @@
         <v>9-53</v>
       </c>
       <c r="H16" s="24" t="str">
-        <f>_xlfn.CONCAT(F16,"_",G16)</f>
+        <f t="shared" si="1"/>
         <v>15-1_9-53</v>
       </c>
       <c r="I16" s="24" t="s">
@@ -2016,7 +2016,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="8"/>
       <c r="F17" t="str">
-        <f>_xlfn.CONCAT(A17,"-",B17)</f>
+        <f t="shared" si="0"/>
         <v>15-1</v>
       </c>
       <c r="G17" t="str">
@@ -2024,7 +2024,7 @@
         <v>9-52</v>
       </c>
       <c r="H17" t="str">
-        <f>_xlfn.CONCAT(F17,"_",G17)</f>
+        <f t="shared" si="1"/>
         <v>15-1_9-52</v>
       </c>
       <c r="I17" t="s">
@@ -2047,7 +2047,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="8"/>
       <c r="F18" t="str">
-        <f>_xlfn.CONCAT(A18,"-",B18)</f>
+        <f t="shared" si="0"/>
         <v>15-2</v>
       </c>
       <c r="G18" t="str">
@@ -2055,7 +2055,7 @@
         <v>9-51</v>
       </c>
       <c r="H18" t="str">
-        <f>_xlfn.CONCAT(F18,"_",G18)</f>
+        <f t="shared" si="1"/>
         <v>15-2_9-51</v>
       </c>
       <c r="I18" t="s">
@@ -2078,7 +2078,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="8"/>
       <c r="F19" t="str">
-        <f>_xlfn.CONCAT(A19,"-",B19)</f>
+        <f t="shared" si="0"/>
         <v>15-3</v>
       </c>
       <c r="G19" t="str">
@@ -2086,7 +2086,7 @@
         <v>9-49</v>
       </c>
       <c r="H19" t="str">
-        <f>_xlfn.CONCAT(F19,"_",G19)</f>
+        <f t="shared" si="1"/>
         <v>15-3_9-49</v>
       </c>
       <c r="I19" t="s">
@@ -2109,7 +2109,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="8"/>
       <c r="F20" t="str">
-        <f>_xlfn.CONCAT(A20,"-",B20)</f>
+        <f t="shared" si="0"/>
         <v>15-5</v>
       </c>
       <c r="G20" t="str">
@@ -2117,7 +2117,7 @@
         <v>9-50</v>
       </c>
       <c r="H20" t="str">
-        <f>_xlfn.CONCAT(F20,"_",G20)</f>
+        <f t="shared" si="1"/>
         <v>15-5_9-50</v>
       </c>
       <c r="I20" t="s">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="E21" s="8"/>
       <c r="F21" t="str">
-        <f>_xlfn.CONCAT(A21,"-",B21)</f>
+        <f t="shared" si="0"/>
         <v>15-7</v>
       </c>
       <c r="G21" t="str">
@@ -2148,7 +2148,7 @@
         <v>8-39</v>
       </c>
       <c r="H21" t="str">
-        <f>_xlfn.CONCAT(F21,"_",G21)</f>
+        <f t="shared" si="1"/>
         <v>15-7_8-39</v>
       </c>
       <c r="I21" t="s">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" t="str">
-        <f>_xlfn.CONCAT(A22,"-",B22)</f>
+        <f t="shared" si="0"/>
         <v>15-9</v>
       </c>
       <c r="G22" t="str">
@@ -2179,7 +2179,7 @@
         <v>8-40</v>
       </c>
       <c r="H22" t="str">
-        <f>_xlfn.CONCAT(F22,"_",G22)</f>
+        <f t="shared" si="1"/>
         <v>15-9_8-40</v>
       </c>
       <c r="I22" t="s">
@@ -2202,15 +2202,15 @@
       <c r="D23" s="1"/>
       <c r="E23" s="8"/>
       <c r="F23" t="str">
-        <f>_xlfn.CONCAT(A23,"-",B23)</f>
+        <f t="shared" si="0"/>
         <v>30-1</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" ref="G23:G34" si="1">_xlfn.CONCAT("9-",C23)</f>
+        <f t="shared" ref="G23:G34" si="3">_xlfn.CONCAT("9-",C23)</f>
         <v>9-73</v>
       </c>
       <c r="H23" t="str">
-        <f>_xlfn.CONCAT(F23,"_",G23)</f>
+        <f t="shared" si="1"/>
         <v>30-1_9-73</v>
       </c>
       <c r="I23" t="s">
@@ -2233,15 +2233,15 @@
       <c r="D24" s="2"/>
       <c r="E24" s="8"/>
       <c r="F24" t="str">
-        <f>_xlfn.CONCAT(A24,"-",B24)</f>
+        <f t="shared" si="0"/>
         <v>30-2</v>
       </c>
       <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>9-74</v>
+      </c>
+      <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>9-74</v>
-      </c>
-      <c r="H24" t="str">
-        <f>_xlfn.CONCAT(F24,"_",G24)</f>
         <v>30-2_9-74</v>
       </c>
       <c r="I24" t="s">
@@ -2264,15 +2264,15 @@
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
       <c r="F25" t="str">
-        <f>_xlfn.CONCAT(A25,"-",B25)</f>
+        <f t="shared" si="0"/>
         <v>30-3</v>
       </c>
       <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>9-63</v>
+      </c>
+      <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>9-63</v>
-      </c>
-      <c r="H25" t="str">
-        <f>_xlfn.CONCAT(F25,"_",G25)</f>
         <v>30-3_9-63</v>
       </c>
       <c r="I25" t="s">
@@ -2295,15 +2295,15 @@
       <c r="D26" s="2"/>
       <c r="E26" s="8"/>
       <c r="F26" t="str">
-        <f>_xlfn.CONCAT(A26,"-",B26)</f>
+        <f t="shared" si="0"/>
         <v>30-5</v>
       </c>
       <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>9-64</v>
+      </c>
+      <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>9-64</v>
-      </c>
-      <c r="H26" t="str">
-        <f>_xlfn.CONCAT(F26,"_",G26)</f>
         <v>30-5_9-64</v>
       </c>
       <c r="I26" t="s">
@@ -2326,15 +2326,15 @@
       <c r="D27" s="2"/>
       <c r="E27" s="8"/>
       <c r="F27" t="str">
-        <f>_xlfn.CONCAT(A27,"-",B27)</f>
+        <f t="shared" si="0"/>
         <v>30-7</v>
       </c>
       <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>9-65</v>
+      </c>
+      <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>9-65</v>
-      </c>
-      <c r="H27" t="str">
-        <f>_xlfn.CONCAT(F27,"_",G27)</f>
         <v>30-7_9-65</v>
       </c>
       <c r="I27" t="s">
@@ -2357,15 +2357,15 @@
       <c r="D28" s="2"/>
       <c r="E28" s="8"/>
       <c r="F28" t="str">
-        <f>_xlfn.CONCAT(A28,"-",B28)</f>
+        <f t="shared" si="0"/>
         <v>30-9</v>
       </c>
       <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>9-66</v>
+      </c>
+      <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>9-66</v>
-      </c>
-      <c r="H28" t="str">
-        <f>_xlfn.CONCAT(F28,"_",G28)</f>
         <v>30-9_9-66</v>
       </c>
       <c r="I28" t="s">
@@ -2388,15 +2388,15 @@
       <c r="D29" s="2"/>
       <c r="E29" s="8"/>
       <c r="F29" t="str">
-        <f>_xlfn.CONCAT(A29,"-",B29)</f>
+        <f t="shared" si="0"/>
         <v>50-1</v>
       </c>
       <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>9-75</v>
+      </c>
+      <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>9-75</v>
-      </c>
-      <c r="H29" t="str">
-        <f>_xlfn.CONCAT(F29,"_",G29)</f>
         <v>50-1_9-75</v>
       </c>
       <c r="I29" t="s">
@@ -2419,15 +2419,15 @@
       <c r="D30" s="2"/>
       <c r="E30" s="8"/>
       <c r="F30" t="str">
-        <f>_xlfn.CONCAT(A30,"-",B30)</f>
+        <f t="shared" si="0"/>
         <v>50-2</v>
       </c>
       <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>9-76</v>
+      </c>
+      <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>9-76</v>
-      </c>
-      <c r="H30" t="str">
-        <f>_xlfn.CONCAT(F30,"_",G30)</f>
         <v>50-2_9-76</v>
       </c>
       <c r="I30" t="s">
@@ -2450,15 +2450,15 @@
       <c r="D31" s="2"/>
       <c r="E31" s="8"/>
       <c r="F31" t="str">
-        <f>_xlfn.CONCAT(A31,"-",B31)</f>
+        <f t="shared" si="0"/>
         <v>50-3</v>
       </c>
       <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>9-67</v>
+      </c>
+      <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>9-67</v>
-      </c>
-      <c r="H31" t="str">
-        <f>_xlfn.CONCAT(F31,"_",G31)</f>
         <v>50-3_9-67</v>
       </c>
       <c r="I31" t="s">
@@ -2481,15 +2481,15 @@
       <c r="D32" s="2"/>
       <c r="E32" s="8"/>
       <c r="F32" t="str">
-        <f>_xlfn.CONCAT(A32,"-",B32)</f>
+        <f t="shared" si="0"/>
         <v>50-5</v>
       </c>
       <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>9-68</v>
+      </c>
+      <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>9-68</v>
-      </c>
-      <c r="H32" t="str">
-        <f>_xlfn.CONCAT(F32,"_",G32)</f>
         <v>50-5_9-68</v>
       </c>
       <c r="I32" t="s">
@@ -2512,15 +2512,15 @@
       <c r="D33" s="2"/>
       <c r="E33" s="8"/>
       <c r="F33" t="str">
-        <f>_xlfn.CONCAT(A33,"-",B33)</f>
+        <f t="shared" si="0"/>
         <v>50-7</v>
       </c>
       <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>9-69</v>
+      </c>
+      <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>9-69</v>
-      </c>
-      <c r="H33" t="str">
-        <f>_xlfn.CONCAT(F33,"_",G33)</f>
         <v>50-7_9-69</v>
       </c>
       <c r="I33" t="s">
@@ -2543,15 +2543,15 @@
       <c r="D34" s="2"/>
       <c r="E34" s="8"/>
       <c r="F34" t="str">
-        <f>_xlfn.CONCAT(A34,"-",B34)</f>
+        <f t="shared" si="0"/>
         <v>50-9</v>
       </c>
       <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>9-70</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>9-70</v>
-      </c>
-      <c r="H34" t="str">
-        <f>_xlfn.CONCAT(F34,"_",G34)</f>
         <v>50-9_9-70</v>
       </c>
       <c r="I34" t="s">
@@ -2562,17 +2562,17 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="42">
+      <c r="B35" s="36">
         <v>3</v>
       </c>
       <c r="E35">
         <v>81</v>
       </c>
       <c r="F35" t="str">
-        <f>_xlfn.CONCAT(A35,"-",B35)</f>
+        <f t="shared" si="0"/>
         <v>n15-3</v>
       </c>
       <c r="G35" t="str">
@@ -2580,7 +2580,7 @@
         <v>31-81</v>
       </c>
       <c r="H35" t="str">
-        <f>_xlfn.CONCAT(F35,"_",G35)</f>
+        <f t="shared" si="1"/>
         <v>n15-3_31-81</v>
       </c>
       <c r="I35" t="s">
@@ -2591,17 +2591,17 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="36">
         <v>5</v>
       </c>
       <c r="E36">
         <v>82</v>
       </c>
       <c r="F36" t="str">
-        <f>_xlfn.CONCAT(A36,"-",B36)</f>
+        <f t="shared" si="0"/>
         <v>n15-5</v>
       </c>
       <c r="G36" t="str">
@@ -2609,7 +2609,7 @@
         <v>31-82</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" ref="H36:H40" si="2">_xlfn.CONCAT(F36,"_",G36)</f>
+        <f t="shared" ref="H36:H40" si="4">_xlfn.CONCAT(F36,"_",G36)</f>
         <v>n15-5_31-82</v>
       </c>
       <c r="I36" t="s">
@@ -2620,25 +2620,25 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="36">
         <v>3</v>
       </c>
       <c r="E37">
         <v>83</v>
       </c>
       <c r="F37" t="str">
-        <f>_xlfn.CONCAT(A37,"-",B37)</f>
+        <f t="shared" si="0"/>
         <v>n10-3</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" ref="G37:G40" si="3">_xlfn.CONCAT("31-",E37)</f>
+        <f t="shared" ref="G37:G40" si="5">_xlfn.CONCAT("31-",E37)</f>
         <v>31-83</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>n10-3_31-83</v>
       </c>
       <c r="I37" t="s">
@@ -2649,25 +2649,25 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="36">
         <v>5</v>
       </c>
       <c r="E38">
         <v>84</v>
       </c>
       <c r="F38" t="str">
-        <f>_xlfn.CONCAT(A38,"-",B38)</f>
+        <f t="shared" si="0"/>
         <v>n10-5</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31-84</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>n10-5_31-84</v>
       </c>
       <c r="I38" t="s">
@@ -2678,25 +2678,25 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="36">
         <v>3</v>
       </c>
       <c r="E39">
         <v>85</v>
       </c>
       <c r="F39" t="str">
-        <f>_xlfn.CONCAT(A39,"-",B39)</f>
+        <f t="shared" si="0"/>
         <v>n8-3</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31-85</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>n8-3_31-85</v>
       </c>
       <c r="I39" t="s">
@@ -2707,25 +2707,25 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="42">
+      <c r="B40" s="36">
         <v>5</v>
       </c>
       <c r="E40">
         <v>86</v>
       </c>
       <c r="F40" t="str">
-        <f>_xlfn.CONCAT(A40,"-",B40)</f>
+        <f t="shared" si="0"/>
         <v>n8-5</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31-86</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>n8-5_31-86</v>
       </c>
       <c r="I40" t="s">
@@ -2758,7 +2758,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28">
+      <c r="A1" s="37">
         <v>62</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2779,7 +2779,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="29"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2795,7 +2795,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -2811,7 +2811,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -2829,7 +2829,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2847,7 +2847,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="29"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
@@ -2865,7 +2865,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28">
+      <c r="A8" s="37">
         <v>58</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2899,7 +2899,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="29"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
@@ -2915,7 +2915,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="29"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
@@ -2928,7 +2928,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="29"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +2941,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="29"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
@@ -2954,7 +2954,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="29"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
@@ -2967,7 +2967,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="29"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="29"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="29"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -3021,7 +3021,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="28">
+      <c r="A17" s="37">
         <v>59</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -3039,7 +3039,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="29"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="10" t="s">
         <v>1</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="29"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="10" t="s">
         <v>1</v>
       </c>
@@ -3071,7 +3071,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="29"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
@@ -3087,7 +3087,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="29"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="10" t="s">
         <v>1</v>
       </c>
@@ -3103,7 +3103,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="29"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
@@ -3119,7 +3119,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="30"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
@@ -3137,7 +3137,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="28">
+      <c r="A24" s="37">
         <v>60</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -3155,7 +3155,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="29"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="10" t="s">
         <v>1</v>
       </c>
@@ -3171,7 +3171,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="29"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="10" t="s">
         <v>1</v>
       </c>
@@ -3187,7 +3187,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="29"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="29"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
@@ -3221,7 +3221,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="30"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="9" t="s">
         <v>2</v>
       </c>
@@ -3239,7 +3239,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="28">
+      <c r="A30" s="37">
         <v>61</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -3257,7 +3257,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="29"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="10" t="s">
         <v>1</v>
       </c>
@@ -3273,7 +3273,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="29"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="10" t="s">
         <v>1</v>
       </c>
@@ -3289,7 +3289,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="29"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="10" t="s">
         <v>1</v>
       </c>
@@ -3305,7 +3305,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="29"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="10" t="s">
         <v>1</v>
       </c>
@@ -3321,7 +3321,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="29"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="10" t="s">
         <v>1</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="29"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
@@ -3353,7 +3353,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="30"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="10" t="s">
         <v>1</v>
       </c>
@@ -3369,7 +3369,7 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="28">
+      <c r="A38" s="37">
         <v>33</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -3387,7 +3387,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="29"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="10" t="s">
         <v>1</v>
       </c>
@@ -3403,7 +3403,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="29"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="10" t="s">
         <v>1</v>
       </c>
@@ -3419,7 +3419,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="29"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="10" t="s">
         <v>1</v>
       </c>
@@ -3435,7 +3435,7 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="29"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="10" t="s">
         <v>1</v>
       </c>
@@ -3451,7 +3451,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="29"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="10" t="s">
         <v>1</v>
       </c>
@@ -3467,7 +3467,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="29"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="10" t="s">
         <v>1</v>
       </c>
@@ -3483,7 +3483,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="29"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="10" t="s">
         <v>1</v>
       </c>
@@ -3499,7 +3499,7 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="29"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="10" t="s">
         <v>1</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="29"/>
+      <c r="A47" s="38"/>
       <c r="B47" s="10" t="s">
         <v>1</v>
       </c>
@@ -3531,7 +3531,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="29"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="10" t="s">
         <v>1</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="29"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="10" t="s">
         <v>1</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="29"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="10" t="s">
         <v>1</v>
       </c>
@@ -3579,7 +3579,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="29"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="10" t="s">
         <v>1</v>
       </c>
@@ -3595,7 +3595,7 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="29"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="10" t="s">
         <v>1</v>
       </c>
@@ -3611,7 +3611,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="29"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>2</v>
       </c>
@@ -3623,7 +3623,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="29"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="9" t="s">
         <v>2</v>
       </c>
@@ -3641,7 +3641,7 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="30"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="9" t="s">
         <v>2</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="28">
+      <c r="A56" s="37">
         <v>31</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -3673,7 +3673,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="29"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="10" t="s">
         <v>1</v>
       </c>
@@ -3689,7 +3689,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="29"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="10" t="s">
         <v>1</v>
       </c>
@@ -3705,7 +3705,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="29"/>
+      <c r="A59" s="38"/>
       <c r="B59" s="10" t="s">
         <v>1</v>
       </c>
@@ -3721,7 +3721,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="29"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="10" t="s">
         <v>1</v>
       </c>
@@ -3737,7 +3737,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="29"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="10" t="s">
         <v>1</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="29"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="10" t="s">
         <v>1</v>
       </c>
@@ -3769,7 +3769,7 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="29"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="10" t="s">
         <v>1</v>
       </c>
@@ -3785,7 +3785,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="29"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="10" t="s">
         <v>1</v>
       </c>
@@ -3801,7 +3801,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="29"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="10" t="s">
         <v>1</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="29"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="10" t="s">
         <v>1</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="29"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="10" t="s">
         <v>1</v>
       </c>
@@ -3846,7 +3846,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="29"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="10" t="s">
         <v>1</v>
       </c>
@@ -3862,7 +3862,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="29"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="10" t="s">
         <v>1</v>
       </c>
@@ -3878,7 +3878,7 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="30"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="10" t="s">
         <v>1</v>
       </c>
@@ -3894,7 +3894,7 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="28">
+      <c r="A71" s="37">
         <v>54</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -3912,7 +3912,7 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="29"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="10" t="s">
         <v>1</v>
       </c>
@@ -3928,7 +3928,7 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="29"/>
+      <c r="A73" s="38"/>
       <c r="B73" s="10" t="s">
         <v>1</v>
       </c>
@@ -3944,7 +3944,7 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="29"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="10" t="s">
         <v>1</v>
       </c>
@@ -3960,7 +3960,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="29"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="10" t="s">
         <v>1</v>
       </c>
@@ -3976,7 +3976,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="29"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="10" t="s">
         <v>1</v>
       </c>
@@ -3992,7 +3992,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="29"/>
+      <c r="A77" s="38"/>
       <c r="B77" s="10" t="s">
         <v>1</v>
       </c>
@@ -4008,7 +4008,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="29"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="10" t="s">
         <v>1</v>
       </c>
@@ -4024,7 +4024,7 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="29"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="9" t="s">
         <v>2</v>
       </c>
@@ -4042,7 +4042,7 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="30"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="9" t="s">
         <v>2</v>
       </c>
@@ -4060,7 +4060,7 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="28">
+      <c r="A81" s="37">
         <v>55</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -4078,7 +4078,7 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="29"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="10" t="s">
         <v>1</v>
       </c>
@@ -4094,7 +4094,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="29"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="10" t="s">
         <v>1</v>
       </c>
@@ -4110,7 +4110,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="29"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="10" t="s">
         <v>1</v>
       </c>
@@ -4126,7 +4126,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="29"/>
+      <c r="A85" s="38"/>
       <c r="B85" s="10" t="s">
         <v>1</v>
       </c>
@@ -4142,7 +4142,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="29"/>
+      <c r="A86" s="38"/>
       <c r="B86" s="10" t="s">
         <v>1</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="29"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="9" t="s">
         <v>2</v>
       </c>
@@ -4176,7 +4176,7 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="30"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="9" t="s">
         <v>2</v>
       </c>
@@ -4194,7 +4194,7 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="28">
+      <c r="A89" s="37">
         <v>56</v>
       </c>
       <c r="B89" s="10" t="s">
@@ -4212,7 +4212,7 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="29"/>
+      <c r="A90" s="38"/>
       <c r="B90" s="10" t="s">
         <v>1</v>
       </c>
@@ -4228,7 +4228,7 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="29"/>
+      <c r="A91" s="38"/>
       <c r="B91" s="10" t="s">
         <v>1</v>
       </c>
@@ -4244,7 +4244,7 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="29"/>
+      <c r="A92" s="38"/>
       <c r="B92" s="10" t="s">
         <v>1</v>
       </c>
@@ -4260,7 +4260,7 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="29"/>
+      <c r="A93" s="38"/>
       <c r="B93" s="10" t="s">
         <v>1</v>
       </c>
@@ -4276,7 +4276,7 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="29"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="10" t="s">
         <v>1</v>
       </c>
@@ -4292,7 +4292,7 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="29"/>
+      <c r="A95" s="38"/>
       <c r="B95" s="10" t="s">
         <v>1</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="29"/>
+      <c r="A96" s="38"/>
       <c r="B96" s="9" t="s">
         <v>2</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="29"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="9" t="s">
         <v>2</v>
       </c>
@@ -4344,7 +4344,7 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="29"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="9" t="s">
         <v>2</v>
       </c>
@@ -4362,7 +4362,7 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="29"/>
+      <c r="A99" s="38"/>
       <c r="B99" s="9" t="s">
         <v>2</v>
       </c>
@@ -4380,7 +4380,7 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="30"/>
+      <c r="A100" s="39"/>
       <c r="B100" s="9" t="s">
         <v>2</v>
       </c>
@@ -4398,7 +4398,7 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="28">
+      <c r="A101" s="37">
         <v>57</v>
       </c>
       <c r="B101" s="10" t="s">
@@ -4416,7 +4416,7 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="29"/>
+      <c r="A102" s="38"/>
       <c r="B102" s="10" t="s">
         <v>1</v>
       </c>
@@ -4432,7 +4432,7 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="29"/>
+      <c r="A103" s="38"/>
       <c r="B103" s="10" t="s">
         <v>1</v>
       </c>
@@ -4448,7 +4448,7 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="29"/>
+      <c r="A104" s="38"/>
       <c r="B104" s="10" t="s">
         <v>1</v>
       </c>
@@ -4464,7 +4464,7 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="29"/>
+      <c r="A105" s="38"/>
       <c r="B105" s="10" t="s">
         <v>1</v>
       </c>
@@ -4480,7 +4480,7 @@
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="29"/>
+      <c r="A106" s="38"/>
       <c r="B106" s="10" t="s">
         <v>1</v>
       </c>
@@ -4496,7 +4496,7 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="29"/>
+      <c r="A107" s="38"/>
       <c r="B107" s="10" t="s">
         <v>1</v>
       </c>
@@ -4512,7 +4512,7 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="29"/>
+      <c r="A108" s="38"/>
       <c r="B108" s="10" t="s">
         <v>1</v>
       </c>
@@ -4528,7 +4528,7 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="29"/>
+      <c r="A109" s="38"/>
       <c r="B109" s="10" t="s">
         <v>1</v>
       </c>
@@ -4544,7 +4544,7 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="29"/>
+      <c r="A110" s="38"/>
       <c r="B110" s="10" t="s">
         <v>1</v>
       </c>
@@ -4560,7 +4560,7 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="29"/>
+      <c r="A111" s="38"/>
       <c r="B111" s="10" t="s">
         <v>1</v>
       </c>
@@ -4576,7 +4576,7 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="30"/>
+      <c r="A112" s="39"/>
       <c r="B112" s="11" t="s">
         <v>2</v>
       </c>
@@ -4594,7 +4594,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="28">
+      <c r="A113" s="37">
         <v>37</v>
       </c>
       <c r="B113" s="10" t="s">
@@ -4612,7 +4612,7 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="29"/>
+      <c r="A114" s="38"/>
       <c r="B114" s="10" t="s">
         <v>1</v>
       </c>
@@ -4628,7 +4628,7 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="29"/>
+      <c r="A115" s="38"/>
       <c r="B115" s="10" t="s">
         <v>1</v>
       </c>
@@ -4644,7 +4644,7 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="29"/>
+      <c r="A116" s="38"/>
       <c r="B116" s="10" t="s">
         <v>1</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="29"/>
+      <c r="A117" s="38"/>
       <c r="B117" s="10" t="s">
         <v>1</v>
       </c>
@@ -4676,7 +4676,7 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="29"/>
+      <c r="A118" s="38"/>
       <c r="B118" s="10" t="s">
         <v>1</v>
       </c>
@@ -4692,7 +4692,7 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="29"/>
+      <c r="A119" s="38"/>
       <c r="B119" s="10" t="s">
         <v>1</v>
       </c>
@@ -4708,7 +4708,7 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="29"/>
+      <c r="A120" s="38"/>
       <c r="B120" s="10" t="s">
         <v>1</v>
       </c>
@@ -4724,7 +4724,7 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="29"/>
+      <c r="A121" s="38"/>
       <c r="B121" s="10" t="s">
         <v>1</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="29"/>
+      <c r="A122" s="38"/>
       <c r="B122" s="10" t="s">
         <v>1</v>
       </c>
@@ -4756,7 +4756,7 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="29"/>
+      <c r="A123" s="38"/>
       <c r="B123" s="10" t="s">
         <v>1</v>
       </c>
@@ -4772,7 +4772,7 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="29"/>
+      <c r="A124" s="38"/>
       <c r="B124" s="10" t="s">
         <v>1</v>
       </c>
@@ -4788,7 +4788,7 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="29"/>
+      <c r="A125" s="38"/>
       <c r="B125" s="9" t="s">
         <v>2</v>
       </c>
@@ -4806,7 +4806,7 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="30"/>
+      <c r="A126" s="39"/>
       <c r="B126" s="9" t="s">
         <v>2</v>
       </c>
@@ -4824,7 +4824,7 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="28">
+      <c r="A127" s="37">
         <v>38</v>
       </c>
       <c r="B127" s="10" t="s">
@@ -4842,7 +4842,7 @@
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="29"/>
+      <c r="A128" s="38"/>
       <c r="B128" s="10" t="s">
         <v>1</v>
       </c>
@@ -4858,7 +4858,7 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="29"/>
+      <c r="A129" s="38"/>
       <c r="B129" s="10" t="s">
         <v>1</v>
       </c>
@@ -4874,7 +4874,7 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="29"/>
+      <c r="A130" s="38"/>
       <c r="B130" s="10" t="s">
         <v>1</v>
       </c>
@@ -4890,7 +4890,7 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="29"/>
+      <c r="A131" s="38"/>
       <c r="B131" s="10" t="s">
         <v>1</v>
       </c>
@@ -4906,7 +4906,7 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="29"/>
+      <c r="A132" s="38"/>
       <c r="B132" s="10" t="s">
         <v>1</v>
       </c>
@@ -4922,7 +4922,7 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="29"/>
+      <c r="A133" s="38"/>
       <c r="B133" s="10" t="s">
         <v>1</v>
       </c>
@@ -4938,7 +4938,7 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="29"/>
+      <c r="A134" s="38"/>
       <c r="B134" s="10" t="s">
         <v>1</v>
       </c>
@@ -4954,7 +4954,7 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="29"/>
+      <c r="A135" s="38"/>
       <c r="B135" s="10" t="s">
         <v>1</v>
       </c>
@@ -4970,7 +4970,7 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="29"/>
+      <c r="A136" s="38"/>
       <c r="B136" s="9" t="s">
         <v>2</v>
       </c>
@@ -4988,7 +4988,7 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="30"/>
+      <c r="A137" s="39"/>
       <c r="B137" s="9" t="s">
         <v>2</v>
       </c>
@@ -5006,7 +5006,7 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="28">
+      <c r="A138" s="37">
         <v>53</v>
       </c>
       <c r="B138" s="10" t="s">
@@ -5024,7 +5024,7 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="29"/>
+      <c r="A139" s="38"/>
       <c r="B139" s="10" t="s">
         <v>1</v>
       </c>
@@ -5040,7 +5040,7 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="29"/>
+      <c r="A140" s="38"/>
       <c r="B140" s="10" t="s">
         <v>1</v>
       </c>
@@ -5056,7 +5056,7 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="29"/>
+      <c r="A141" s="38"/>
       <c r="B141" s="10" t="s">
         <v>1</v>
       </c>
@@ -5072,7 +5072,7 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="29"/>
+      <c r="A142" s="38"/>
       <c r="B142" s="10" t="s">
         <v>1</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="29"/>
+      <c r="A143" s="38"/>
       <c r="B143" s="10" t="s">
         <v>1</v>
       </c>
@@ -5104,7 +5104,7 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="29"/>
+      <c r="A144" s="38"/>
       <c r="B144" s="10" t="s">
         <v>1</v>
       </c>
@@ -5120,7 +5120,7 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="29"/>
+      <c r="A145" s="38"/>
       <c r="B145" s="9" t="s">
         <v>2</v>
       </c>
@@ -5136,7 +5136,7 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="29"/>
+      <c r="A146" s="38"/>
       <c r="B146" s="9" t="s">
         <v>2</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="29"/>
+      <c r="A147" s="38"/>
       <c r="B147" s="9" t="s">
         <v>2</v>
       </c>
@@ -5170,7 +5170,7 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="29"/>
+      <c r="A148" s="38"/>
       <c r="B148" s="9" t="s">
         <v>2</v>
       </c>
@@ -5188,7 +5188,7 @@
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="29"/>
+      <c r="A149" s="38"/>
       <c r="B149" s="9" t="s">
         <v>2</v>
       </c>
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="29"/>
+      <c r="A150" s="38"/>
       <c r="B150" s="9" t="s">
         <v>2</v>
       </c>
@@ -5224,7 +5224,7 @@
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="29"/>
+      <c r="A151" s="38"/>
       <c r="B151" s="9" t="s">
         <v>2</v>
       </c>
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="29"/>
+      <c r="A152" s="38"/>
       <c r="B152" s="9" t="s">
         <v>2</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="29"/>
+      <c r="A153" s="38"/>
       <c r="B153" s="9" t="s">
         <v>2</v>
       </c>
@@ -5278,7 +5278,7 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="29"/>
+      <c r="A154" s="38"/>
       <c r="B154" s="9" t="s">
         <v>2</v>
       </c>
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="29"/>
+      <c r="A155" s="38"/>
       <c r="B155" s="9" t="s">
         <v>2</v>
       </c>
@@ -5302,7 +5302,7 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="29"/>
+      <c r="A156" s="38"/>
       <c r="B156" s="9" t="s">
         <v>2</v>
       </c>
@@ -5320,7 +5320,7 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="30"/>
+      <c r="A157" s="39"/>
       <c r="B157" s="9" t="s">
         <v>2</v>
       </c>
@@ -5338,7 +5338,7 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="28">
+      <c r="A158" s="37">
         <v>52</v>
       </c>
       <c r="B158" s="10" t="s">
@@ -5356,7 +5356,7 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="29"/>
+      <c r="A159" s="38"/>
       <c r="B159" s="10" t="s">
         <v>1</v>
       </c>
@@ -5372,7 +5372,7 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="29"/>
+      <c r="A160" s="38"/>
       <c r="B160" s="10" t="s">
         <v>1</v>
       </c>
@@ -5388,7 +5388,7 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="29"/>
+      <c r="A161" s="38"/>
       <c r="B161" s="10" t="s">
         <v>1</v>
       </c>
@@ -5404,7 +5404,7 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="29"/>
+      <c r="A162" s="38"/>
       <c r="B162" s="10" t="s">
         <v>1</v>
       </c>
@@ -5420,7 +5420,7 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="29"/>
+      <c r="A163" s="38"/>
       <c r="B163" s="10" t="s">
         <v>1</v>
       </c>
@@ -5436,7 +5436,7 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="29"/>
+      <c r="A164" s="38"/>
       <c r="B164" s="10" t="s">
         <v>1</v>
       </c>
@@ -5452,7 +5452,7 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="29"/>
+      <c r="A165" s="38"/>
       <c r="B165" s="9" t="s">
         <v>2</v>
       </c>
@@ -5470,7 +5470,7 @@
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="29"/>
+      <c r="A166" s="38"/>
       <c r="B166" s="9" t="s">
         <v>2</v>
       </c>
@@ -5488,7 +5488,7 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="29"/>
+      <c r="A167" s="38"/>
       <c r="B167" s="9" t="s">
         <v>2</v>
       </c>
@@ -5506,7 +5506,7 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="29"/>
+      <c r="A168" s="38"/>
       <c r="B168" s="9" t="s">
         <v>2</v>
       </c>
@@ -5524,7 +5524,7 @@
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="29"/>
+      <c r="A169" s="38"/>
       <c r="B169" s="9" t="s">
         <v>2</v>
       </c>
@@ -5542,7 +5542,7 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="29"/>
+      <c r="A170" s="38"/>
       <c r="B170" s="9" t="s">
         <v>2</v>
       </c>
@@ -5560,7 +5560,7 @@
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="30"/>
+      <c r="A171" s="39"/>
       <c r="B171" s="9" t="s">
         <v>2</v>
       </c>
@@ -5578,7 +5578,7 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="28">
+      <c r="A172" s="37">
         <v>51</v>
       </c>
       <c r="B172" s="10" t="s">
@@ -5596,7 +5596,7 @@
       </c>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="29"/>
+      <c r="A173" s="38"/>
       <c r="B173" s="10" t="s">
         <v>1</v>
       </c>
@@ -5612,7 +5612,7 @@
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="29"/>
+      <c r="A174" s="38"/>
       <c r="B174" s="10" t="s">
         <v>1</v>
       </c>
@@ -5628,7 +5628,7 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="29"/>
+      <c r="A175" s="38"/>
       <c r="B175" s="10" t="s">
         <v>1</v>
       </c>
@@ -5644,7 +5644,7 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="29"/>
+      <c r="A176" s="38"/>
       <c r="B176" s="10" t="s">
         <v>1</v>
       </c>
@@ -5660,7 +5660,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="29"/>
+      <c r="A177" s="38"/>
       <c r="B177" s="10" t="s">
         <v>1</v>
       </c>
@@ -5676,7 +5676,7 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="29"/>
+      <c r="A178" s="38"/>
       <c r="B178" s="10" t="s">
         <v>1</v>
       </c>
@@ -5692,7 +5692,7 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="29"/>
+      <c r="A179" s="38"/>
       <c r="B179" s="10" t="s">
         <v>1</v>
       </c>
@@ -5708,7 +5708,7 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="29"/>
+      <c r="A180" s="38"/>
       <c r="B180" s="9" t="s">
         <v>2</v>
       </c>
@@ -5724,7 +5724,7 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="29"/>
+      <c r="A181" s="38"/>
       <c r="B181" s="9" t="s">
         <v>2</v>
       </c>
@@ -5740,7 +5740,7 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="29"/>
+      <c r="A182" s="38"/>
       <c r="B182" s="9" t="s">
         <v>2</v>
       </c>
@@ -5758,7 +5758,7 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="29"/>
+      <c r="A183" s="38"/>
       <c r="B183" s="9" t="s">
         <v>2</v>
       </c>
@@ -5776,7 +5776,7 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="29"/>
+      <c r="A184" s="38"/>
       <c r="B184" s="9" t="s">
         <v>2</v>
       </c>
@@ -5794,7 +5794,7 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="29"/>
+      <c r="A185" s="38"/>
       <c r="B185" s="9" t="s">
         <v>2</v>
       </c>
@@ -5812,7 +5812,7 @@
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="29"/>
+      <c r="A186" s="38"/>
       <c r="B186" s="9" t="s">
         <v>2</v>
       </c>
@@ -5830,7 +5830,7 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="30"/>
+      <c r="A187" s="39"/>
       <c r="B187" s="9" t="s">
         <v>2</v>
       </c>
@@ -5848,7 +5848,7 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="28">
+      <c r="A188" s="37">
         <v>49</v>
       </c>
       <c r="B188" s="10" t="s">
@@ -5866,7 +5866,7 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="29"/>
+      <c r="A189" s="38"/>
       <c r="B189" s="10" t="s">
         <v>1</v>
       </c>
@@ -5882,7 +5882,7 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="29"/>
+      <c r="A190" s="38"/>
       <c r="B190" s="10" t="s">
         <v>1</v>
       </c>
@@ -5898,7 +5898,7 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="29"/>
+      <c r="A191" s="38"/>
       <c r="B191" s="10" t="s">
         <v>1</v>
       </c>
@@ -5914,7 +5914,7 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="29"/>
+      <c r="A192" s="38"/>
       <c r="B192" s="10" t="s">
         <v>1</v>
       </c>
@@ -5930,7 +5930,7 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="29"/>
+      <c r="A193" s="38"/>
       <c r="B193" s="10" t="s">
         <v>1</v>
       </c>
@@ -5946,7 +5946,7 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="29"/>
+      <c r="A194" s="38"/>
       <c r="B194" s="10" t="s">
         <v>1</v>
       </c>
@@ -5962,7 +5962,7 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="29"/>
+      <c r="A195" s="38"/>
       <c r="B195" s="10" t="s">
         <v>1</v>
       </c>
@@ -5978,7 +5978,7 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="29"/>
+      <c r="A196" s="38"/>
       <c r="B196" s="10" t="s">
         <v>1</v>
       </c>
@@ -5994,7 +5994,7 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="29"/>
+      <c r="A197" s="38"/>
       <c r="B197" s="10" t="s">
         <v>1</v>
       </c>
@@ -6010,7 +6010,7 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="29"/>
+      <c r="A198" s="38"/>
       <c r="B198" s="10" t="s">
         <v>1</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="29"/>
+      <c r="A199" s="38"/>
       <c r="B199" s="10" t="s">
         <v>1</v>
       </c>
@@ -6042,7 +6042,7 @@
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="29"/>
+      <c r="A200" s="38"/>
       <c r="B200" s="10" t="s">
         <v>1</v>
       </c>
@@ -6058,7 +6058,7 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="29"/>
+      <c r="A201" s="38"/>
       <c r="B201" s="9" t="s">
         <v>2</v>
       </c>
@@ -6070,7 +6070,7 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="29"/>
+      <c r="A202" s="38"/>
       <c r="B202" s="9" t="s">
         <v>2</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="29"/>
+      <c r="A203" s="38"/>
       <c r="B203" s="9" t="s">
         <v>2</v>
       </c>
@@ -6094,7 +6094,7 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="29"/>
+      <c r="A204" s="38"/>
       <c r="B204" s="9" t="s">
         <v>2</v>
       </c>
@@ -6106,7 +6106,7 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="29"/>
+      <c r="A205" s="38"/>
       <c r="B205" s="9" t="s">
         <v>2</v>
       </c>
@@ -6118,7 +6118,7 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="30"/>
+      <c r="A206" s="39"/>
       <c r="B206" s="9" t="s">
         <v>2</v>
       </c>
@@ -6136,7 +6136,7 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="28">
+      <c r="A207" s="37">
         <v>50</v>
       </c>
       <c r="B207" s="10" t="s">
@@ -6154,7 +6154,7 @@
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="29"/>
+      <c r="A208" s="38"/>
       <c r="B208" s="10" t="s">
         <v>1</v>
       </c>
@@ -6170,7 +6170,7 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="29"/>
+      <c r="A209" s="38"/>
       <c r="B209" s="10" t="s">
         <v>1</v>
       </c>
@@ -6186,7 +6186,7 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="29"/>
+      <c r="A210" s="38"/>
       <c r="B210" s="10" t="s">
         <v>1</v>
       </c>
@@ -6202,7 +6202,7 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="29"/>
+      <c r="A211" s="38"/>
       <c r="B211" s="10" t="s">
         <v>1</v>
       </c>
@@ -6218,7 +6218,7 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="29"/>
+      <c r="A212" s="38"/>
       <c r="B212" s="10" t="s">
         <v>1</v>
       </c>
@@ -6234,7 +6234,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="29"/>
+      <c r="A213" s="38"/>
       <c r="B213" s="10" t="s">
         <v>1</v>
       </c>
@@ -6250,7 +6250,7 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="29"/>
+      <c r="A214" s="38"/>
       <c r="B214" s="10" t="s">
         <v>1</v>
       </c>
@@ -6266,7 +6266,7 @@
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="29"/>
+      <c r="A215" s="38"/>
       <c r="B215" s="10" t="s">
         <v>1</v>
       </c>
@@ -6282,7 +6282,7 @@
       </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="29"/>
+      <c r="A216" s="38"/>
       <c r="B216" s="10" t="s">
         <v>1</v>
       </c>
@@ -6298,7 +6298,7 @@
       </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="29"/>
+      <c r="A217" s="38"/>
       <c r="B217" s="10" t="s">
         <v>1</v>
       </c>
@@ -6314,7 +6314,7 @@
       </c>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="29"/>
+      <c r="A218" s="38"/>
       <c r="B218" s="10" t="s">
         <v>1</v>
       </c>
@@ -6330,7 +6330,7 @@
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="29"/>
+      <c r="A219" s="38"/>
       <c r="B219" s="10" t="s">
         <v>1</v>
       </c>
@@ -6346,7 +6346,7 @@
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="29"/>
+      <c r="A220" s="38"/>
       <c r="B220" s="10" t="s">
         <v>1</v>
       </c>
@@ -6362,7 +6362,7 @@
       </c>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="29"/>
+      <c r="A221" s="38"/>
       <c r="B221" s="10" t="s">
         <v>1</v>
       </c>
@@ -6378,7 +6378,7 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="29"/>
+      <c r="A222" s="38"/>
       <c r="B222" s="10" t="s">
         <v>1</v>
       </c>
@@ -6394,7 +6394,7 @@
       </c>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="29"/>
+      <c r="A223" s="38"/>
       <c r="B223" s="10" t="s">
         <v>1</v>
       </c>
@@ -6410,7 +6410,7 @@
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="29"/>
+      <c r="A224" s="38"/>
       <c r="B224" s="10" t="s">
         <v>1</v>
       </c>
@@ -6426,7 +6426,7 @@
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="29"/>
+      <c r="A225" s="38"/>
       <c r="B225" s="9" t="s">
         <v>2</v>
       </c>
@@ -6442,7 +6442,7 @@
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="29"/>
+      <c r="A226" s="38"/>
       <c r="B226" s="9" t="s">
         <v>2</v>
       </c>
@@ -6458,7 +6458,7 @@
       </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="29"/>
+      <c r="A227" s="38"/>
       <c r="B227" s="9" t="s">
         <v>2</v>
       </c>
@@ -6476,7 +6476,7 @@
       </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="30"/>
+      <c r="A228" s="39"/>
       <c r="B228" s="9" t="s">
         <v>2</v>
       </c>
@@ -6494,7 +6494,7 @@
       </c>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="28">
+      <c r="A229" s="37">
         <v>39</v>
       </c>
       <c r="B229" s="10" t="s">
@@ -6512,7 +6512,7 @@
       </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="29"/>
+      <c r="A230" s="38"/>
       <c r="B230" s="10" t="s">
         <v>1</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="29"/>
+      <c r="A231" s="38"/>
       <c r="B231" s="10" t="s">
         <v>1</v>
       </c>
@@ -6544,7 +6544,7 @@
       </c>
     </row>
     <row r="232" spans="1:6">
-      <c r="A232" s="29"/>
+      <c r="A232" s="38"/>
       <c r="B232" s="10" t="s">
         <v>1</v>
       </c>
@@ -6560,7 +6560,7 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="29"/>
+      <c r="A233" s="38"/>
       <c r="B233" s="10" t="s">
         <v>1</v>
       </c>
@@ -6576,7 +6576,7 @@
       </c>
     </row>
     <row r="234" spans="1:6">
-      <c r="A234" s="29"/>
+      <c r="A234" s="38"/>
       <c r="B234" s="10" t="s">
         <v>1</v>
       </c>
@@ -6592,7 +6592,7 @@
       </c>
     </row>
     <row r="235" spans="1:6">
-      <c r="A235" s="29"/>
+      <c r="A235" s="38"/>
       <c r="B235" s="9" t="s">
         <v>2</v>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="29"/>
+      <c r="A236" s="38"/>
       <c r="B236" s="9" t="s">
         <v>2</v>
       </c>
@@ -6628,7 +6628,7 @@
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="30"/>
+      <c r="A237" s="39"/>
       <c r="B237" s="9" t="s">
         <v>2</v>
       </c>
@@ -6646,7 +6646,7 @@
       </c>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="28">
+      <c r="A238" s="37">
         <v>40</v>
       </c>
       <c r="B238" s="10" t="s">
@@ -6664,7 +6664,7 @@
       </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="29"/>
+      <c r="A239" s="38"/>
       <c r="B239" s="10" t="s">
         <v>1</v>
       </c>
@@ -6680,7 +6680,7 @@
       </c>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="29"/>
+      <c r="A240" s="38"/>
       <c r="B240" s="10" t="s">
         <v>1</v>
       </c>
@@ -6696,7 +6696,7 @@
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="29"/>
+      <c r="A241" s="38"/>
       <c r="B241" s="10" t="s">
         <v>1</v>
       </c>
@@ -6712,7 +6712,7 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="A242" s="29"/>
+      <c r="A242" s="38"/>
       <c r="B242" s="10" t="s">
         <v>1</v>
       </c>
@@ -6728,7 +6728,7 @@
       </c>
     </row>
     <row r="243" spans="1:6">
-      <c r="A243" s="29"/>
+      <c r="A243" s="38"/>
       <c r="B243" s="10" t="s">
         <v>1</v>
       </c>
@@ -6744,7 +6744,7 @@
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="29"/>
+      <c r="A244" s="38"/>
       <c r="B244" s="10" t="s">
         <v>1</v>
       </c>
@@ -6760,7 +6760,7 @@
       </c>
     </row>
     <row r="245" spans="1:6">
-      <c r="A245" s="29"/>
+      <c r="A245" s="38"/>
       <c r="B245" s="9" t="s">
         <v>2</v>
       </c>
@@ -6778,7 +6778,7 @@
       </c>
     </row>
     <row r="246" spans="1:6">
-      <c r="A246" s="29"/>
+      <c r="A246" s="38"/>
       <c r="B246" s="9" t="s">
         <v>2</v>
       </c>
@@ -6796,7 +6796,7 @@
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="29"/>
+      <c r="A247" s="38"/>
       <c r="B247" s="9" t="s">
         <v>2</v>
       </c>
@@ -6814,7 +6814,7 @@
       </c>
     </row>
     <row r="248" spans="1:6">
-      <c r="A248" s="29"/>
+      <c r="A248" s="38"/>
       <c r="B248" s="9" t="s">
         <v>2</v>
       </c>
@@ -6832,7 +6832,7 @@
       </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="29"/>
+      <c r="A249" s="38"/>
       <c r="B249" s="9" t="s">
         <v>2</v>
       </c>
@@ -6850,7 +6850,7 @@
       </c>
     </row>
     <row r="250" spans="1:6">
-      <c r="A250" s="30"/>
+      <c r="A250" s="39"/>
       <c r="B250" s="9" t="s">
         <v>2</v>
       </c>
@@ -6868,7 +6868,7 @@
       </c>
     </row>
     <row r="251" spans="1:6">
-      <c r="A251" s="28">
+      <c r="A251" s="37">
         <v>73</v>
       </c>
       <c r="B251" s="10" t="s">
@@ -6886,7 +6886,7 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="29"/>
+      <c r="A252" s="38"/>
       <c r="B252" s="10" t="s">
         <v>1</v>
       </c>
@@ -6902,7 +6902,7 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="29"/>
+      <c r="A253" s="38"/>
       <c r="B253" s="10" t="s">
         <v>1</v>
       </c>
@@ -6918,7 +6918,7 @@
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="29"/>
+      <c r="A254" s="38"/>
       <c r="B254" s="10" t="s">
         <v>1</v>
       </c>
@@ -6934,7 +6934,7 @@
       </c>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="29"/>
+      <c r="A255" s="38"/>
       <c r="B255" s="10" t="s">
         <v>1</v>
       </c>
@@ -6950,7 +6950,7 @@
       </c>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="29"/>
+      <c r="A256" s="38"/>
       <c r="B256" s="10" t="s">
         <v>1</v>
       </c>
@@ -6966,7 +6966,7 @@
       </c>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="29"/>
+      <c r="A257" s="38"/>
       <c r="B257" s="9" t="s">
         <v>2</v>
       </c>
@@ -6984,7 +6984,7 @@
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="29"/>
+      <c r="A258" s="38"/>
       <c r="B258" s="9" t="s">
         <v>2</v>
       </c>
@@ -7002,7 +7002,7 @@
       </c>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="29"/>
+      <c r="A259" s="38"/>
       <c r="B259" s="9" t="s">
         <v>2</v>
       </c>
@@ -7020,7 +7020,7 @@
       </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="29"/>
+      <c r="A260" s="38"/>
       <c r="B260" s="9" t="s">
         <v>2</v>
       </c>
@@ -7038,7 +7038,7 @@
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="29"/>
+      <c r="A261" s="38"/>
       <c r="B261" s="9" t="s">
         <v>2</v>
       </c>
@@ -7056,7 +7056,7 @@
       </c>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="30"/>
+      <c r="A262" s="39"/>
       <c r="B262" s="9" t="s">
         <v>2</v>
       </c>
@@ -7074,7 +7074,7 @@
       </c>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="28">
+      <c r="A263" s="37">
         <v>74</v>
       </c>
       <c r="B263" s="10" t="s">
@@ -7092,7 +7092,7 @@
       </c>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="29"/>
+      <c r="A264" s="38"/>
       <c r="B264" s="10" t="s">
         <v>1</v>
       </c>
@@ -7108,7 +7108,7 @@
       </c>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="29"/>
+      <c r="A265" s="38"/>
       <c r="B265" s="9" t="s">
         <v>2</v>
       </c>
@@ -7126,7 +7126,7 @@
       </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="29"/>
+      <c r="A266" s="38"/>
       <c r="B266" s="9" t="s">
         <v>2</v>
       </c>
@@ -7144,7 +7144,7 @@
       </c>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="29"/>
+      <c r="A267" s="38"/>
       <c r="B267" s="9" t="s">
         <v>2</v>
       </c>
@@ -7162,7 +7162,7 @@
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="29"/>
+      <c r="A268" s="38"/>
       <c r="B268" s="9" t="s">
         <v>2</v>
       </c>
@@ -7180,7 +7180,7 @@
       </c>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="29"/>
+      <c r="A269" s="38"/>
       <c r="B269" s="9" t="s">
         <v>2</v>
       </c>
@@ -7198,7 +7198,7 @@
       </c>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="29"/>
+      <c r="A270" s="38"/>
       <c r="B270" s="9" t="s">
         <v>2</v>
       </c>
@@ -7216,7 +7216,7 @@
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="30"/>
+      <c r="A271" s="39"/>
       <c r="B271" s="9" t="s">
         <v>2</v>
       </c>
@@ -7234,7 +7234,7 @@
       </c>
     </row>
     <row r="272" spans="1:6">
-      <c r="A272" s="28">
+      <c r="A272" s="37">
         <v>63</v>
       </c>
       <c r="B272" s="10" t="s">
@@ -7252,7 +7252,7 @@
       </c>
     </row>
     <row r="273" spans="1:6">
-      <c r="A273" s="29"/>
+      <c r="A273" s="38"/>
       <c r="B273" s="10" t="s">
         <v>1</v>
       </c>
@@ -7268,7 +7268,7 @@
       </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="29"/>
+      <c r="A274" s="38"/>
       <c r="B274" s="10" t="s">
         <v>1</v>
       </c>
@@ -7284,7 +7284,7 @@
       </c>
     </row>
     <row r="275" spans="1:6">
-      <c r="A275" s="29"/>
+      <c r="A275" s="38"/>
       <c r="B275" s="10" t="s">
         <v>1</v>
       </c>
@@ -7300,7 +7300,7 @@
       </c>
     </row>
     <row r="276" spans="1:6">
-      <c r="A276" s="29"/>
+      <c r="A276" s="38"/>
       <c r="B276" s="10" t="s">
         <v>1</v>
       </c>
@@ -7316,7 +7316,7 @@
       </c>
     </row>
     <row r="277" spans="1:6">
-      <c r="A277" s="29"/>
+      <c r="A277" s="38"/>
       <c r="B277" s="9" t="s">
         <v>2</v>
       </c>
@@ -7334,7 +7334,7 @@
       </c>
     </row>
     <row r="278" spans="1:6">
-      <c r="A278" s="29"/>
+      <c r="A278" s="38"/>
       <c r="B278" s="9" t="s">
         <v>2</v>
       </c>
@@ -7352,7 +7352,7 @@
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="A279" s="29"/>
+      <c r="A279" s="38"/>
       <c r="B279" s="9" t="s">
         <v>2</v>
       </c>
@@ -7370,7 +7370,7 @@
       </c>
     </row>
     <row r="280" spans="1:6">
-      <c r="A280" s="30"/>
+      <c r="A280" s="39"/>
       <c r="B280" s="9" t="s">
         <v>2</v>
       </c>
@@ -7388,7 +7388,7 @@
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="28">
+      <c r="A281" s="37">
         <v>64</v>
       </c>
       <c r="B281" s="10" t="s">
@@ -7406,7 +7406,7 @@
       </c>
     </row>
     <row r="282" spans="1:6">
-      <c r="A282" s="29"/>
+      <c r="A282" s="38"/>
       <c r="B282" s="10" t="s">
         <v>1</v>
       </c>
@@ -7422,7 +7422,7 @@
       </c>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="29"/>
+      <c r="A283" s="38"/>
       <c r="B283" s="10" t="s">
         <v>1</v>
       </c>
@@ -7438,7 +7438,7 @@
       </c>
     </row>
     <row r="284" spans="1:6">
-      <c r="A284" s="29"/>
+      <c r="A284" s="38"/>
       <c r="B284" s="10" t="s">
         <v>1</v>
       </c>
@@ -7454,7 +7454,7 @@
       </c>
     </row>
     <row r="285" spans="1:6">
-      <c r="A285" s="29"/>
+      <c r="A285" s="38"/>
       <c r="B285" s="10" t="s">
         <v>1</v>
       </c>
@@ -7470,7 +7470,7 @@
       </c>
     </row>
     <row r="286" spans="1:6">
-      <c r="A286" s="29"/>
+      <c r="A286" s="38"/>
       <c r="B286" s="10" t="s">
         <v>1</v>
       </c>
@@ -7486,7 +7486,7 @@
       </c>
     </row>
     <row r="287" spans="1:6">
-      <c r="A287" s="29"/>
+      <c r="A287" s="38"/>
       <c r="B287" s="10" t="s">
         <v>1</v>
       </c>
@@ -7502,7 +7502,7 @@
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="29"/>
+      <c r="A288" s="38"/>
       <c r="B288" s="10" t="s">
         <v>1</v>
       </c>
@@ -7518,7 +7518,7 @@
       </c>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="29"/>
+      <c r="A289" s="38"/>
       <c r="B289" s="9" t="s">
         <v>2</v>
       </c>
@@ -7536,7 +7536,7 @@
       </c>
     </row>
     <row r="290" spans="1:6">
-      <c r="A290" s="29"/>
+      <c r="A290" s="38"/>
       <c r="B290" s="9" t="s">
         <v>2</v>
       </c>
@@ -7554,7 +7554,7 @@
       </c>
     </row>
     <row r="291" spans="1:6">
-      <c r="A291" s="30"/>
+      <c r="A291" s="39"/>
       <c r="B291" s="9" t="s">
         <v>2</v>
       </c>
@@ -7572,7 +7572,7 @@
       </c>
     </row>
     <row r="292" spans="1:6">
-      <c r="A292" s="28">
+      <c r="A292" s="37">
         <v>65</v>
       </c>
       <c r="B292" s="10" t="s">
@@ -7590,7 +7590,7 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="29"/>
+      <c r="A293" s="38"/>
       <c r="B293" s="10" t="s">
         <v>1</v>
       </c>
@@ -7606,7 +7606,7 @@
       </c>
     </row>
     <row r="294" spans="1:6">
-      <c r="A294" s="29"/>
+      <c r="A294" s="38"/>
       <c r="B294" s="10" t="s">
         <v>1</v>
       </c>
@@ -7622,7 +7622,7 @@
       </c>
     </row>
     <row r="295" spans="1:6">
-      <c r="A295" s="29"/>
+      <c r="A295" s="38"/>
       <c r="B295" s="10" t="s">
         <v>1</v>
       </c>
@@ -7638,7 +7638,7 @@
       </c>
     </row>
     <row r="296" spans="1:6">
-      <c r="A296" s="29"/>
+      <c r="A296" s="38"/>
       <c r="B296" s="10" t="s">
         <v>1</v>
       </c>
@@ -7654,7 +7654,7 @@
       </c>
     </row>
     <row r="297" spans="1:6">
-      <c r="A297" s="29"/>
+      <c r="A297" s="38"/>
       <c r="B297" s="10" t="s">
         <v>1</v>
       </c>
@@ -7670,7 +7670,7 @@
       </c>
     </row>
     <row r="298" spans="1:6">
-      <c r="A298" s="29"/>
+      <c r="A298" s="38"/>
       <c r="B298" s="10" t="s">
         <v>1</v>
       </c>
@@ -7686,7 +7686,7 @@
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="A299" s="29"/>
+      <c r="A299" s="38"/>
       <c r="B299" s="10" t="s">
         <v>1</v>
       </c>
@@ -7702,7 +7702,7 @@
       </c>
     </row>
     <row r="300" spans="1:6">
-      <c r="A300" s="29"/>
+      <c r="A300" s="38"/>
       <c r="B300" s="10" t="s">
         <v>1</v>
       </c>
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="29"/>
+      <c r="A301" s="38"/>
       <c r="B301" s="10" t="s">
         <v>1</v>
       </c>
@@ -7734,7 +7734,7 @@
       </c>
     </row>
     <row r="302" spans="1:6">
-      <c r="A302" s="29"/>
+      <c r="A302" s="38"/>
       <c r="B302" s="10" t="s">
         <v>1</v>
       </c>
@@ -7750,7 +7750,7 @@
       </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="29"/>
+      <c r="A303" s="38"/>
       <c r="B303" s="10" t="s">
         <v>1</v>
       </c>
@@ -7766,7 +7766,7 @@
       </c>
     </row>
     <row r="304" spans="1:6">
-      <c r="A304" s="29"/>
+      <c r="A304" s="38"/>
       <c r="B304" s="10" t="s">
         <v>1</v>
       </c>
@@ -7782,7 +7782,7 @@
       </c>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="30"/>
+      <c r="A305" s="39"/>
       <c r="B305" s="11" t="s">
         <v>2</v>
       </c>
@@ -7800,7 +7800,7 @@
       </c>
     </row>
     <row r="306" spans="1:6">
-      <c r="A306" s="28">
+      <c r="A306" s="37">
         <v>66</v>
       </c>
       <c r="B306" s="10" t="s">
@@ -7818,7 +7818,7 @@
       </c>
     </row>
     <row r="307" spans="1:6">
-      <c r="A307" s="29"/>
+      <c r="A307" s="38"/>
       <c r="B307" s="10" t="s">
         <v>1</v>
       </c>
@@ -7834,7 +7834,7 @@
       </c>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="29"/>
+      <c r="A308" s="38"/>
       <c r="B308" s="10" t="s">
         <v>1</v>
       </c>
@@ -7850,7 +7850,7 @@
       </c>
     </row>
     <row r="309" spans="1:6">
-      <c r="A309" s="29"/>
+      <c r="A309" s="38"/>
       <c r="B309" s="10" t="s">
         <v>1</v>
       </c>
@@ -7866,7 +7866,7 @@
       </c>
     </row>
     <row r="310" spans="1:6">
-      <c r="A310" s="29"/>
+      <c r="A310" s="38"/>
       <c r="B310" s="10" t="s">
         <v>1</v>
       </c>
@@ -7882,7 +7882,7 @@
       </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="29"/>
+      <c r="A311" s="38"/>
       <c r="B311" s="10" t="s">
         <v>1</v>
       </c>
@@ -7898,7 +7898,7 @@
       </c>
     </row>
     <row r="312" spans="1:6">
-      <c r="A312" s="29"/>
+      <c r="A312" s="38"/>
       <c r="B312" s="9" t="s">
         <v>2</v>
       </c>
@@ -7916,7 +7916,7 @@
       </c>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="29"/>
+      <c r="A313" s="38"/>
       <c r="B313" s="9" t="s">
         <v>2</v>
       </c>
@@ -7934,7 +7934,7 @@
       </c>
     </row>
     <row r="314" spans="1:6">
-      <c r="A314" s="29"/>
+      <c r="A314" s="38"/>
       <c r="B314" s="9" t="s">
         <v>2</v>
       </c>
@@ -7952,7 +7952,7 @@
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" s="30"/>
+      <c r="A315" s="39"/>
       <c r="B315" s="9" t="s">
         <v>2</v>
       </c>
@@ -7970,7 +7970,7 @@
       </c>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" s="28">
+      <c r="A316" s="37">
         <v>75</v>
       </c>
       <c r="B316" s="10" t="s">
@@ -7988,7 +7988,7 @@
       </c>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" s="29"/>
+      <c r="A317" s="38"/>
       <c r="B317" s="10" t="s">
         <v>1</v>
       </c>
@@ -8004,7 +8004,7 @@
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="29"/>
+      <c r="A318" s="38"/>
       <c r="B318" s="10" t="s">
         <v>1</v>
       </c>
@@ -8020,7 +8020,7 @@
       </c>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="29"/>
+      <c r="A319" s="38"/>
       <c r="B319" s="10" t="s">
         <v>1</v>
       </c>
@@ -8036,7 +8036,7 @@
       </c>
     </row>
     <row r="320" spans="1:6">
-      <c r="A320" s="29"/>
+      <c r="A320" s="38"/>
       <c r="B320" s="10" t="s">
         <v>1</v>
       </c>
@@ -8052,7 +8052,7 @@
       </c>
     </row>
     <row r="321" spans="1:6">
-      <c r="A321" s="29"/>
+      <c r="A321" s="38"/>
       <c r="B321" s="10" t="s">
         <v>1</v>
       </c>
@@ -8068,7 +8068,7 @@
       </c>
     </row>
     <row r="322" spans="1:6">
-      <c r="A322" s="29"/>
+      <c r="A322" s="38"/>
       <c r="B322" s="10" t="s">
         <v>1</v>
       </c>
@@ -8084,7 +8084,7 @@
       </c>
     </row>
     <row r="323" spans="1:6">
-      <c r="A323" s="29"/>
+      <c r="A323" s="38"/>
       <c r="B323" s="9" t="s">
         <v>2</v>
       </c>
@@ -8102,7 +8102,7 @@
       </c>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="29"/>
+      <c r="A324" s="38"/>
       <c r="B324" s="9" t="s">
         <v>2</v>
       </c>
@@ -8120,7 +8120,7 @@
       </c>
     </row>
     <row r="325" spans="1:6">
-      <c r="A325" s="29"/>
+      <c r="A325" s="38"/>
       <c r="B325" s="9" t="s">
         <v>2</v>
       </c>
@@ -8138,7 +8138,7 @@
       </c>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="29"/>
+      <c r="A326" s="38"/>
       <c r="B326" s="9" t="s">
         <v>2</v>
       </c>
@@ -8156,7 +8156,7 @@
       </c>
     </row>
     <row r="327" spans="1:6">
-      <c r="A327" s="29"/>
+      <c r="A327" s="38"/>
       <c r="B327" s="9" t="s">
         <v>2</v>
       </c>
@@ -8174,7 +8174,7 @@
       </c>
     </row>
     <row r="328" spans="1:6">
-      <c r="A328" s="30"/>
+      <c r="A328" s="39"/>
       <c r="B328" s="9" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8192,7 @@
       </c>
     </row>
     <row r="329" spans="1:6">
-      <c r="A329" s="28">
+      <c r="A329" s="37">
         <v>76</v>
       </c>
       <c r="B329" s="10" t="s">
@@ -8210,7 +8210,7 @@
       </c>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" s="29"/>
+      <c r="A330" s="38"/>
       <c r="B330" s="10" t="s">
         <v>1</v>
       </c>
@@ -8226,7 +8226,7 @@
       </c>
     </row>
     <row r="331" spans="1:6">
-      <c r="A331" s="29"/>
+      <c r="A331" s="38"/>
       <c r="B331" s="10" t="s">
         <v>1</v>
       </c>
@@ -8242,7 +8242,7 @@
       </c>
     </row>
     <row r="332" spans="1:6">
-      <c r="A332" s="29"/>
+      <c r="A332" s="38"/>
       <c r="B332" s="10" t="s">
         <v>1</v>
       </c>
@@ -8258,7 +8258,7 @@
       </c>
     </row>
     <row r="333" spans="1:6">
-      <c r="A333" s="29"/>
+      <c r="A333" s="38"/>
       <c r="B333" s="10" t="s">
         <v>1</v>
       </c>
@@ -8274,7 +8274,7 @@
       </c>
     </row>
     <row r="334" spans="1:6">
-      <c r="A334" s="29"/>
+      <c r="A334" s="38"/>
       <c r="B334" s="10" t="s">
         <v>1</v>
       </c>
@@ -8290,7 +8290,7 @@
       </c>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="29"/>
+      <c r="A335" s="38"/>
       <c r="B335" s="9" t="s">
         <v>2</v>
       </c>
@@ -8308,7 +8308,7 @@
       </c>
     </row>
     <row r="336" spans="1:6">
-      <c r="A336" s="29"/>
+      <c r="A336" s="38"/>
       <c r="B336" s="9" t="s">
         <v>2</v>
       </c>
@@ -8326,7 +8326,7 @@
       </c>
     </row>
     <row r="337" spans="1:6">
-      <c r="A337" s="29"/>
+      <c r="A337" s="38"/>
       <c r="B337" s="9" t="s">
         <v>2</v>
       </c>
@@ -8340,7 +8340,7 @@
       <c r="F337" s="15"/>
     </row>
     <row r="338" spans="1:6">
-      <c r="A338" s="29"/>
+      <c r="A338" s="38"/>
       <c r="B338" s="9" t="s">
         <v>2</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
     </row>
     <row r="339" spans="1:6">
-      <c r="A339" s="29"/>
+      <c r="A339" s="38"/>
       <c r="B339" s="9" t="s">
         <v>2</v>
       </c>
@@ -8376,7 +8376,7 @@
       </c>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" s="29"/>
+      <c r="A340" s="38"/>
       <c r="B340" s="9" t="s">
         <v>2</v>
       </c>
@@ -8394,7 +8394,7 @@
       </c>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="29"/>
+      <c r="A341" s="38"/>
       <c r="B341" s="9" t="s">
         <v>2</v>
       </c>
@@ -8412,7 +8412,7 @@
       </c>
     </row>
     <row r="342" spans="1:6">
-      <c r="A342" s="29"/>
+      <c r="A342" s="38"/>
       <c r="B342" s="9" t="s">
         <v>2</v>
       </c>
@@ -8430,7 +8430,7 @@
       </c>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" s="29"/>
+      <c r="A343" s="38"/>
       <c r="B343" s="9" t="s">
         <v>2</v>
       </c>
@@ -8448,7 +8448,7 @@
       </c>
     </row>
     <row r="344" spans="1:6">
-      <c r="A344" s="30"/>
+      <c r="A344" s="39"/>
       <c r="B344" s="9" t="s">
         <v>2</v>
       </c>
@@ -8466,7 +8466,7 @@
       </c>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" s="28">
+      <c r="A345" s="37">
         <v>67</v>
       </c>
       <c r="B345" s="10" t="s">
@@ -8484,7 +8484,7 @@
       </c>
     </row>
     <row r="346" spans="1:6">
-      <c r="A346" s="29"/>
+      <c r="A346" s="38"/>
       <c r="B346" s="10" t="s">
         <v>1</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="29"/>
+      <c r="A347" s="38"/>
       <c r="B347" s="9" t="s">
         <v>2</v>
       </c>
@@ -8518,7 +8518,7 @@
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="29"/>
+      <c r="A348" s="38"/>
       <c r="B348" s="9" t="s">
         <v>2</v>
       </c>
@@ -8536,7 +8536,7 @@
       </c>
     </row>
     <row r="349" spans="1:6">
-      <c r="A349" s="30"/>
+      <c r="A349" s="39"/>
       <c r="B349" s="9" t="s">
         <v>2</v>
       </c>
@@ -8554,7 +8554,7 @@
       </c>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" s="28">
+      <c r="A350" s="37">
         <v>68</v>
       </c>
       <c r="B350" s="10" t="s">
@@ -8572,7 +8572,7 @@
       </c>
     </row>
     <row r="351" spans="1:6">
-      <c r="A351" s="29"/>
+      <c r="A351" s="38"/>
       <c r="B351" s="10" t="s">
         <v>1</v>
       </c>
@@ -8588,7 +8588,7 @@
       </c>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" s="30"/>
+      <c r="A352" s="39"/>
       <c r="B352" s="11" t="s">
         <v>2</v>
       </c>
@@ -8606,7 +8606,7 @@
       </c>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="28">
+      <c r="A353" s="37">
         <v>69</v>
       </c>
       <c r="B353" s="10" t="s">
@@ -8624,7 +8624,7 @@
       </c>
     </row>
     <row r="354" spans="1:6">
-      <c r="A354" s="29"/>
+      <c r="A354" s="38"/>
       <c r="B354" s="10" t="s">
         <v>1</v>
       </c>
@@ -8640,7 +8640,7 @@
       </c>
     </row>
     <row r="355" spans="1:6">
-      <c r="A355" s="29"/>
+      <c r="A355" s="38"/>
       <c r="B355" s="10" t="s">
         <v>1</v>
       </c>
@@ -8656,7 +8656,7 @@
       </c>
     </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="29"/>
+      <c r="A356" s="38"/>
       <c r="B356" s="9" t="s">
         <v>2</v>
       </c>
@@ -8674,7 +8674,7 @@
       </c>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="29"/>
+      <c r="A357" s="38"/>
       <c r="B357" s="9" t="s">
         <v>2</v>
       </c>
@@ -8692,7 +8692,7 @@
       </c>
     </row>
     <row r="358" spans="1:6">
-      <c r="A358" s="30"/>
+      <c r="A358" s="39"/>
       <c r="B358" s="9" t="s">
         <v>2</v>
       </c>
@@ -8710,7 +8710,7 @@
       </c>
     </row>
     <row r="359" spans="1:6">
-      <c r="A359" s="28">
+      <c r="A359" s="37">
         <v>70</v>
       </c>
       <c r="B359" s="10" t="s">
@@ -8728,7 +8728,7 @@
       </c>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" s="29"/>
+      <c r="A360" s="38"/>
       <c r="B360" s="9" t="s">
         <v>2</v>
       </c>
@@ -8746,7 +8746,7 @@
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" s="29"/>
+      <c r="A361" s="38"/>
       <c r="B361" s="9" t="s">
         <v>2</v>
       </c>
@@ -8764,7 +8764,7 @@
       </c>
     </row>
     <row r="362" spans="1:6">
-      <c r="A362" s="30"/>
+      <c r="A362" s="39"/>
       <c r="B362" s="9" t="s">
         <v>2</v>
       </c>
@@ -8783,6 +8783,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A138:A157"/>
+    <mergeCell ref="A158:A171"/>
+    <mergeCell ref="A172:A187"/>
+    <mergeCell ref="A188:A206"/>
+    <mergeCell ref="A359:A362"/>
+    <mergeCell ref="A238:A250"/>
+    <mergeCell ref="A251:A262"/>
+    <mergeCell ref="A263:A271"/>
+    <mergeCell ref="A272:A280"/>
+    <mergeCell ref="A281:A291"/>
+    <mergeCell ref="A292:A305"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A30:A37"/>
     <mergeCell ref="A38:A55"/>
     <mergeCell ref="A329:A344"/>
     <mergeCell ref="A345:A349"/>
@@ -8799,22 +8815,6 @@
     <mergeCell ref="A101:A112"/>
     <mergeCell ref="A113:A126"/>
     <mergeCell ref="A127:A137"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A138:A157"/>
-    <mergeCell ref="A158:A171"/>
-    <mergeCell ref="A172:A187"/>
-    <mergeCell ref="A188:A206"/>
-    <mergeCell ref="A359:A362"/>
-    <mergeCell ref="A238:A250"/>
-    <mergeCell ref="A251:A262"/>
-    <mergeCell ref="A263:A271"/>
-    <mergeCell ref="A272:A280"/>
-    <mergeCell ref="A281:A291"/>
-    <mergeCell ref="A292:A305"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8836,10 +8836,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="29">
+      <c r="A1" s="38">
         <v>62</v>
       </c>
-      <c r="B1" s="29">
+      <c r="B1" s="38">
         <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -8876,8 +8876,8 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
@@ -8912,8 +8912,8 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
@@ -8938,8 +8938,8 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
@@ -8965,10 +8965,10 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="29">
+      <c r="A5" s="38">
         <v>58</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="38">
         <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -8993,8 +8993,8 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
@@ -9017,8 +9017,8 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
@@ -9041,8 +9041,8 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
@@ -9065,8 +9065,8 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
@@ -9094,8 +9094,8 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
@@ -9120,8 +9120,8 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
@@ -9155,10 +9155,10 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="28">
+      <c r="A12" s="37">
         <v>59</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="37">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -9184,8 +9184,8 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="10" t="s">
         <v>1</v>
       </c>
@@ -9208,8 +9208,8 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="10" t="s">
         <v>1</v>
       </c>
@@ -9232,8 +9232,8 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="10" t="s">
         <v>1</v>
       </c>
@@ -9256,8 +9256,8 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="10" t="s">
         <v>1</v>
       </c>
@@ -9283,8 +9283,8 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="11" t="s">
         <v>2</v>
       </c>
@@ -9315,10 +9315,10 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="28">
+      <c r="A18" s="37">
         <v>60</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="37">
         <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -9347,8 +9347,8 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="10" t="s">
         <v>1</v>
       </c>
@@ -9371,8 +9371,8 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="10" t="s">
         <v>1</v>
       </c>
@@ -9395,8 +9395,8 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="9" t="s">
         <v>2</v>
       </c>
@@ -9427,8 +9427,8 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
@@ -9457,10 +9457,10 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="29">
+      <c r="A23" s="38">
         <v>61</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="38">
         <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -9489,8 +9489,8 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="10" t="s">
         <v>1</v>
       </c>
@@ -9513,8 +9513,8 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="10" t="s">
         <v>1</v>
       </c>
@@ -9537,8 +9537,8 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
@@ -9564,8 +9564,8 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="10" t="s">
         <v>1</v>
       </c>
@@ -9591,10 +9591,10 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="29">
+      <c r="A28" s="38">
         <v>33</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="38">
         <v>11</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -9620,8 +9620,8 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="10" t="s">
         <v>1</v>
       </c>
@@ -9647,8 +9647,8 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="10" t="s">
         <v>1</v>
       </c>
@@ -9671,8 +9671,8 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="10" t="s">
         <v>1</v>
       </c>
@@ -9698,8 +9698,8 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="10" t="s">
         <v>1</v>
       </c>
@@ -9722,8 +9722,8 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="10" t="s">
         <v>1</v>
       </c>
@@ -9746,8 +9746,8 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="10" t="s">
         <v>1</v>
       </c>
@@ -9773,8 +9773,8 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="10" t="s">
         <v>1</v>
       </c>
@@ -9797,8 +9797,8 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="10" t="s">
         <v>1</v>
       </c>
@@ -9821,8 +9821,8 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="10" t="s">
         <v>1</v>
       </c>
@@ -9848,8 +9848,8 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="9" t="s">
         <v>2</v>
       </c>
@@ -9875,10 +9875,10 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="28">
+      <c r="A39" s="37">
         <v>31</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="37">
         <v>12</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -9907,8 +9907,8 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="10" t="s">
         <v>1</v>
       </c>
@@ -9934,8 +9934,8 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="10" t="s">
         <v>1</v>
       </c>
@@ -9961,8 +9961,8 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="10" t="s">
         <v>1</v>
       </c>
@@ -9985,8 +9985,8 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="10" t="s">
         <v>1</v>
       </c>
@@ -10009,8 +10009,8 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="10" t="s">
         <v>1</v>
       </c>
@@ -10033,8 +10033,8 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="10" t="s">
         <v>1</v>
       </c>
@@ -10060,8 +10060,8 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="10" t="s">
         <v>1</v>
       </c>
@@ -10084,8 +10084,8 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="10" t="s">
         <v>1</v>
       </c>
@@ -10111,8 +10111,8 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="10" t="s">
         <v>1</v>
       </c>
@@ -10135,8 +10135,8 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="26" t="s">
         <v>1</v>
       </c>
@@ -10163,8 +10163,8 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="10" t="s">
         <v>1</v>
       </c>
@@ -10188,10 +10188,10 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="28">
+      <c r="A51" s="37">
         <v>54</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="37">
         <v>7</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -10216,8 +10216,8 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="10" t="s">
         <v>1</v>
       </c>
@@ -10243,8 +10243,8 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="10" t="s">
         <v>1</v>
       </c>
@@ -10267,8 +10267,8 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="10" t="s">
         <v>1</v>
       </c>
@@ -10291,8 +10291,8 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="10" t="s">
         <v>1</v>
       </c>
@@ -10318,8 +10318,8 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="9" t="s">
         <v>2</v>
       </c>
@@ -10344,8 +10344,8 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="9" t="s">
         <v>2</v>
       </c>
@@ -10374,10 +10374,10 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="28">
+      <c r="A58" s="37">
         <v>55</v>
       </c>
-      <c r="B58" s="28">
+      <c r="B58" s="37">
         <v>8</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -10405,8 +10405,8 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="10" t="s">
         <v>1</v>
       </c>
@@ -10429,8 +10429,8 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="10" t="s">
         <v>1</v>
       </c>
@@ -10456,8 +10456,8 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="10" t="s">
         <v>1</v>
       </c>
@@ -10483,8 +10483,8 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="10" t="s">
         <v>1</v>
       </c>
@@ -10510,8 +10510,8 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="10" t="s">
         <v>1</v>
       </c>
@@ -10537,8 +10537,8 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="9" t="s">
         <v>2</v>
       </c>
@@ -10563,8 +10563,8 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="9" t="s">
         <v>2</v>
       </c>
@@ -10593,10 +10593,10 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="28">
+      <c r="A66" s="37">
         <v>56</v>
       </c>
-      <c r="B66" s="28">
+      <c r="B66" s="37">
         <v>8</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -10624,8 +10624,8 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="10" t="s">
         <v>1</v>
       </c>
@@ -10651,8 +10651,8 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="10" t="s">
         <v>1</v>
       </c>
@@ -10675,8 +10675,8 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="10" t="s">
         <v>1</v>
       </c>
@@ -10702,8 +10702,8 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="9" t="s">
         <v>2</v>
       </c>
@@ -10731,8 +10731,8 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="9" t="s">
         <v>2</v>
       </c>
@@ -10757,8 +10757,8 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="9" t="s">
         <v>2</v>
       </c>
@@ -10786,8 +10786,8 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="11" t="s">
         <v>2</v>
       </c>
@@ -10813,10 +10813,10 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="29">
+      <c r="A74" s="38">
         <v>57</v>
       </c>
-      <c r="B74" s="29">
+      <c r="B74" s="38">
         <v>11</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -10841,8 +10841,8 @@
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="10" t="s">
         <v>1</v>
       </c>
@@ -10865,8 +10865,8 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="10" t="s">
         <v>1</v>
       </c>
@@ -10892,8 +10892,8 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="10" t="s">
         <v>1</v>
       </c>
@@ -10919,8 +10919,8 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="10" t="s">
         <v>1</v>
       </c>
@@ -10946,8 +10946,8 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="10" t="s">
         <v>1</v>
       </c>
@@ -10973,8 +10973,8 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="10" t="s">
         <v>1</v>
       </c>
@@ -10997,8 +10997,8 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="10" t="s">
         <v>1</v>
       </c>
@@ -11021,8 +11021,8 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="10" t="s">
         <v>1</v>
       </c>
@@ -11045,8 +11045,8 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="10" t="s">
         <v>1</v>
       </c>
@@ -11072,8 +11072,8 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="11" t="s">
         <v>2</v>
       </c>
@@ -11101,10 +11101,10 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="29">
+      <c r="A85" s="38">
         <v>37</v>
       </c>
-      <c r="B85" s="29">
+      <c r="B85" s="38">
         <v>10</v>
       </c>
       <c r="C85" s="10" t="s">
@@ -11132,8 +11132,8 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="10" t="s">
         <v>1</v>
       </c>
@@ -11156,8 +11156,8 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="10" t="s">
         <v>1</v>
       </c>
@@ -11180,8 +11180,8 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="10" t="s">
         <v>1</v>
       </c>
@@ -11207,8 +11207,8 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="10" t="s">
         <v>1</v>
       </c>
@@ -11234,8 +11234,8 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="10" t="s">
         <v>1</v>
       </c>
@@ -11258,8 +11258,8 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
       <c r="C91" s="10" t="s">
         <v>1</v>
       </c>
@@ -11282,8 +11282,8 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
       <c r="C92" s="10" t="s">
         <v>1</v>
       </c>
@@ -11309,8 +11309,8 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="38"/>
       <c r="C93" s="9" t="s">
         <v>2</v>
       </c>
@@ -11335,8 +11335,8 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="9" t="s">
         <v>2</v>
       </c>
@@ -11367,10 +11367,10 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="28">
+      <c r="A95" s="37">
         <v>38</v>
       </c>
-      <c r="B95" s="28">
+      <c r="B95" s="37">
         <v>11</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -11395,8 +11395,8 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
       <c r="C96" s="10" t="s">
         <v>1</v>
       </c>
@@ -11422,8 +11422,8 @@
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="38"/>
       <c r="C97" s="10" t="s">
         <v>1</v>
       </c>
@@ -11446,8 +11446,8 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="38"/>
       <c r="C98" s="10" t="s">
         <v>1</v>
       </c>
@@ -11470,8 +11470,8 @@
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="38"/>
       <c r="C99" s="10" t="s">
         <v>1</v>
       </c>
@@ -11494,8 +11494,8 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="10" t="s">
         <v>1</v>
       </c>
@@ -11521,8 +11521,8 @@
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="38"/>
       <c r="C101" s="10" t="s">
         <v>1</v>
       </c>
@@ -11548,8 +11548,8 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="38"/>
       <c r="C102" s="10" t="s">
         <v>1</v>
       </c>
@@ -11575,8 +11575,8 @@
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
       <c r="C103" s="10" t="s">
         <v>1</v>
       </c>
@@ -11602,8 +11602,8 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="38"/>
       <c r="C104" s="9" t="s">
         <v>2</v>
       </c>
@@ -11631,8 +11631,8 @@
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="30"/>
-      <c r="B105" s="30"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="9" t="s">
         <v>2</v>
       </c>
@@ -11658,10 +11658,10 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="29">
+      <c r="A106" s="38">
         <v>53</v>
       </c>
-      <c r="B106" s="29">
+      <c r="B106" s="38">
         <v>9</v>
       </c>
       <c r="C106" s="10" t="s">
@@ -11689,8 +11689,8 @@
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="38"/>
       <c r="C107" s="10" t="s">
         <v>1</v>
       </c>
@@ -11713,8 +11713,8 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="10" t="s">
         <v>1</v>
       </c>
@@ -11740,8 +11740,8 @@
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="10" t="s">
         <v>1</v>
       </c>
@@ -11764,8 +11764,8 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="38"/>
       <c r="C110" s="10" t="s">
         <v>1</v>
       </c>
@@ -11788,8 +11788,8 @@
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="38"/>
       <c r="C111" s="9" t="s">
         <v>2</v>
       </c>
@@ -11817,8 +11817,8 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="9" t="s">
         <v>2</v>
       </c>
@@ -11846,8 +11846,8 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="29"/>
-      <c r="B113" s="29"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="38"/>
       <c r="C113" s="9" t="s">
         <v>2</v>
       </c>
@@ -11875,8 +11875,8 @@
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="38"/>
       <c r="C114" s="9" t="s">
         <v>2</v>
       </c>
@@ -11904,10 +11904,10 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="28">
+      <c r="A115" s="37">
         <v>52</v>
       </c>
-      <c r="B115" s="28">
+      <c r="B115" s="37">
         <v>8</v>
       </c>
       <c r="C115" s="10" t="s">
@@ -11935,8 +11935,8 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="10" t="s">
         <v>1</v>
       </c>
@@ -11959,8 +11959,8 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="29"/>
-      <c r="B117" s="29"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="10" t="s">
         <v>1</v>
       </c>
@@ -11986,8 +11986,8 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="29"/>
-      <c r="B118" s="29"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="10" t="s">
         <v>1</v>
       </c>
@@ -12013,8 +12013,8 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="29"/>
-      <c r="B119" s="29"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
       <c r="C119" s="10" t="s">
         <v>1</v>
       </c>
@@ -12040,8 +12040,8 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="38"/>
       <c r="C120" s="9" t="s">
         <v>2</v>
       </c>
@@ -12069,8 +12069,8 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="29"/>
-      <c r="B121" s="29"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="38"/>
       <c r="C121" s="9" t="s">
         <v>2</v>
       </c>
@@ -12098,8 +12098,8 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="30"/>
-      <c r="B122" s="30"/>
+      <c r="A122" s="39"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="11" t="s">
         <v>2</v>
       </c>
@@ -12128,10 +12128,10 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="29">
+      <c r="A123" s="38">
         <v>51</v>
       </c>
-      <c r="B123" s="29">
+      <c r="B123" s="38">
         <v>11</v>
       </c>
       <c r="C123" s="9" t="s">
@@ -12159,8 +12159,8 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
+      <c r="A124" s="38"/>
+      <c r="B124" s="38"/>
       <c r="C124" s="10" t="s">
         <v>1</v>
       </c>
@@ -12183,8 +12183,8 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
+      <c r="A125" s="38"/>
+      <c r="B125" s="38"/>
       <c r="C125" s="10" t="s">
         <v>1</v>
       </c>
@@ -12207,8 +12207,8 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="29"/>
-      <c r="B126" s="29"/>
+      <c r="A126" s="38"/>
+      <c r="B126" s="38"/>
       <c r="C126" s="10" t="s">
         <v>1</v>
       </c>
@@ -12237,8 +12237,8 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="38"/>
       <c r="C127" s="9" t="s">
         <v>2</v>
       </c>
@@ -12266,8 +12266,8 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
+      <c r="A128" s="38"/>
+      <c r="B128" s="38"/>
       <c r="C128" s="9" t="s">
         <v>2</v>
       </c>
@@ -12295,8 +12295,8 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="29"/>
-      <c r="B129" s="29"/>
+      <c r="A129" s="38"/>
+      <c r="B129" s="38"/>
       <c r="C129" s="9" t="s">
         <v>2</v>
       </c>
@@ -12321,8 +12321,8 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="29"/>
-      <c r="B130" s="29"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="38"/>
       <c r="C130" s="9" t="s">
         <v>2</v>
       </c>
@@ -12347,8 +12347,8 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
+      <c r="A131" s="38"/>
+      <c r="B131" s="38"/>
       <c r="C131" s="9" t="s">
         <v>2</v>
       </c>
@@ -12376,8 +12376,8 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
+      <c r="A132" s="38"/>
+      <c r="B132" s="38"/>
       <c r="C132" s="9" t="s">
         <v>2</v>
       </c>
@@ -12408,8 +12408,8 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="30"/>
-      <c r="B133" s="30"/>
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="9" t="s">
         <v>2</v>
       </c>
@@ -12438,10 +12438,10 @@
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="28">
+      <c r="A134" s="37">
         <v>49</v>
       </c>
-      <c r="B134" s="28">
+      <c r="B134" s="37">
         <v>12</v>
       </c>
       <c r="C134" s="10" t="s">
@@ -12466,8 +12466,8 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
+      <c r="A135" s="38"/>
+      <c r="B135" s="38"/>
       <c r="C135" s="10" t="s">
         <v>1</v>
       </c>
@@ -12493,8 +12493,8 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="38"/>
       <c r="C136" s="10" t="s">
         <v>1</v>
       </c>
@@ -12520,8 +12520,8 @@
       </c>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="29"/>
-      <c r="B137" s="29"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="38"/>
       <c r="C137" s="10" t="s">
         <v>1</v>
       </c>
@@ -12544,8 +12544,8 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
+      <c r="A138" s="38"/>
+      <c r="B138" s="38"/>
       <c r="C138" s="10" t="s">
         <v>1</v>
       </c>
@@ -12568,8 +12568,8 @@
       </c>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
+      <c r="A139" s="38"/>
+      <c r="B139" s="38"/>
       <c r="C139" s="10" t="s">
         <v>1</v>
       </c>
@@ -12592,8 +12592,8 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="38"/>
       <c r="C140" s="10" t="s">
         <v>1</v>
       </c>
@@ -12616,8 +12616,8 @@
       </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="29"/>
-      <c r="B141" s="29"/>
+      <c r="A141" s="38"/>
+      <c r="B141" s="38"/>
       <c r="C141" s="10" t="s">
         <v>1</v>
       </c>
@@ -12643,8 +12643,8 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="29"/>
-      <c r="B142" s="29"/>
+      <c r="A142" s="38"/>
+      <c r="B142" s="38"/>
       <c r="C142" s="10" t="s">
         <v>1</v>
       </c>
@@ -12673,8 +12673,8 @@
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
+      <c r="A143" s="38"/>
+      <c r="B143" s="38"/>
       <c r="C143" s="10" t="s">
         <v>1</v>
       </c>
@@ -12700,8 +12700,8 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
+      <c r="A144" s="38"/>
+      <c r="B144" s="38"/>
       <c r="C144" s="10" t="s">
         <v>1</v>
       </c>
@@ -12727,8 +12727,8 @@
       </c>
     </row>
     <row r="145" spans="1:12">
-      <c r="A145" s="30"/>
-      <c r="B145" s="30"/>
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="9" t="s">
         <v>2</v>
       </c>
@@ -12754,10 +12754,10 @@
       </c>
     </row>
     <row r="146" spans="1:12">
-      <c r="A146" s="28">
+      <c r="A146" s="37">
         <v>50</v>
       </c>
-      <c r="B146" s="28">
+      <c r="B146" s="37">
         <v>15</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -12782,8 +12782,8 @@
       </c>
     </row>
     <row r="147" spans="1:12">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
+      <c r="A147" s="38"/>
+      <c r="B147" s="38"/>
       <c r="C147" s="10" t="s">
         <v>1</v>
       </c>
@@ -12809,8 +12809,8 @@
       </c>
     </row>
     <row r="148" spans="1:12">
-      <c r="A148" s="29"/>
-      <c r="B148" s="29"/>
+      <c r="A148" s="38"/>
+      <c r="B148" s="38"/>
       <c r="C148" s="10" t="s">
         <v>1</v>
       </c>
@@ -12836,8 +12836,8 @@
       </c>
     </row>
     <row r="149" spans="1:12">
-      <c r="A149" s="29"/>
-      <c r="B149" s="29"/>
+      <c r="A149" s="38"/>
+      <c r="B149" s="38"/>
       <c r="C149" s="10" t="s">
         <v>1</v>
       </c>
@@ -12860,8 +12860,8 @@
       </c>
     </row>
     <row r="150" spans="1:12">
-      <c r="A150" s="29"/>
-      <c r="B150" s="29"/>
+      <c r="A150" s="38"/>
+      <c r="B150" s="38"/>
       <c r="C150" s="10" t="s">
         <v>1</v>
       </c>
@@ -12884,8 +12884,8 @@
       </c>
     </row>
     <row r="151" spans="1:12">
-      <c r="A151" s="29"/>
-      <c r="B151" s="29"/>
+      <c r="A151" s="38"/>
+      <c r="B151" s="38"/>
       <c r="C151" s="10" t="s">
         <v>1</v>
       </c>
@@ -12911,8 +12911,8 @@
       </c>
     </row>
     <row r="152" spans="1:12">
-      <c r="A152" s="29"/>
-      <c r="B152" s="29"/>
+      <c r="A152" s="38"/>
+      <c r="B152" s="38"/>
       <c r="C152" s="10" t="s">
         <v>1</v>
       </c>
@@ -12938,8 +12938,8 @@
       </c>
     </row>
     <row r="153" spans="1:12">
-      <c r="A153" s="29"/>
-      <c r="B153" s="29"/>
+      <c r="A153" s="38"/>
+      <c r="B153" s="38"/>
       <c r="C153" s="10" t="s">
         <v>1</v>
       </c>
@@ -12962,8 +12962,8 @@
       </c>
     </row>
     <row r="154" spans="1:12">
-      <c r="A154" s="29"/>
-      <c r="B154" s="29"/>
+      <c r="A154" s="38"/>
+      <c r="B154" s="38"/>
       <c r="C154" s="10" t="s">
         <v>1</v>
       </c>
@@ -12986,8 +12986,8 @@
       </c>
     </row>
     <row r="155" spans="1:12">
-      <c r="A155" s="29"/>
-      <c r="B155" s="29"/>
+      <c r="A155" s="38"/>
+      <c r="B155" s="38"/>
       <c r="C155" s="10" t="s">
         <v>1</v>
       </c>
@@ -13010,8 +13010,8 @@
       </c>
     </row>
     <row r="156" spans="1:12">
-      <c r="A156" s="29"/>
-      <c r="B156" s="29"/>
+      <c r="A156" s="38"/>
+      <c r="B156" s="38"/>
       <c r="C156" s="10" t="s">
         <v>1</v>
       </c>
@@ -13034,8 +13034,8 @@
       </c>
     </row>
     <row r="157" spans="1:12">
-      <c r="A157" s="29"/>
-      <c r="B157" s="29"/>
+      <c r="A157" s="38"/>
+      <c r="B157" s="38"/>
       <c r="C157" s="10" t="s">
         <v>1</v>
       </c>
@@ -13061,8 +13061,8 @@
       </c>
     </row>
     <row r="158" spans="1:12">
-      <c r="A158" s="29"/>
-      <c r="B158" s="29"/>
+      <c r="A158" s="38"/>
+      <c r="B158" s="38"/>
       <c r="C158" s="9" t="s">
         <v>2</v>
       </c>
@@ -13087,8 +13087,8 @@
       </c>
     </row>
     <row r="159" spans="1:12">
-      <c r="A159" s="29"/>
-      <c r="B159" s="29"/>
+      <c r="A159" s="38"/>
+      <c r="B159" s="38"/>
       <c r="C159" s="9" t="s">
         <v>2</v>
       </c>
@@ -13116,8 +13116,8 @@
       </c>
     </row>
     <row r="160" spans="1:12">
-      <c r="A160" s="29"/>
-      <c r="B160" s="29"/>
+      <c r="A160" s="38"/>
+      <c r="B160" s="38"/>
       <c r="C160" s="9" t="s">
         <v>2</v>
       </c>
@@ -13145,10 +13145,10 @@
       </c>
     </row>
     <row r="161" spans="1:12">
-      <c r="A161" s="28">
+      <c r="A161" s="37">
         <v>39</v>
       </c>
-      <c r="B161" s="28">
+      <c r="B161" s="37">
         <v>7</v>
       </c>
       <c r="C161" s="10" t="s">
@@ -13176,8 +13176,8 @@
       </c>
     </row>
     <row r="162" spans="1:12">
-      <c r="A162" s="29"/>
-      <c r="B162" s="29"/>
+      <c r="A162" s="38"/>
+      <c r="B162" s="38"/>
       <c r="C162" s="10" t="s">
         <v>1</v>
       </c>
@@ -13200,8 +13200,8 @@
       </c>
     </row>
     <row r="163" spans="1:12">
-      <c r="A163" s="29"/>
-      <c r="B163" s="29"/>
+      <c r="A163" s="38"/>
+      <c r="B163" s="38"/>
       <c r="C163" s="10" t="s">
         <v>1</v>
       </c>
@@ -13224,8 +13224,8 @@
       </c>
     </row>
     <row r="164" spans="1:12">
-      <c r="A164" s="29"/>
-      <c r="B164" s="29"/>
+      <c r="A164" s="38"/>
+      <c r="B164" s="38"/>
       <c r="C164" s="10" t="s">
         <v>1</v>
       </c>
@@ -13248,8 +13248,8 @@
       </c>
     </row>
     <row r="165" spans="1:12">
-      <c r="A165" s="29"/>
-      <c r="B165" s="29"/>
+      <c r="A165" s="38"/>
+      <c r="B165" s="38"/>
       <c r="C165" s="9" t="s">
         <v>2</v>
       </c>
@@ -13277,8 +13277,8 @@
       </c>
     </row>
     <row r="166" spans="1:12">
-      <c r="A166" s="29"/>
-      <c r="B166" s="29"/>
+      <c r="A166" s="38"/>
+      <c r="B166" s="38"/>
       <c r="C166" s="9" t="s">
         <v>2</v>
       </c>
@@ -13309,8 +13309,8 @@
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="30"/>
-      <c r="B167" s="30"/>
+      <c r="A167" s="39"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="9" t="s">
         <v>2</v>
       </c>
@@ -13338,10 +13338,10 @@
       </c>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="28">
+      <c r="A168" s="37">
         <v>40</v>
       </c>
-      <c r="B168" s="28">
+      <c r="B168" s="37">
         <v>9</v>
       </c>
       <c r="C168" s="10" t="s">
@@ -13366,8 +13366,8 @@
       </c>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="29"/>
-      <c r="B169" s="29"/>
+      <c r="A169" s="38"/>
+      <c r="B169" s="38"/>
       <c r="C169" s="10" t="s">
         <v>1</v>
       </c>
@@ -13390,8 +13390,8 @@
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="29"/>
-      <c r="B170" s="29"/>
+      <c r="A170" s="38"/>
+      <c r="B170" s="38"/>
       <c r="C170" s="10" t="s">
         <v>1</v>
       </c>
@@ -13414,8 +13414,8 @@
       </c>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="29"/>
-      <c r="B171" s="29"/>
+      <c r="A171" s="38"/>
+      <c r="B171" s="38"/>
       <c r="C171" s="10" t="s">
         <v>1</v>
       </c>
@@ -13438,8 +13438,8 @@
       </c>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="29"/>
-      <c r="B172" s="29"/>
+      <c r="A172" s="38"/>
+      <c r="B172" s="38"/>
       <c r="C172" s="10" t="s">
         <v>1</v>
       </c>
@@ -13462,8 +13462,8 @@
       </c>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="29"/>
-      <c r="B173" s="29"/>
+      <c r="A173" s="38"/>
+      <c r="B173" s="38"/>
       <c r="C173" s="9" t="s">
         <v>2</v>
       </c>
@@ -13488,8 +13488,8 @@
       </c>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="29"/>
-      <c r="B174" s="29"/>
+      <c r="A174" s="38"/>
+      <c r="B174" s="38"/>
       <c r="C174" s="9" t="s">
         <v>2</v>
       </c>
@@ -13517,8 +13517,8 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="29"/>
-      <c r="B175" s="29"/>
+      <c r="A175" s="38"/>
+      <c r="B175" s="38"/>
       <c r="C175" s="9" t="s">
         <v>2</v>
       </c>
@@ -13543,8 +13543,8 @@
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="30"/>
-      <c r="B176" s="30"/>
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="11" t="s">
         <v>2</v>
       </c>
@@ -13573,10 +13573,10 @@
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="29">
+      <c r="A177" s="38">
         <v>73</v>
       </c>
-      <c r="B177" s="29">
+      <c r="B177" s="38">
         <v>9</v>
       </c>
       <c r="C177" s="9" t="s">
@@ -13604,8 +13604,8 @@
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="29"/>
-      <c r="B178" s="29"/>
+      <c r="A178" s="38"/>
+      <c r="B178" s="38"/>
       <c r="C178" s="10" t="s">
         <v>1</v>
       </c>
@@ -13631,8 +13631,8 @@
       </c>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="29"/>
-      <c r="B179" s="29"/>
+      <c r="A179" s="38"/>
+      <c r="B179" s="38"/>
       <c r="C179" s="10" t="s">
         <v>1</v>
       </c>
@@ -13658,8 +13658,8 @@
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="29"/>
-      <c r="B180" s="29"/>
+      <c r="A180" s="38"/>
+      <c r="B180" s="38"/>
       <c r="C180" s="10" t="s">
         <v>1</v>
       </c>
@@ -13685,8 +13685,8 @@
       </c>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="29"/>
-      <c r="B181" s="29"/>
+      <c r="A181" s="38"/>
+      <c r="B181" s="38"/>
       <c r="C181" s="9" t="s">
         <v>2</v>
       </c>
@@ -13714,8 +13714,8 @@
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="29"/>
-      <c r="B182" s="29"/>
+      <c r="A182" s="38"/>
+      <c r="B182" s="38"/>
       <c r="C182" s="9" t="s">
         <v>2</v>
       </c>
@@ -13746,8 +13746,8 @@
       </c>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="29"/>
-      <c r="B183" s="29"/>
+      <c r="A183" s="38"/>
+      <c r="B183" s="38"/>
       <c r="C183" s="9" t="s">
         <v>2</v>
       </c>
@@ -13775,8 +13775,8 @@
       </c>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="29"/>
-      <c r="B184" s="29"/>
+      <c r="A184" s="38"/>
+      <c r="B184" s="38"/>
       <c r="C184" s="9" t="s">
         <v>2</v>
       </c>
@@ -13807,8 +13807,8 @@
       </c>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="30"/>
-      <c r="B185" s="30"/>
+      <c r="A185" s="39"/>
+      <c r="B185" s="39"/>
       <c r="C185" s="9" t="s">
         <v>2</v>
       </c>
@@ -13839,10 +13839,10 @@
       </c>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="28">
+      <c r="A186" s="37">
         <v>74</v>
       </c>
-      <c r="B186" s="28">
+      <c r="B186" s="37">
         <v>7</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -13870,8 +13870,8 @@
       </c>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="29"/>
-      <c r="B187" s="29"/>
+      <c r="A187" s="38"/>
+      <c r="B187" s="38"/>
       <c r="C187" s="10" t="s">
         <v>1</v>
       </c>
@@ -13894,8 +13894,8 @@
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="29"/>
-      <c r="B188" s="29"/>
+      <c r="A188" s="38"/>
+      <c r="B188" s="38"/>
       <c r="C188" s="9" t="s">
         <v>2</v>
       </c>
@@ -13923,8 +13923,8 @@
       </c>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="29"/>
-      <c r="B189" s="29"/>
+      <c r="A189" s="38"/>
+      <c r="B189" s="38"/>
       <c r="C189" s="9" t="s">
         <v>2</v>
       </c>
@@ -13952,8 +13952,8 @@
       </c>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="29"/>
-      <c r="B190" s="29"/>
+      <c r="A190" s="38"/>
+      <c r="B190" s="38"/>
       <c r="C190" s="9" t="s">
         <v>2</v>
       </c>
@@ -13978,8 +13978,8 @@
       </c>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="29"/>
-      <c r="B191" s="29"/>
+      <c r="A191" s="38"/>
+      <c r="B191" s="38"/>
       <c r="C191" s="9" t="s">
         <v>2</v>
       </c>
@@ -14004,8 +14004,8 @@
       </c>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="29"/>
-      <c r="B192" s="29"/>
+      <c r="A192" s="38"/>
+      <c r="B192" s="38"/>
       <c r="C192" s="9" t="s">
         <v>2</v>
       </c>
@@ -14033,10 +14033,10 @@
       </c>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="28">
+      <c r="A193" s="37">
         <v>63</v>
       </c>
-      <c r="B193" s="28">
+      <c r="B193" s="37">
         <v>7</v>
       </c>
       <c r="C193" s="10" t="s">
@@ -14064,8 +14064,8 @@
       </c>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="29"/>
-      <c r="B194" s="29"/>
+      <c r="A194" s="38"/>
+      <c r="B194" s="38"/>
       <c r="C194" s="10" t="s">
         <v>1</v>
       </c>
@@ -14091,8 +14091,8 @@
       </c>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="29"/>
-      <c r="B195" s="29"/>
+      <c r="A195" s="38"/>
+      <c r="B195" s="38"/>
       <c r="C195" s="10" t="s">
         <v>1</v>
       </c>
@@ -14115,8 +14115,8 @@
       </c>
     </row>
     <row r="196" spans="1:12">
-      <c r="A196" s="29"/>
-      <c r="B196" s="29"/>
+      <c r="A196" s="38"/>
+      <c r="B196" s="38"/>
       <c r="C196" s="10" t="s">
         <v>1</v>
       </c>
@@ -14139,8 +14139,8 @@
       </c>
     </row>
     <row r="197" spans="1:12">
-      <c r="A197" s="29"/>
-      <c r="B197" s="29"/>
+      <c r="A197" s="38"/>
+      <c r="B197" s="38"/>
       <c r="C197" s="10" t="s">
         <v>1</v>
       </c>
@@ -14166,8 +14166,8 @@
       </c>
     </row>
     <row r="198" spans="1:12">
-      <c r="A198" s="29"/>
-      <c r="B198" s="29"/>
+      <c r="A198" s="38"/>
+      <c r="B198" s="38"/>
       <c r="C198" s="9" t="s">
         <v>2</v>
       </c>
@@ -14195,8 +14195,8 @@
       </c>
     </row>
     <row r="199" spans="1:12">
-      <c r="A199" s="30"/>
-      <c r="B199" s="30"/>
+      <c r="A199" s="39"/>
+      <c r="B199" s="39"/>
       <c r="C199" s="9" t="s">
         <v>2</v>
       </c>
@@ -14227,10 +14227,10 @@
       </c>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="29">
+      <c r="A200" s="38">
         <v>64</v>
       </c>
-      <c r="B200" s="29">
+      <c r="B200" s="38">
         <v>7</v>
       </c>
       <c r="C200" s="10" t="s">
@@ -14258,8 +14258,8 @@
       </c>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="29"/>
-      <c r="B201" s="29"/>
+      <c r="A201" s="38"/>
+      <c r="B201" s="38"/>
       <c r="C201" s="10" t="s">
         <v>1</v>
       </c>
@@ -14282,8 +14282,8 @@
       </c>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="29"/>
-      <c r="B202" s="29"/>
+      <c r="A202" s="38"/>
+      <c r="B202" s="38"/>
       <c r="C202" s="10" t="s">
         <v>1</v>
       </c>
@@ -14309,8 +14309,8 @@
       </c>
     </row>
     <row r="203" spans="1:12">
-      <c r="A203" s="29"/>
-      <c r="B203" s="29"/>
+      <c r="A203" s="38"/>
+      <c r="B203" s="38"/>
       <c r="C203" s="10" t="s">
         <v>1</v>
       </c>
@@ -14333,8 +14333,8 @@
       </c>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="29"/>
-      <c r="B204" s="29"/>
+      <c r="A204" s="38"/>
+      <c r="B204" s="38"/>
       <c r="C204" s="10" t="s">
         <v>1</v>
       </c>
@@ -14357,8 +14357,8 @@
       </c>
     </row>
     <row r="205" spans="1:12">
-      <c r="A205" s="29"/>
-      <c r="B205" s="29"/>
+      <c r="A205" s="38"/>
+      <c r="B205" s="38"/>
       <c r="C205" s="9" t="s">
         <v>2</v>
       </c>
@@ -14383,8 +14383,8 @@
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="29"/>
-      <c r="B206" s="29"/>
+      <c r="A206" s="38"/>
+      <c r="B206" s="38"/>
       <c r="C206" s="9" t="s">
         <v>2</v>
       </c>
@@ -14413,10 +14413,10 @@
       </c>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="28">
+      <c r="A207" s="37">
         <v>65</v>
       </c>
-      <c r="B207" s="28">
+      <c r="B207" s="37">
         <v>9</v>
       </c>
       <c r="C207" s="10" t="s">
@@ -14441,8 +14441,8 @@
       </c>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="29"/>
-      <c r="B208" s="29"/>
+      <c r="A208" s="38"/>
+      <c r="B208" s="38"/>
       <c r="C208" s="10" t="s">
         <v>1</v>
       </c>
@@ -14468,8 +14468,8 @@
       </c>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="29"/>
-      <c r="B209" s="29"/>
+      <c r="A209" s="38"/>
+      <c r="B209" s="38"/>
       <c r="C209" s="10" t="s">
         <v>1</v>
       </c>
@@ -14492,8 +14492,8 @@
       </c>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="29"/>
-      <c r="B210" s="29"/>
+      <c r="A210" s="38"/>
+      <c r="B210" s="38"/>
       <c r="C210" s="10" t="s">
         <v>1</v>
       </c>
@@ -14516,8 +14516,8 @@
       </c>
     </row>
     <row r="211" spans="1:12">
-      <c r="A211" s="29"/>
-      <c r="B211" s="29"/>
+      <c r="A211" s="38"/>
+      <c r="B211" s="38"/>
       <c r="C211" s="10" t="s">
         <v>1</v>
       </c>
@@ -14546,8 +14546,8 @@
       </c>
     </row>
     <row r="212" spans="1:12">
-      <c r="A212" s="29"/>
-      <c r="B212" s="29"/>
+      <c r="A212" s="38"/>
+      <c r="B212" s="38"/>
       <c r="C212" s="10" t="s">
         <v>1</v>
       </c>
@@ -14573,8 +14573,8 @@
       </c>
     </row>
     <row r="213" spans="1:12">
-      <c r="A213" s="29"/>
-      <c r="B213" s="29"/>
+      <c r="A213" s="38"/>
+      <c r="B213" s="38"/>
       <c r="C213" s="10" t="s">
         <v>1</v>
       </c>
@@ -14597,8 +14597,8 @@
       </c>
     </row>
     <row r="214" spans="1:12">
-      <c r="A214" s="29"/>
-      <c r="B214" s="29"/>
+      <c r="A214" s="38"/>
+      <c r="B214" s="38"/>
       <c r="C214" s="10" t="s">
         <v>1</v>
       </c>
@@ -14621,8 +14621,8 @@
       </c>
     </row>
     <row r="215" spans="1:12">
-      <c r="A215" s="29"/>
-      <c r="B215" s="29"/>
+      <c r="A215" s="38"/>
+      <c r="B215" s="38"/>
       <c r="C215" s="10" t="s">
         <v>1</v>
       </c>
@@ -14648,10 +14648,10 @@
       </c>
     </row>
     <row r="216" spans="1:12">
-      <c r="A216" s="28">
+      <c r="A216" s="37">
         <v>66</v>
       </c>
-      <c r="B216" s="28">
+      <c r="B216" s="37">
         <v>8</v>
       </c>
       <c r="C216" s="10" t="s">
@@ -14677,8 +14677,8 @@
       </c>
     </row>
     <row r="217" spans="1:12">
-      <c r="A217" s="29"/>
-      <c r="B217" s="29"/>
+      <c r="A217" s="38"/>
+      <c r="B217" s="38"/>
       <c r="C217" s="10" t="s">
         <v>1</v>
       </c>
@@ -14701,8 +14701,8 @@
       </c>
     </row>
     <row r="218" spans="1:12">
-      <c r="A218" s="29"/>
-      <c r="B218" s="29"/>
+      <c r="A218" s="38"/>
+      <c r="B218" s="38"/>
       <c r="C218" s="10" t="s">
         <v>1</v>
       </c>
@@ -14728,8 +14728,8 @@
       </c>
     </row>
     <row r="219" spans="1:12">
-      <c r="A219" s="29"/>
-      <c r="B219" s="29"/>
+      <c r="A219" s="38"/>
+      <c r="B219" s="38"/>
       <c r="C219" s="10" t="s">
         <v>1</v>
       </c>
@@ -14752,8 +14752,8 @@
       </c>
     </row>
     <row r="220" spans="1:12">
-      <c r="A220" s="29"/>
-      <c r="B220" s="29"/>
+      <c r="A220" s="38"/>
+      <c r="B220" s="38"/>
       <c r="C220" s="10" t="s">
         <v>1</v>
       </c>
@@ -14776,8 +14776,8 @@
       </c>
     </row>
     <row r="221" spans="1:12">
-      <c r="A221" s="29"/>
-      <c r="B221" s="29"/>
+      <c r="A221" s="38"/>
+      <c r="B221" s="38"/>
       <c r="C221" s="10" t="s">
         <v>1</v>
       </c>
@@ -14800,8 +14800,8 @@
       </c>
     </row>
     <row r="222" spans="1:12">
-      <c r="A222" s="29"/>
-      <c r="B222" s="29"/>
+      <c r="A222" s="38"/>
+      <c r="B222" s="38"/>
       <c r="C222" s="9" t="s">
         <v>2</v>
       </c>
@@ -14829,8 +14829,8 @@
       </c>
     </row>
     <row r="223" spans="1:12">
-      <c r="A223" s="30"/>
-      <c r="B223" s="30"/>
+      <c r="A223" s="39"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="11" t="s">
         <v>2</v>
       </c>
@@ -14858,10 +14858,10 @@
       </c>
     </row>
     <row r="224" spans="1:12">
-      <c r="A224" s="29">
+      <c r="A224" s="38">
         <v>75</v>
       </c>
-      <c r="B224" s="29">
+      <c r="B224" s="38">
         <v>7</v>
       </c>
       <c r="C224" s="9" t="s">
@@ -14886,8 +14886,8 @@
       </c>
     </row>
     <row r="225" spans="1:12">
-      <c r="A225" s="29"/>
-      <c r="B225" s="29"/>
+      <c r="A225" s="38"/>
+      <c r="B225" s="38"/>
       <c r="C225" s="10" t="s">
         <v>1</v>
       </c>
@@ -14913,8 +14913,8 @@
       </c>
     </row>
     <row r="226" spans="1:12">
-      <c r="A226" s="29"/>
-      <c r="B226" s="29"/>
+      <c r="A226" s="38"/>
+      <c r="B226" s="38"/>
       <c r="C226" s="10" t="s">
         <v>1</v>
       </c>
@@ -14937,8 +14937,8 @@
       </c>
     </row>
     <row r="227" spans="1:12">
-      <c r="A227" s="29"/>
-      <c r="B227" s="29"/>
+      <c r="A227" s="38"/>
+      <c r="B227" s="38"/>
       <c r="C227" s="9" t="s">
         <v>2</v>
       </c>
@@ -14969,8 +14969,8 @@
       </c>
     </row>
     <row r="228" spans="1:12">
-      <c r="A228" s="29"/>
-      <c r="B228" s="29"/>
+      <c r="A228" s="38"/>
+      <c r="B228" s="38"/>
       <c r="C228" s="9" t="s">
         <v>2</v>
       </c>
@@ -14998,8 +14998,8 @@
       </c>
     </row>
     <row r="229" spans="1:12">
-      <c r="A229" s="29"/>
-      <c r="B229" s="29"/>
+      <c r="A229" s="38"/>
+      <c r="B229" s="38"/>
       <c r="C229" s="9" t="s">
         <v>2</v>
       </c>
@@ -15030,8 +15030,8 @@
       </c>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="29"/>
-      <c r="B230" s="29"/>
+      <c r="A230" s="38"/>
+      <c r="B230" s="38"/>
       <c r="C230" s="9" t="s">
         <v>2</v>
       </c>
@@ -15059,10 +15059,10 @@
       </c>
     </row>
     <row r="231" spans="1:12">
-      <c r="A231" s="28">
+      <c r="A231" s="37">
         <v>76</v>
       </c>
-      <c r="B231" s="28">
+      <c r="B231" s="37">
         <v>7</v>
       </c>
       <c r="C231" s="10" t="s">
@@ -15087,8 +15087,8 @@
       </c>
     </row>
     <row r="232" spans="1:12">
-      <c r="A232" s="29"/>
-      <c r="B232" s="29"/>
+      <c r="A232" s="38"/>
+      <c r="B232" s="38"/>
       <c r="C232" s="10" t="s">
         <v>1</v>
       </c>
@@ -15111,8 +15111,8 @@
       </c>
     </row>
     <row r="233" spans="1:12">
-      <c r="A233" s="29"/>
-      <c r="B233" s="29"/>
+      <c r="A233" s="38"/>
+      <c r="B233" s="38"/>
       <c r="C233" s="10" t="s">
         <v>1</v>
       </c>
@@ -15138,8 +15138,8 @@
       </c>
     </row>
     <row r="234" spans="1:12">
-      <c r="A234" s="29"/>
-      <c r="B234" s="29"/>
+      <c r="A234" s="38"/>
+      <c r="B234" s="38"/>
       <c r="C234" s="10" t="s">
         <v>1</v>
       </c>
@@ -15168,8 +15168,8 @@
       </c>
     </row>
     <row r="235" spans="1:12">
-      <c r="A235" s="29"/>
-      <c r="B235" s="29"/>
+      <c r="A235" s="38"/>
+      <c r="B235" s="38"/>
       <c r="C235" s="9" t="s">
         <v>2</v>
       </c>
@@ -15197,8 +15197,8 @@
       </c>
     </row>
     <row r="236" spans="1:12">
-      <c r="A236" s="29"/>
-      <c r="B236" s="29"/>
+      <c r="A236" s="38"/>
+      <c r="B236" s="38"/>
       <c r="C236" s="9" t="s">
         <v>2</v>
       </c>
@@ -15223,8 +15223,8 @@
       </c>
     </row>
     <row r="237" spans="1:12">
-      <c r="A237" s="29"/>
-      <c r="B237" s="29"/>
+      <c r="A237" s="38"/>
+      <c r="B237" s="38"/>
       <c r="C237" s="9" t="s">
         <v>2</v>
       </c>
@@ -15250,10 +15250,10 @@
       </c>
     </row>
     <row r="238" spans="1:12">
-      <c r="A238" s="28">
+      <c r="A238" s="37">
         <v>67</v>
       </c>
-      <c r="B238" s="28">
+      <c r="B238" s="37">
         <v>4</v>
       </c>
       <c r="C238" s="10" t="s">
@@ -15281,8 +15281,8 @@
       </c>
     </row>
     <row r="239" spans="1:12">
-      <c r="A239" s="29"/>
-      <c r="B239" s="29"/>
+      <c r="A239" s="38"/>
+      <c r="B239" s="38"/>
       <c r="C239" s="10" t="s">
         <v>1</v>
       </c>
@@ -15305,8 +15305,8 @@
       </c>
     </row>
     <row r="240" spans="1:12">
-      <c r="A240" s="29"/>
-      <c r="B240" s="29"/>
+      <c r="A240" s="38"/>
+      <c r="B240" s="38"/>
       <c r="C240" s="9" t="s">
         <v>2</v>
       </c>
@@ -15337,8 +15337,8 @@
       </c>
     </row>
     <row r="241" spans="1:12">
-      <c r="A241" s="29"/>
-      <c r="B241" s="29"/>
+      <c r="A241" s="38"/>
+      <c r="B241" s="38"/>
       <c r="C241" s="9" t="s">
         <v>2</v>
       </c>
@@ -15364,10 +15364,10 @@
       </c>
     </row>
     <row r="242" spans="1:12">
-      <c r="A242" s="28">
+      <c r="A242" s="37">
         <v>68</v>
       </c>
-      <c r="B242" s="28">
+      <c r="B242" s="37">
         <v>3</v>
       </c>
       <c r="C242" s="10" t="s">
@@ -15395,8 +15395,8 @@
       </c>
     </row>
     <row r="243" spans="1:12">
-      <c r="A243" s="29"/>
-      <c r="B243" s="29"/>
+      <c r="A243" s="38"/>
+      <c r="B243" s="38"/>
       <c r="C243" s="10" t="s">
         <v>1</v>
       </c>
@@ -15419,8 +15419,8 @@
       </c>
     </row>
     <row r="244" spans="1:12">
-      <c r="A244" s="30"/>
-      <c r="B244" s="30"/>
+      <c r="A244" s="39"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="11" t="s">
         <v>2</v>
       </c>
@@ -15449,10 +15449,10 @@
       </c>
     </row>
     <row r="245" spans="1:12">
-      <c r="A245" s="28">
+      <c r="A245" s="37">
         <v>69</v>
       </c>
-      <c r="B245" s="28">
+      <c r="B245" s="37">
         <v>5</v>
       </c>
       <c r="C245" s="10" t="s">
@@ -15477,8 +15477,8 @@
       </c>
     </row>
     <row r="246" spans="1:12">
-      <c r="A246" s="29"/>
-      <c r="B246" s="29"/>
+      <c r="A246" s="38"/>
+      <c r="B246" s="38"/>
       <c r="C246" s="10" t="s">
         <v>1</v>
       </c>
@@ -15504,8 +15504,8 @@
       </c>
     </row>
     <row r="247" spans="1:12">
-      <c r="A247" s="29"/>
-      <c r="B247" s="29"/>
+      <c r="A247" s="38"/>
+      <c r="B247" s="38"/>
       <c r="C247" s="10" t="s">
         <v>1</v>
       </c>
@@ -15528,8 +15528,8 @@
       </c>
     </row>
     <row r="248" spans="1:12">
-      <c r="A248" s="29"/>
-      <c r="B248" s="29"/>
+      <c r="A248" s="38"/>
+      <c r="B248" s="38"/>
       <c r="C248" s="9" t="s">
         <v>2</v>
       </c>
@@ -15557,8 +15557,8 @@
       </c>
     </row>
     <row r="249" spans="1:12">
-      <c r="A249" s="30"/>
-      <c r="B249" s="30"/>
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="9" t="s">
         <v>2</v>
       </c>
@@ -15589,10 +15589,10 @@
       </c>
     </row>
     <row r="250" spans="1:12">
-      <c r="A250" s="28">
+      <c r="A250" s="37">
         <v>70</v>
       </c>
-      <c r="B250" s="28">
+      <c r="B250" s="37">
         <v>4</v>
       </c>
       <c r="C250" s="10" t="s">
@@ -15617,8 +15617,8 @@
       </c>
     </row>
     <row r="251" spans="1:12">
-      <c r="A251" s="29"/>
-      <c r="B251" s="29"/>
+      <c r="A251" s="38"/>
+      <c r="B251" s="38"/>
       <c r="C251" s="9" t="s">
         <v>2</v>
       </c>
@@ -15646,8 +15646,8 @@
       </c>
     </row>
     <row r="252" spans="1:12">
-      <c r="A252" s="29"/>
-      <c r="B252" s="29"/>
+      <c r="A252" s="38"/>
+      <c r="B252" s="38"/>
       <c r="C252" s="9" t="s">
         <v>2</v>
       </c>
@@ -15678,8 +15678,8 @@
       </c>
     </row>
     <row r="253" spans="1:12">
-      <c r="A253" s="30"/>
-      <c r="B253" s="30"/>
+      <c r="A253" s="39"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="9" t="s">
         <v>2</v>
       </c>
@@ -15708,10 +15708,10 @@
       </c>
     </row>
     <row r="258" spans="1:13">
-      <c r="A258" s="28" t="s">
+      <c r="A258" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B258" s="28">
+      <c r="B258" s="37">
         <v>4</v>
       </c>
       <c r="C258" s="10" t="s">
@@ -15728,17 +15728,17 @@
         <v>4</v>
       </c>
       <c r="H258" s="10"/>
-      <c r="I258" s="31">
-        <v>4</v>
-      </c>
-      <c r="J258" s="31">
-        <v>3</v>
-      </c>
-      <c r="K258" s="32"/>
+      <c r="I258" s="28">
+        <v>4</v>
+      </c>
+      <c r="J258" s="28">
+        <v>3</v>
+      </c>
+      <c r="K258" s="29"/>
     </row>
     <row r="259" spans="1:13">
-      <c r="A259" s="29"/>
-      <c r="B259" s="29"/>
+      <c r="A259" s="38"/>
+      <c r="B259" s="38"/>
       <c r="C259" s="10" t="s">
         <v>1</v>
       </c>
@@ -15752,19 +15752,19 @@
       <c r="G259" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I259" s="33">
+      <c r="I259" s="30">
         <v>5</v>
       </c>
-      <c r="J259" s="33">
-        <v>0</v>
-      </c>
-      <c r="M259" s="34" t="s">
+      <c r="J259" s="30">
+        <v>0</v>
+      </c>
+      <c r="M259" s="31" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="260" spans="1:13">
-      <c r="A260" s="29"/>
-      <c r="B260" s="29"/>
+      <c r="A260" s="38"/>
+      <c r="B260" s="38"/>
       <c r="C260" s="10" t="s">
         <v>1</v>
       </c>
@@ -15778,10 +15778,10 @@
       <c r="G260" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I260" s="33">
+      <c r="I260" s="30">
         <v>6</v>
       </c>
-      <c r="J260" s="33">
+      <c r="J260" s="30">
         <v>0</v>
       </c>
       <c r="L260" t="s">
@@ -15789,8 +15789,8 @@
       </c>
     </row>
     <row r="261" spans="1:13">
-      <c r="A261" s="29"/>
-      <c r="B261" s="29"/>
+      <c r="A261" s="38"/>
+      <c r="B261" s="38"/>
       <c r="C261" s="10" t="s">
         <v>1</v>
       </c>
@@ -15804,22 +15804,22 @@
       <c r="G261" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I261" s="33">
+      <c r="I261" s="30">
         <v>7</v>
       </c>
-      <c r="J261" s="33">
-        <v>4</v>
-      </c>
-      <c r="K261" s="35"/>
+      <c r="J261" s="30">
+        <v>4</v>
+      </c>
+      <c r="K261" s="32"/>
       <c r="L261" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="262" spans="1:13">
-      <c r="A262" s="32" t="s">
+      <c r="A262" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B262" s="32"/>
+      <c r="B262" s="29"/>
       <c r="C262" s="10" t="s">
         <v>1</v>
       </c>
@@ -15833,11 +15833,11 @@
       <c r="G262" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H262" s="32"/>
-      <c r="I262" s="31">
-        <v>8</v>
-      </c>
-      <c r="J262" s="31">
+      <c r="H262" s="29"/>
+      <c r="I262" s="28">
+        <v>8</v>
+      </c>
+      <c r="J262" s="28">
         <v>6</v>
       </c>
       <c r="L262" t="s">
@@ -15861,10 +15861,10 @@
         <v>4</v>
       </c>
       <c r="H263"/>
-      <c r="I263" s="33">
+      <c r="I263" s="30">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J263" s="33">
+      <c r="J263" s="30">
         <v>5</v>
       </c>
       <c r="L263" t="s">
@@ -15890,18 +15890,18 @@
       <c r="H264" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I264" s="33" t="s">
+      <c r="I264" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="J264" s="33" t="s">
+      <c r="J264" s="30" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="265" spans="1:13">
-      <c r="A265" s="32" t="s">
+      <c r="A265" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B265" s="32"/>
+      <c r="B265" s="29"/>
       <c r="C265" s="10" t="s">
         <v>1</v>
       </c>
@@ -15916,10 +15916,10 @@
         <v>4</v>
       </c>
       <c r="H265"/>
-      <c r="I265" s="31">
-        <v>4</v>
-      </c>
-      <c r="J265" s="31">
+      <c r="I265" s="28">
+        <v>4</v>
+      </c>
+      <c r="J265" s="28">
         <v>3</v>
       </c>
       <c r="L265" t="s">
@@ -15941,10 +15941,10 @@
         <v>4</v>
       </c>
       <c r="H266"/>
-      <c r="I266" s="33">
+      <c r="I266" s="30">
         <v>6</v>
       </c>
-      <c r="J266" s="33">
+      <c r="J266" s="30">
         <v>3</v>
       </c>
     </row>
@@ -15963,10 +15963,10 @@
         <v>4</v>
       </c>
       <c r="H267"/>
-      <c r="I267" s="33">
-        <v>8</v>
-      </c>
-      <c r="J267" s="33">
+      <c r="I267" s="30">
+        <v>8</v>
+      </c>
+      <c r="J267" s="30">
         <v>1</v>
       </c>
       <c r="L267" t="s">
@@ -15974,8 +15974,8 @@
       </c>
     </row>
     <row r="268" spans="1:13">
-      <c r="A268" s="35"/>
-      <c r="B268" s="35"/>
+      <c r="A268" s="32"/>
+      <c r="B268" s="32"/>
       <c r="C268" s="11" t="s">
         <v>2</v>
       </c>
@@ -15992,18 +15992,18 @@
       <c r="H268" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I268" s="36" t="s">
+      <c r="I268" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="J268" s="36" t="s">
+      <c r="J268" s="33" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="269" spans="1:13">
-      <c r="A269" s="32" t="s">
+      <c r="A269" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B269" s="32"/>
+      <c r="B269" s="29"/>
       <c r="C269" s="10" t="s">
         <v>1</v>
       </c>
@@ -16018,10 +16018,10 @@
         <v>4</v>
       </c>
       <c r="H269"/>
-      <c r="I269" s="31">
+      <c r="I269" s="28">
         <v>7</v>
       </c>
-      <c r="J269" s="31">
+      <c r="J269" s="28">
         <v>3</v>
       </c>
     </row>
@@ -16040,10 +16040,10 @@
         <v>4</v>
       </c>
       <c r="H270"/>
-      <c r="I270" s="33">
+      <c r="I270" s="30">
         <v>9</v>
       </c>
-      <c r="J270" s="33">
+      <c r="J270" s="30">
         <v>3</v>
       </c>
     </row>
@@ -16066,10 +16066,10 @@
       <c r="H271" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I271" s="33" t="s">
+      <c r="I271" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="J271" s="33" t="s">
+      <c r="J271" s="30" t="s">
         <v>149</v>
       </c>
       <c r="M271" t="s">
@@ -16077,8 +16077,8 @@
       </c>
     </row>
     <row r="272" spans="1:13">
-      <c r="A272" s="35"/>
-      <c r="B272" s="35"/>
+      <c r="A272" s="32"/>
+      <c r="B272" s="32"/>
       <c r="C272" s="11" t="s">
         <v>2</v>
       </c>
@@ -16095,10 +16095,10 @@
         <v>4</v>
       </c>
       <c r="H272" s="11"/>
-      <c r="I272" s="36" t="s">
+      <c r="I272" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="J272" s="36" t="s">
+      <c r="J272" s="33" t="s">
         <v>152</v>
       </c>
       <c r="L272" t="s">
@@ -16106,10 +16106,10 @@
       </c>
     </row>
     <row r="273" spans="1:13">
-      <c r="A273" s="37" t="s">
+      <c r="A273" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="B273" s="37">
+      <c r="B273" s="40">
         <v>5</v>
       </c>
       <c r="C273" s="10" t="s">
@@ -16125,10 +16125,10 @@
       <c r="G273" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I273" s="31">
-        <v>3</v>
-      </c>
-      <c r="J273" s="31">
+      <c r="I273" s="28">
+        <v>3</v>
+      </c>
+      <c r="J273" s="28">
         <v>4</v>
       </c>
       <c r="L273" t="s">
@@ -16136,8 +16136,8 @@
       </c>
     </row>
     <row r="274" spans="1:13">
-      <c r="A274" s="38"/>
-      <c r="B274" s="38"/>
+      <c r="A274" s="41"/>
+      <c r="B274" s="41"/>
       <c r="C274" s="10" t="s">
         <v>1</v>
       </c>
@@ -16151,16 +16151,16 @@
       <c r="G274" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I274" s="33">
-        <v>4</v>
-      </c>
-      <c r="J274" s="33">
+      <c r="I274" s="30">
+        <v>4</v>
+      </c>
+      <c r="J274" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:13">
-      <c r="A275" s="38"/>
-      <c r="B275" s="38"/>
+      <c r="A275" s="41"/>
+      <c r="B275" s="41"/>
       <c r="C275" s="10" t="s">
         <v>1</v>
       </c>
@@ -16174,10 +16174,10 @@
       <c r="G275" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I275" s="33">
+      <c r="I275" s="30">
         <v>5</v>
       </c>
-      <c r="J275" s="33">
+      <c r="J275" s="30">
         <v>3</v>
       </c>
       <c r="L275" t="s">
@@ -16188,8 +16188,8 @@
       </c>
     </row>
     <row r="276" spans="1:13">
-      <c r="A276" s="38"/>
-      <c r="B276" s="38"/>
+      <c r="A276" s="41"/>
+      <c r="B276" s="41"/>
       <c r="C276" s="10" t="s">
         <v>1</v>
       </c>
@@ -16203,10 +16203,10 @@
       <c r="G276" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I276" s="33">
+      <c r="I276" s="30">
         <v>6</v>
       </c>
-      <c r="J276" s="33">
+      <c r="J276" s="30">
         <v>5</v>
       </c>
       <c r="L276" t="s">
@@ -16214,9 +16214,9 @@
       </c>
     </row>
     <row r="277" spans="1:13">
-      <c r="A277" s="39"/>
-      <c r="B277" s="39"/>
-      <c r="C277" s="40" t="s">
+      <c r="A277" s="42"/>
+      <c r="B277" s="42"/>
+      <c r="C277" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D277" s="11">
@@ -16230,18 +16230,18 @@
         <v>4</v>
       </c>
       <c r="H277" s="11"/>
-      <c r="I277" s="36">
-        <v>8</v>
-      </c>
-      <c r="J277" s="36">
+      <c r="I277" s="33">
+        <v>8</v>
+      </c>
+      <c r="J277" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:13">
-      <c r="A278" s="32" t="s">
+      <c r="A278" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B278" s="32"/>
+      <c r="B278" s="29"/>
       <c r="C278" s="10" t="s">
         <v>1</v>
       </c>
@@ -16255,10 +16255,10 @@
       <c r="G278" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I278" s="31">
-        <v>1</v>
-      </c>
-      <c r="J278" s="31">
+      <c r="I278" s="28">
+        <v>1</v>
+      </c>
+      <c r="J278" s="28">
         <v>4</v>
       </c>
       <c r="L278" t="s">
@@ -16279,10 +16279,10 @@
       <c r="G279" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I279" s="33">
+      <c r="I279" s="30">
         <v>5</v>
       </c>
-      <c r="J279" s="33">
+      <c r="J279" s="30">
         <v>1</v>
       </c>
     </row>
@@ -16300,10 +16300,10 @@
       <c r="G280" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I280" s="33">
+      <c r="I280" s="30">
         <v>9</v>
       </c>
-      <c r="J280" s="33">
+      <c r="J280" s="30">
         <v>3</v>
       </c>
     </row>
@@ -16326,16 +16326,16 @@
       <c r="H281" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I281" s="33" t="s">
+      <c r="I281" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="J281" s="33" t="s">
+      <c r="J281" s="30" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="282" spans="1:13">
-      <c r="A282" s="35"/>
-      <c r="B282" s="35"/>
+      <c r="A282" s="32"/>
+      <c r="B282" s="32"/>
       <c r="C282" s="11" t="s">
         <v>2</v>
       </c>
@@ -16354,10 +16354,10 @@
       <c r="H282" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I282" s="36" t="s">
+      <c r="I282" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="J282" s="36" t="s">
+      <c r="J282" s="33" t="s">
         <v>143</v>
       </c>
       <c r="M282" t="s">
@@ -16382,10 +16382,10 @@
         <v>4</v>
       </c>
       <c r="H283"/>
-      <c r="I283" s="33">
-        <v>2</v>
-      </c>
-      <c r="J283" s="33">
+      <c r="I283" s="30">
+        <v>2</v>
+      </c>
+      <c r="J283" s="30">
         <v>2</v>
       </c>
     </row>
@@ -16404,10 +16404,10 @@
         <v>4</v>
       </c>
       <c r="H284"/>
-      <c r="I284" s="33">
+      <c r="I284" s="30">
         <v>5</v>
       </c>
-      <c r="J284" s="33">
+      <c r="J284" s="30">
         <v>5</v>
       </c>
       <c r="L284" t="s">
@@ -16429,10 +16429,10 @@
         <v>4</v>
       </c>
       <c r="H285"/>
-      <c r="I285" s="33">
+      <c r="I285" s="30">
         <v>6</v>
       </c>
-      <c r="J285" s="33">
+      <c r="J285" s="30">
         <v>1</v>
       </c>
     </row>
@@ -16451,10 +16451,10 @@
         <v>4</v>
       </c>
       <c r="H286"/>
-      <c r="I286" s="33">
-        <v>8</v>
-      </c>
-      <c r="J286" s="33">
+      <c r="I286" s="30">
+        <v>8</v>
+      </c>
+      <c r="J286" s="30">
         <v>0</v>
       </c>
     </row>
@@ -16473,10 +16473,10 @@
         <v>4</v>
       </c>
       <c r="H287"/>
-      <c r="I287" s="33">
+      <c r="I287" s="30">
         <v>11</v>
       </c>
-      <c r="J287" s="33">
+      <c r="J287" s="30">
         <v>0</v>
       </c>
       <c r="M287" t="s">
@@ -16484,8 +16484,8 @@
       </c>
     </row>
     <row r="288" spans="1:13">
-      <c r="A288" s="35"/>
-      <c r="B288" s="35"/>
+      <c r="A288" s="32"/>
+      <c r="B288" s="32"/>
       <c r="C288" s="11" t="s">
         <v>2</v>
       </c>
@@ -16504,10 +16504,10 @@
       <c r="H288" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I288" s="36" t="s">
+      <c r="I288" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="J288" s="36" t="s">
+      <c r="J288" s="33" t="s">
         <v>161</v>
       </c>
       <c r="L288" t="s">
@@ -16532,10 +16532,10 @@
         <v>4</v>
       </c>
       <c r="H289"/>
-      <c r="I289" s="33">
-        <v>0</v>
-      </c>
-      <c r="J289" s="33">
+      <c r="I289" s="30">
+        <v>0</v>
+      </c>
+      <c r="J289" s="30">
         <v>0</v>
       </c>
       <c r="M289" t="s">
@@ -16557,10 +16557,10 @@
         <v>4</v>
       </c>
       <c r="H290"/>
-      <c r="I290" s="33">
-        <v>2</v>
-      </c>
-      <c r="J290" s="33">
+      <c r="I290" s="30">
+        <v>2</v>
+      </c>
+      <c r="J290" s="30">
         <v>0</v>
       </c>
     </row>
@@ -16579,10 +16579,10 @@
         <v>4</v>
       </c>
       <c r="H291"/>
-      <c r="I291" s="33">
+      <c r="I291" s="30">
         <v>7</v>
       </c>
-      <c r="J291" s="33">
+      <c r="J291" s="30">
         <v>1</v>
       </c>
     </row>
@@ -16601,10 +16601,10 @@
         <v>4</v>
       </c>
       <c r="H292"/>
-      <c r="I292" s="33">
-        <v>8</v>
-      </c>
-      <c r="J292" s="33">
+      <c r="I292" s="30">
+        <v>8</v>
+      </c>
+      <c r="J292" s="30">
         <v>6</v>
       </c>
       <c r="L292" t="s">
@@ -16630,10 +16630,10 @@
       <c r="H293" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I293" s="33" t="s">
+      <c r="I293" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="J293" s="33" t="s">
+      <c r="J293" s="30" t="s">
         <v>165</v>
       </c>
     </row>
@@ -16656,16 +16656,16 @@
       <c r="H294" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I294" s="33" t="s">
+      <c r="I294" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="J294" s="33" t="s">
+      <c r="J294" s="30" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="295" spans="1:13">
-      <c r="A295" s="35"/>
-      <c r="B295" s="35"/>
+      <c r="A295" s="32"/>
+      <c r="B295" s="32"/>
       <c r="C295" s="11" t="s">
         <v>2</v>
       </c>
@@ -16684,18 +16684,18 @@
       <c r="H295" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I295" s="36" t="s">
+      <c r="I295" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="J295" s="36" t="s">
+      <c r="J295" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="296" spans="1:13">
-      <c r="A296" s="32" t="s">
+      <c r="A296" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B296" s="32"/>
+      <c r="B296" s="29"/>
       <c r="C296" s="10" t="s">
         <v>1</v>
       </c>
@@ -16710,10 +16710,10 @@
         <v>4</v>
       </c>
       <c r="H296"/>
-      <c r="I296" s="31">
-        <v>1</v>
-      </c>
-      <c r="J296" s="31">
+      <c r="I296" s="28">
+        <v>1</v>
+      </c>
+      <c r="J296" s="28">
         <v>5</v>
       </c>
       <c r="L296" t="s">
@@ -16735,10 +16735,10 @@
         <v>4</v>
       </c>
       <c r="H297"/>
-      <c r="I297" s="33">
-        <v>8</v>
-      </c>
-      <c r="J297" s="33">
+      <c r="I297" s="30">
+        <v>8</v>
+      </c>
+      <c r="J297" s="30">
         <v>3</v>
       </c>
       <c r="M297" t="s">
@@ -16760,10 +16760,10 @@
         <v>4</v>
       </c>
       <c r="H298"/>
-      <c r="I298" s="33">
+      <c r="I298" s="30">
         <v>9</v>
       </c>
-      <c r="J298" s="33">
+      <c r="J298" s="30">
         <v>2</v>
       </c>
     </row>
@@ -16782,10 +16782,10 @@
         <v>4</v>
       </c>
       <c r="H299"/>
-      <c r="I299" s="33">
+      <c r="I299" s="30">
         <v>10</v>
       </c>
-      <c r="J299" s="33">
+      <c r="J299" s="30">
         <v>0</v>
       </c>
       <c r="M299" t="s">
@@ -16809,10 +16809,10 @@
         <v>4</v>
       </c>
       <c r="H300"/>
-      <c r="I300" s="33" t="s">
+      <c r="I300" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="J300" s="33" t="s">
+      <c r="J300" s="30" t="s">
         <v>143</v>
       </c>
     </row>
@@ -16833,16 +16833,16 @@
         <v>4</v>
       </c>
       <c r="H301"/>
-      <c r="I301" s="33" t="s">
+      <c r="I301" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="J301" s="33" t="s">
+      <c r="J301" s="30" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="302" spans="1:13">
-      <c r="A302" s="35"/>
-      <c r="B302" s="35"/>
+      <c r="A302" s="32"/>
+      <c r="B302" s="32"/>
       <c r="C302" s="11" t="s">
         <v>2</v>
       </c>
@@ -16858,19 +16858,19 @@
       <c r="G302" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H302" s="35"/>
-      <c r="I302" s="36" t="s">
+      <c r="H302" s="32"/>
+      <c r="I302" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="J302" s="36" t="s">
+      <c r="J302" s="33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="303" spans="1:13">
-      <c r="A303" s="32" t="s">
+      <c r="A303" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B303" s="32"/>
+      <c r="B303" s="29"/>
       <c r="C303" s="10" t="s">
         <v>1</v>
       </c>
@@ -16884,11 +16884,11 @@
       <c r="G303" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H303" s="32"/>
-      <c r="I303" s="31">
-        <v>0</v>
-      </c>
-      <c r="J303" s="31">
+      <c r="H303" s="29"/>
+      <c r="I303" s="28">
+        <v>0</v>
+      </c>
+      <c r="J303" s="28">
         <v>0</v>
       </c>
       <c r="M303" t="s">
@@ -16910,10 +16910,10 @@
         <v>4</v>
       </c>
       <c r="H304"/>
-      <c r="I304" s="33">
-        <v>2</v>
-      </c>
-      <c r="J304" s="33">
+      <c r="I304" s="30">
+        <v>2</v>
+      </c>
+      <c r="J304" s="30">
         <v>3</v>
       </c>
       <c r="M304" t="s">
@@ -16935,10 +16935,10 @@
         <v>4</v>
       </c>
       <c r="H305"/>
-      <c r="I305" s="33">
+      <c r="I305" s="30">
         <v>5</v>
       </c>
-      <c r="J305" s="33">
+      <c r="J305" s="30">
         <v>2</v>
       </c>
       <c r="M305" t="s">
@@ -16960,10 +16960,10 @@
         <v>4</v>
       </c>
       <c r="H306"/>
-      <c r="I306" s="33">
+      <c r="I306" s="30">
         <v>6</v>
       </c>
-      <c r="J306" s="33">
+      <c r="J306" s="30">
         <v>6</v>
       </c>
     </row>
@@ -16982,10 +16982,10 @@
         <v>4</v>
       </c>
       <c r="H307"/>
-      <c r="I307" s="33">
+      <c r="I307" s="30">
         <v>10</v>
       </c>
-      <c r="J307" s="33">
+      <c r="J307" s="30">
         <v>0</v>
       </c>
       <c r="M307" t="s">
@@ -17007,10 +17007,10 @@
         <v>4</v>
       </c>
       <c r="H308"/>
-      <c r="I308" s="33">
+      <c r="I308" s="30">
         <v>13</v>
       </c>
-      <c r="J308" s="33">
+      <c r="J308" s="30">
         <v>5</v>
       </c>
       <c r="M308" t="s">
@@ -17032,10 +17032,10 @@
         <v>4</v>
       </c>
       <c r="H309"/>
-      <c r="I309" s="33">
+      <c r="I309" s="30">
         <v>14</v>
       </c>
-      <c r="J309" s="33">
+      <c r="J309" s="30">
         <v>0</v>
       </c>
       <c r="M309" t="s">
@@ -17059,10 +17059,10 @@
         <v>4</v>
       </c>
       <c r="H310"/>
-      <c r="I310" s="33" t="s">
+      <c r="I310" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="J310" s="33">
+      <c r="J310" s="30">
         <v>0</v>
       </c>
     </row>
@@ -17083,16 +17083,16 @@
         <v>4</v>
       </c>
       <c r="H311"/>
-      <c r="I311" s="33" t="s">
+      <c r="I311" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="J311" s="33">
+      <c r="J311" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:13">
-      <c r="A312" s="35"/>
-      <c r="B312" s="35"/>
+      <c r="A312" s="32"/>
+      <c r="B312" s="32"/>
       <c r="C312" s="11" t="s">
         <v>2</v>
       </c>
@@ -17108,31 +17108,45 @@
       <c r="G312" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H312" s="35"/>
-      <c r="I312" s="36" t="s">
+      <c r="H312" s="32"/>
+      <c r="I312" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="J312" s="36">
+      <c r="J312" s="33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="B273:B277"/>
-    <mergeCell ref="A85:A94"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="A39:A50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="B245:B249"/>
+    <mergeCell ref="B200:B206"/>
+    <mergeCell ref="B207:B215"/>
+    <mergeCell ref="B216:B223"/>
+    <mergeCell ref="B224:B230"/>
+    <mergeCell ref="B231:B237"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B39:B50"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="A207:A215"/>
+    <mergeCell ref="A216:A223"/>
+    <mergeCell ref="B168:B176"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="B66:B73"/>
+    <mergeCell ref="B74:B84"/>
+    <mergeCell ref="B85:B94"/>
+    <mergeCell ref="B95:B105"/>
+    <mergeCell ref="B106:B114"/>
+    <mergeCell ref="B115:B122"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="B134:B145"/>
+    <mergeCell ref="B146:B160"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
     <mergeCell ref="A74:A84"/>
     <mergeCell ref="A200:A206"/>
     <mergeCell ref="A95:A105"/>
@@ -17146,46 +17160,32 @@
     <mergeCell ref="A177:A185"/>
     <mergeCell ref="A186:A192"/>
     <mergeCell ref="A193:A199"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="B273:B277"/>
+    <mergeCell ref="A85:A94"/>
     <mergeCell ref="A245:A249"/>
     <mergeCell ref="A250:A253"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="B39:B50"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="A207:A215"/>
-    <mergeCell ref="A216:A223"/>
     <mergeCell ref="A224:A230"/>
     <mergeCell ref="A231:A237"/>
     <mergeCell ref="A238:A241"/>
     <mergeCell ref="A242:A244"/>
-    <mergeCell ref="B168:B176"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="B66:B73"/>
-    <mergeCell ref="B74:B84"/>
-    <mergeCell ref="B85:B94"/>
-    <mergeCell ref="B95:B105"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="B134:B145"/>
-    <mergeCell ref="B146:B160"/>
     <mergeCell ref="B161:B167"/>
     <mergeCell ref="B250:B253"/>
     <mergeCell ref="B177:B185"/>
     <mergeCell ref="B186:B192"/>
     <mergeCell ref="B193:B199"/>
-    <mergeCell ref="B200:B206"/>
-    <mergeCell ref="B207:B215"/>
-    <mergeCell ref="B216:B223"/>
-    <mergeCell ref="B224:B230"/>
-    <mergeCell ref="B231:B237"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="B245:B249"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17203,10 +17203,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="4" spans="3:12">
-      <c r="C4" s="41">
-        <v>8</v>
-      </c>
-      <c r="D4" s="42">
+      <c r="C4" s="35">
+        <v>8</v>
+      </c>
+      <c r="D4" s="36">
         <v>3</v>
       </c>
       <c r="G4">
@@ -17232,10 +17232,10 @@
       </c>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="41">
-        <v>8</v>
-      </c>
-      <c r="D5" s="42">
+      <c r="C5" s="35">
+        <v>8</v>
+      </c>
+      <c r="D5" s="36">
         <v>5</v>
       </c>
       <c r="G5">
@@ -17261,10 +17261,10 @@
       </c>
     </row>
     <row r="6" spans="3:12">
-      <c r="C6" s="41">
-        <v>8</v>
-      </c>
-      <c r="D6" s="42">
+      <c r="C6" s="35">
+        <v>8</v>
+      </c>
+      <c r="D6" s="36">
         <v>3</v>
       </c>
       <c r="G6">
@@ -17290,10 +17290,10 @@
       </c>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="41">
-        <v>8</v>
-      </c>
-      <c r="D7" s="42">
+      <c r="C7" s="35">
+        <v>8</v>
+      </c>
+      <c r="D7" s="36">
         <v>5</v>
       </c>
       <c r="G7">
